--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>17.04000091552734</v>
+        <v>14.64000034332275</v>
       </c>
       <c r="B2">
-        <v>17.13999938964844</v>
+        <v>15.11999988555908</v>
       </c>
       <c r="C2">
-        <v>16.1299991607666</v>
+        <v>13.40999984741211</v>
       </c>
       <c r="D2">
-        <v>16.45999908447266</v>
+        <v>13.68000030517578</v>
       </c>
       <c r="E2">
-        <v>16.45999908447266</v>
+        <v>13.68000030517578</v>
       </c>
       <c r="F2">
-        <v>12333200</v>
+        <v>25921400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>16.51000022888184</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="B3">
-        <v>17.27000045776367</v>
+        <v>14.46000003814697</v>
       </c>
       <c r="C3">
-        <v>16.21999931335449</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="D3">
-        <v>17.06999969482422</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="E3">
-        <v>17.06999969482422</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="F3">
-        <v>10367500</v>
+        <v>22006000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>17.1299991607666</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>17.86000061035156</v>
+        <v>15.18000030517578</v>
       </c>
       <c r="C4">
-        <v>16.92000007629395</v>
+        <v>13.75</v>
       </c>
       <c r="D4">
-        <v>17.85000038146973</v>
+        <v>15.15999984741211</v>
       </c>
       <c r="E4">
-        <v>17.85000038146973</v>
+        <v>15.15999984741211</v>
       </c>
       <c r="F4">
-        <v>9902900</v>
+        <v>24051200</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18.17000007629395</v>
+        <v>15.05000019073486</v>
       </c>
       <c r="B5">
-        <v>18.40999984741211</v>
+        <v>15.86999988555908</v>
       </c>
       <c r="C5">
-        <v>17.29000091552734</v>
+        <v>14.85000038146973</v>
       </c>
       <c r="D5">
-        <v>17.71999931335449</v>
+        <v>15.57999992370605</v>
       </c>
       <c r="E5">
-        <v>17.71999931335449</v>
+        <v>15.57999992370605</v>
       </c>
       <c r="F5">
-        <v>13843300</v>
+        <v>18873800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>17.79000091552734</v>
+        <v>15.05000019073486</v>
       </c>
       <c r="B6">
-        <v>19.56999969482422</v>
+        <v>15.3100004196167</v>
       </c>
       <c r="C6">
-        <v>17.39999961853027</v>
+        <v>14.68000030517578</v>
       </c>
       <c r="D6">
-        <v>19.31999969482422</v>
+        <v>15.02000045776367</v>
       </c>
       <c r="E6">
-        <v>19.31999969482422</v>
+        <v>15.02000045776367</v>
       </c>
       <c r="F6">
-        <v>29235500</v>
+        <v>15473600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18.77000045776367</v>
+        <v>15.10000038146973</v>
       </c>
       <c r="B7">
-        <v>18.92000007629395</v>
+        <v>15.5600004196167</v>
       </c>
       <c r="C7">
-        <v>17.6299991607666</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="D7">
-        <v>18.64999961853027</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="E7">
-        <v>18.64999961853027</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="F7">
-        <v>25153200</v>
+        <v>16572200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18.28000068664551</v>
+        <v>15.07999992370605</v>
       </c>
       <c r="B8">
-        <v>19.26000022888184</v>
+        <v>15.4399995803833</v>
       </c>
       <c r="C8">
-        <v>17.97999954223633</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="D8">
-        <v>18.34000015258789</v>
+        <v>15.22999954223633</v>
       </c>
       <c r="E8">
-        <v>18.34000015258789</v>
+        <v>15.22999954223633</v>
       </c>
       <c r="F8">
-        <v>19253000</v>
+        <v>15448100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18.55999946594238</v>
+        <v>15.25</v>
       </c>
       <c r="B9">
-        <v>18.6299991607666</v>
+        <v>15.4399995803833</v>
       </c>
       <c r="C9">
-        <v>16.86000061035156</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="D9">
-        <v>17.02000045776367</v>
+        <v>15.02999973297119</v>
       </c>
       <c r="E9">
-        <v>17.02000045776367</v>
+        <v>15.02999973297119</v>
       </c>
       <c r="F9">
-        <v>25517200</v>
+        <v>15548100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>16.65999984741211</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="B10">
-        <v>17.02000045776367</v>
+        <v>16.45999908447266</v>
       </c>
       <c r="C10">
-        <v>15.85999965667725</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="D10">
-        <v>16.10000038146973</v>
+        <v>15.46000003814697</v>
       </c>
       <c r="E10">
-        <v>16.10000038146973</v>
+        <v>15.46000003814697</v>
       </c>
       <c r="F10">
-        <v>25627400</v>
+        <v>33255500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>16.18000030517578</v>
+        <v>15.76000022888184</v>
       </c>
       <c r="B11">
-        <v>16.65999984741211</v>
+        <v>16.72999954223633</v>
       </c>
       <c r="C11">
-        <v>15.86999988555908</v>
+        <v>15.48999977111816</v>
       </c>
       <c r="D11">
-        <v>15.89999961853027</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="E11">
-        <v>15.89999961853027</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="F11">
-        <v>21052700</v>
+        <v>23650200</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>15.60000038146973</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>15.69999980926514</v>
+        <v>17.20000076293945</v>
       </c>
       <c r="C12">
-        <v>13.82999992370605</v>
+        <v>16.15999984741211</v>
       </c>
       <c r="D12">
-        <v>14.14999961853027</v>
+        <v>17.17000007629395</v>
       </c>
       <c r="E12">
-        <v>14.14999961853027</v>
+        <v>17.17000007629395</v>
       </c>
       <c r="F12">
-        <v>33695700</v>
+        <v>28424000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>15.30000019073486</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="B13">
-        <v>17.02000045776367</v>
+        <v>18.73999977111816</v>
       </c>
       <c r="C13">
-        <v>15.03999996185303</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="D13">
-        <v>16.18000030517578</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="E13">
-        <v>16.18000030517578</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="F13">
-        <v>74836300</v>
+        <v>65329400</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>16.39999961853027</v>
+        <v>17.1299991607666</v>
       </c>
       <c r="B14">
-        <v>16.43000030517578</v>
+        <v>17.73999977111816</v>
       </c>
       <c r="C14">
-        <v>14.86999988555908</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="D14">
-        <v>15.03999996185303</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="E14">
-        <v>15.03999996185303</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="F14">
-        <v>30296100</v>
+        <v>23584600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>13.89999961853027</v>
+        <v>17.25</v>
       </c>
       <c r="B15">
-        <v>15.71000003814697</v>
+        <v>19.13999938964844</v>
       </c>
       <c r="C15">
-        <v>13.81999969482422</v>
+        <v>17.13999938964844</v>
       </c>
       <c r="D15">
-        <v>15.65999984741211</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>15.65999984741211</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>28098200</v>
+        <v>47991300</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>15.36999988555908</v>
+        <v>20.67000007629395</v>
       </c>
       <c r="B16">
-        <v>15.67000007629395</v>
+        <v>22.13999938964844</v>
       </c>
       <c r="C16">
-        <v>14.47999954223633</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="D16">
-        <v>14.52999973297119</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="E16">
-        <v>14.52999973297119</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="F16">
-        <v>19927800</v>
+        <v>84607700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>14.64000034332275</v>
+        <v>20.20999908447266</v>
       </c>
       <c r="B17">
-        <v>15.11999988555908</v>
+        <v>20.46999931335449</v>
       </c>
       <c r="C17">
-        <v>13.40999984741211</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="D17">
-        <v>13.68000030517578</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E17">
-        <v>13.68000030517578</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F17">
-        <v>25921400</v>
+        <v>35885800</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>13.96000003814697</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="B18">
-        <v>14.46000003814697</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="C18">
-        <v>13.6899995803833</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="D18">
-        <v>13.93000030517578</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="E18">
-        <v>13.93000030517578</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="F18">
-        <v>22006000</v>
+        <v>34434700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>14</v>
+        <v>20.20999908447266</v>
       </c>
       <c r="B19">
-        <v>15.18000030517578</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="C19">
-        <v>13.75</v>
+        <v>19.27000045776367</v>
       </c>
       <c r="D19">
-        <v>15.15999984741211</v>
+        <v>20.21999931335449</v>
       </c>
       <c r="E19">
-        <v>15.15999984741211</v>
+        <v>20.21999931335449</v>
       </c>
       <c r="F19">
-        <v>24051200</v>
+        <v>30400300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>15.05000019073486</v>
+        <v>20.67000007629395</v>
       </c>
       <c r="B20">
-        <v>15.86999988555908</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="C20">
-        <v>14.85000038146973</v>
+        <v>20.43000030517578</v>
       </c>
       <c r="D20">
-        <v>15.57999992370605</v>
+        <v>21.43000030517578</v>
       </c>
       <c r="E20">
-        <v>15.57999992370605</v>
+        <v>21.43000030517578</v>
       </c>
       <c r="F20">
-        <v>18873800</v>
+        <v>85875600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>15.05000019073486</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="B21">
-        <v>15.3100004196167</v>
+        <v>21.44000053405762</v>
       </c>
       <c r="C21">
-        <v>14.68000030517578</v>
+        <v>19.79000091552734</v>
       </c>
       <c r="D21">
-        <v>15.02000045776367</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="E21">
-        <v>15.02000045776367</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="F21">
-        <v>15473600</v>
+        <v>33839100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>15.10000038146973</v>
+        <v>19.89999961853027</v>
       </c>
       <c r="B22">
-        <v>15.5600004196167</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="C22">
-        <v>14.78999996185303</v>
+        <v>19.36000061035156</v>
       </c>
       <c r="D22">
-        <v>14.9399995803833</v>
+        <v>19.88999938964844</v>
       </c>
       <c r="E22">
-        <v>14.9399995803833</v>
+        <v>19.88999938964844</v>
       </c>
       <c r="F22">
-        <v>16572200</v>
+        <v>22581700</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>15.07999992370605</v>
+        <v>19.89999961853027</v>
       </c>
       <c r="B23">
-        <v>15.4399995803833</v>
+        <v>20.29999923706055</v>
       </c>
       <c r="C23">
-        <v>14.77000045776367</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="D23">
-        <v>15.22999954223633</v>
+        <v>19.15999984741211</v>
       </c>
       <c r="E23">
-        <v>15.22999954223633</v>
+        <v>19.15999984741211</v>
       </c>
       <c r="F23">
-        <v>15448100</v>
+        <v>27324700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>15.25</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="B24">
-        <v>15.4399995803833</v>
+        <v>19.25</v>
       </c>
       <c r="C24">
-        <v>14.61999988555908</v>
+        <v>17.82999992370605</v>
       </c>
       <c r="D24">
-        <v>15.02999973297119</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="E24">
-        <v>15.02999973297119</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="F24">
-        <v>15548100</v>
+        <v>28584300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>15.09000015258789</v>
+        <v>17.92000007629395</v>
       </c>
       <c r="B25">
-        <v>16.45999908447266</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="C25">
-        <v>15.06999969482422</v>
+        <v>17.63999938964844</v>
       </c>
       <c r="D25">
-        <v>15.46000003814697</v>
+        <v>18.1299991607666</v>
       </c>
       <c r="E25">
-        <v>15.46000003814697</v>
+        <v>18.1299991607666</v>
       </c>
       <c r="F25">
-        <v>33255500</v>
+        <v>22690500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>15.76000022888184</v>
+        <v>18.02000045776367</v>
       </c>
       <c r="B26">
-        <v>16.72999954223633</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="C26">
-        <v>15.48999977111816</v>
+        <v>17.40999984741211</v>
       </c>
       <c r="D26">
-        <v>16.67000007629395</v>
+        <v>17.46999931335449</v>
       </c>
       <c r="E26">
-        <v>16.67000007629395</v>
+        <v>17.46999931335449</v>
       </c>
       <c r="F26">
-        <v>23650200</v>
+        <v>20519700</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="B27">
-        <v>17.20000076293945</v>
+        <v>17.76000022888184</v>
       </c>
       <c r="C27">
-        <v>16.15999984741211</v>
+        <v>16.84000015258789</v>
       </c>
       <c r="D27">
-        <v>17.17000007629395</v>
+        <v>16.90999984741211</v>
       </c>
       <c r="E27">
-        <v>17.17000007629395</v>
+        <v>16.90999984741211</v>
       </c>
       <c r="F27">
-        <v>28424000</v>
+        <v>19100300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>17.15999984741211</v>
+        <v>16.80999946594238</v>
       </c>
       <c r="B28">
-        <v>18.73999977111816</v>
+        <v>17.5</v>
       </c>
       <c r="C28">
-        <v>16.67000007629395</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="D28">
-        <v>16.67000007629395</v>
+        <v>17.3700008392334</v>
       </c>
       <c r="E28">
-        <v>16.67000007629395</v>
+        <v>17.3700008392334</v>
       </c>
       <c r="F28">
-        <v>65329400</v>
+        <v>21618900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>17.1299991607666</v>
+        <v>17.25</v>
       </c>
       <c r="B29">
-        <v>17.73999977111816</v>
+        <v>17.48999977111816</v>
       </c>
       <c r="C29">
-        <v>16.70000076293945</v>
+        <v>16.84000015258789</v>
       </c>
       <c r="D29">
-        <v>16.97999954223633</v>
+        <v>17.43000030517578</v>
       </c>
       <c r="E29">
-        <v>16.97999954223633</v>
+        <v>17.43000030517578</v>
       </c>
       <c r="F29">
-        <v>23584600</v>
+        <v>13103900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>17.25</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="B30">
-        <v>19.13999938964844</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="C30">
-        <v>17.13999938964844</v>
+        <v>17.44000053405762</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="F30">
-        <v>47991300</v>
+        <v>15644500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20.67000007629395</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="B31">
-        <v>22.13999938964844</v>
+        <v>18.68000030517578</v>
       </c>
       <c r="C31">
-        <v>19.10000038146973</v>
+        <v>17.71999931335449</v>
       </c>
       <c r="D31">
-        <v>19.71999931335449</v>
+        <v>18.26000022888184</v>
       </c>
       <c r="E31">
-        <v>19.71999931335449</v>
+        <v>18.26000022888184</v>
       </c>
       <c r="F31">
-        <v>84607700</v>
+        <v>20425500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20.20999908447266</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="B32">
-        <v>20.46999931335449</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="C32">
-        <v>18.42000007629395</v>
+        <v>17.73999977111816</v>
       </c>
       <c r="D32">
-        <v>18.79999923706055</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="E32">
-        <v>18.79999923706055</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="F32">
-        <v>35885800</v>
+        <v>14548100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19.06999969482422</v>
+        <v>18.18000030517578</v>
       </c>
       <c r="B33">
-        <v>20.18000030517578</v>
+        <v>19.13999938964844</v>
       </c>
       <c r="C33">
-        <v>18.53000068664551</v>
+        <v>18.04000091552734</v>
       </c>
       <c r="D33">
-        <v>19.71999931335449</v>
+        <v>18.6299991607666</v>
       </c>
       <c r="E33">
-        <v>19.71999931335449</v>
+        <v>18.6299991607666</v>
       </c>
       <c r="F33">
-        <v>34434700</v>
+        <v>20750500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20.20999908447266</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="B34">
-        <v>20.51000022888184</v>
+        <v>19.23999977111816</v>
       </c>
       <c r="C34">
-        <v>19.27000045776367</v>
+        <v>17.78000068664551</v>
       </c>
       <c r="D34">
-        <v>20.21999931335449</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="E34">
-        <v>20.21999931335449</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="F34">
-        <v>30400300</v>
+        <v>20315400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20.67000007629395</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="B35">
-        <v>23.04000091552734</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="C35">
-        <v>20.43000030517578</v>
+        <v>17.28000068664551</v>
       </c>
       <c r="D35">
-        <v>21.43000030517578</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="E35">
-        <v>21.43000030517578</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="F35">
-        <v>85875600</v>
+        <v>25452600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21.39999961853027</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B36">
-        <v>21.44000053405762</v>
+        <v>18.45000076293945</v>
       </c>
       <c r="C36">
-        <v>19.79000091552734</v>
+        <v>17.60000038146973</v>
       </c>
       <c r="D36">
-        <v>20.04999923706055</v>
+        <v>17.84000015258789</v>
       </c>
       <c r="E36">
-        <v>20.04999923706055</v>
+        <v>17.84000015258789</v>
       </c>
       <c r="F36">
-        <v>33839100</v>
+        <v>16278000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19.89999961853027</v>
+        <v>17.82999992370605</v>
       </c>
       <c r="B37">
-        <v>20.20000076293945</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="C37">
-        <v>19.36000061035156</v>
+        <v>17.19000053405762</v>
       </c>
       <c r="D37">
-        <v>19.88999938964844</v>
+        <v>17.22999954223633</v>
       </c>
       <c r="E37">
-        <v>19.88999938964844</v>
+        <v>17.22999954223633</v>
       </c>
       <c r="F37">
-        <v>22581700</v>
+        <v>13154500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19.89999961853027</v>
+        <v>17.13999938964844</v>
       </c>
       <c r="B38">
-        <v>20.29999923706055</v>
+        <v>17.47999954223633</v>
       </c>
       <c r="C38">
-        <v>18.8799991607666</v>
+        <v>16.69000053405762</v>
       </c>
       <c r="D38">
-        <v>19.15999984741211</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="E38">
-        <v>19.15999984741211</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="F38">
-        <v>27324700</v>
+        <v>12756900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18.70000076293945</v>
+        <v>16.75</v>
       </c>
       <c r="B39">
-        <v>19.25</v>
+        <v>16.94000053405762</v>
       </c>
       <c r="C39">
-        <v>17.82999992370605</v>
+        <v>15.84000015258789</v>
       </c>
       <c r="D39">
-        <v>17.97999954223633</v>
+        <v>16.22999954223633</v>
       </c>
       <c r="E39">
-        <v>17.97999954223633</v>
+        <v>16.22999954223633</v>
       </c>
       <c r="F39">
-        <v>28584300</v>
+        <v>19486700</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>17.92000007629395</v>
+        <v>15.47999954223633</v>
       </c>
       <c r="B40">
-        <v>18.69000053405762</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="C40">
-        <v>17.63999938964844</v>
+        <v>15.40999984741211</v>
       </c>
       <c r="D40">
-        <v>18.1299991607666</v>
+        <v>16.25</v>
       </c>
       <c r="E40">
-        <v>18.1299991607666</v>
+        <v>16.25</v>
       </c>
       <c r="F40">
-        <v>22690500</v>
+        <v>12901900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18.02000045776367</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="B41">
-        <v>18.36000061035156</v>
+        <v>16.3700008392334</v>
       </c>
       <c r="C41">
-        <v>17.40999984741211</v>
+        <v>15.85000038146973</v>
       </c>
       <c r="D41">
-        <v>17.46999931335449</v>
+        <v>16.17000007629395</v>
       </c>
       <c r="E41">
-        <v>17.46999931335449</v>
+        <v>16.17000007629395</v>
       </c>
       <c r="F41">
-        <v>20519700</v>
+        <v>11851200</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>17.5</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="B42">
-        <v>17.76000022888184</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="C42">
-        <v>16.84000015258789</v>
+        <v>15.72999954223633</v>
       </c>
       <c r="D42">
-        <v>16.90999984741211</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="E42">
-        <v>16.90999984741211</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="F42">
-        <v>19100300</v>
+        <v>11637400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>16.80999946594238</v>
+        <v>16.5</v>
       </c>
       <c r="B43">
-        <v>17.5</v>
+        <v>17.42000007629395</v>
       </c>
       <c r="C43">
+        <v>16.19000053405762</v>
+      </c>
+      <c r="D43">
         <v>16.31999969482422</v>
       </c>
-      <c r="D43">
-        <v>17.3700008392334</v>
-      </c>
       <c r="E43">
-        <v>17.3700008392334</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="F43">
-        <v>21618900</v>
+        <v>26745900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>17.25</v>
+        <v>16.76000022888184</v>
       </c>
       <c r="B44">
-        <v>17.48999977111816</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="C44">
-        <v>16.84000015258789</v>
+        <v>14.94999980926514</v>
       </c>
       <c r="D44">
-        <v>17.43000030517578</v>
+        <v>15.01000022888184</v>
       </c>
       <c r="E44">
-        <v>17.43000030517578</v>
+        <v>15.01000022888184</v>
       </c>
       <c r="F44">
-        <v>13103900</v>
+        <v>27927000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>17.61000061035156</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="B45">
-        <v>18.17000007629395</v>
+        <v>15.34000015258789</v>
       </c>
       <c r="C45">
-        <v>17.44000053405762</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="D45">
-        <v>17.61000061035156</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="E45">
-        <v>17.61000061035156</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="F45">
-        <v>15644500</v>
+        <v>24352300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>17.95999908447266</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="B46">
-        <v>18.68000030517578</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="C46">
-        <v>17.71999931335449</v>
+        <v>13.72000026702881</v>
       </c>
       <c r="D46">
-        <v>18.26000022888184</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="E46">
-        <v>18.26000022888184</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="F46">
-        <v>20425500</v>
+        <v>20527900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18.15999984741211</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="B47">
-        <v>18.3700008392334</v>
+        <v>13.78999996185303</v>
       </c>
       <c r="C47">
-        <v>17.73999977111816</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D47">
-        <v>18.20000076293945</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="E47">
-        <v>18.20000076293945</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="F47">
-        <v>14548100</v>
+        <v>21065900</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18.18000030517578</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="B48">
-        <v>19.13999938964844</v>
+        <v>14.23999977111816</v>
       </c>
       <c r="C48">
-        <v>18.04000091552734</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="D48">
-        <v>18.6299991607666</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="E48">
-        <v>18.6299991607666</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="F48">
-        <v>20750500</v>
+        <v>17667400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18.67000007629395</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="B49">
-        <v>19.23999977111816</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="C49">
-        <v>17.78000068664551</v>
+        <v>13.9399995803833</v>
       </c>
       <c r="D49">
-        <v>17.86000061035156</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="E49">
-        <v>17.86000061035156</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="F49">
-        <v>20315400</v>
+        <v>15887200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>17.89999961853027</v>
+        <v>14.44999980926514</v>
       </c>
       <c r="B50">
-        <v>18.39999961853027</v>
+        <v>14.52999973297119</v>
       </c>
       <c r="C50">
-        <v>17.28000068664551</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="D50">
-        <v>18.07999992370605</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="E50">
-        <v>18.07999992370605</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="F50">
-        <v>25452600</v>
+        <v>13232300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18.03000068664551</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="B51">
-        <v>18.45000076293945</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="C51">
-        <v>17.60000038146973</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="D51">
-        <v>17.84000015258789</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="E51">
-        <v>17.84000015258789</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F51">
-        <v>16278000</v>
+        <v>12735300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>17.82999992370605</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B52">
-        <v>17.90999984741211</v>
+        <v>14.13000011444092</v>
       </c>
       <c r="C52">
-        <v>17.19000053405762</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="D52">
-        <v>17.22999954223633</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="E52">
-        <v>17.22999954223633</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="F52">
-        <v>13154500</v>
+        <v>13567300</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>17.13999938964844</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="B53">
-        <v>17.47999954223633</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="C53">
-        <v>16.69000053405762</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="D53">
-        <v>16.71999931335449</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="E53">
-        <v>16.71999931335449</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="F53">
-        <v>12756900</v>
+        <v>24500600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>16.75</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="B54">
-        <v>16.94000053405762</v>
+        <v>16.48999977111816</v>
       </c>
       <c r="C54">
-        <v>15.84000015258789</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="D54">
-        <v>16.22999954223633</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E54">
-        <v>16.22999954223633</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F54">
-        <v>19486700</v>
+        <v>116127500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>15.47999954223633</v>
+        <v>16.61000061035156</v>
       </c>
       <c r="B55">
-        <v>16.38999938964844</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="C55">
-        <v>15.40999984741211</v>
+        <v>15.27999973297119</v>
       </c>
       <c r="D55">
-        <v>16.25</v>
+        <v>15.42000007629395</v>
       </c>
       <c r="E55">
-        <v>16.25</v>
+        <v>15.42000007629395</v>
       </c>
       <c r="F55">
-        <v>12901900</v>
+        <v>46247200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>16.23999977111816</v>
+        <v>15.02999973297119</v>
       </c>
       <c r="B56">
-        <v>16.3700008392334</v>
+        <v>15.51000022888184</v>
       </c>
       <c r="C56">
-        <v>15.85000038146973</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="D56">
-        <v>16.17000007629395</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="E56">
-        <v>16.17000007629395</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="F56">
-        <v>11851200</v>
+        <v>22117400</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>16.02000045776367</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="B57">
-        <v>16.38999938964844</v>
+        <v>15.25</v>
       </c>
       <c r="C57">
-        <v>15.72999954223633</v>
+        <v>14.4399995803833</v>
       </c>
       <c r="D57">
-        <v>16.23999977111816</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="E57">
-        <v>16.23999977111816</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="F57">
-        <v>11637400</v>
+        <v>13522000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>16.5</v>
+        <v>14.55000019073486</v>
       </c>
       <c r="B58">
-        <v>17.42000007629395</v>
+        <v>14.57999992370605</v>
       </c>
       <c r="C58">
-        <v>16.19000053405762</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="D58">
-        <v>16.31999969482422</v>
+        <v>14.25</v>
       </c>
       <c r="E58">
-        <v>16.31999969482422</v>
+        <v>14.25</v>
       </c>
       <c r="F58">
-        <v>26745900</v>
+        <v>14151900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>16.76000022888184</v>
+        <v>14.10999965667725</v>
       </c>
       <c r="B59">
-        <v>16.79999923706055</v>
+        <v>14.56999969482422</v>
       </c>
       <c r="C59">
-        <v>14.94999980926514</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="D59">
-        <v>15.01000022888184</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="E59">
-        <v>15.01000022888184</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="F59">
-        <v>27927000</v>
+        <v>16313000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>14.97000026702881</v>
+        <v>13.98999977111816</v>
       </c>
       <c r="B60">
-        <v>15.34000015258789</v>
+        <v>14.75</v>
       </c>
       <c r="C60">
-        <v>13.97000026702881</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="D60">
-        <v>14.39999961853027</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="E60">
-        <v>14.39999961853027</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="F60">
-        <v>24352300</v>
+        <v>17031900</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>14.36999988555908</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="B61">
-        <v>14.61999988555908</v>
+        <v>14.64000034332275</v>
       </c>
       <c r="C61">
-        <v>13.72000026702881</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="D61">
-        <v>13.90999984741211</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="E61">
-        <v>13.90999984741211</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="F61">
-        <v>20527900</v>
+        <v>11634600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>13.35999965667725</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="B62">
-        <v>13.78999996185303</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="C62">
-        <v>13.1899995803833</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="D62">
-        <v>13.60000038146973</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="E62">
-        <v>13.60000038146973</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="F62">
-        <v>21065900</v>
+        <v>14547100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>13.64000034332275</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="B63">
-        <v>14.23999977111816</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="C63">
-        <v>13.02999973297119</v>
+        <v>14.44999980926514</v>
       </c>
       <c r="D63">
-        <v>14.15999984741211</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="E63">
-        <v>14.15999984741211</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="F63">
-        <v>17667400</v>
+        <v>13606800</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>14.15999984741211</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="B64">
-        <v>14.89000034332275</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="C64">
-        <v>13.9399995803833</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="D64">
-        <v>14.60000038146973</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="E64">
-        <v>14.60000038146973</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="F64">
-        <v>15887200</v>
+        <v>9320200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>14.44999980926514</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="B65">
-        <v>14.52999973297119</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="C65">
-        <v>13.77000045776367</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="D65">
-        <v>13.88000011444092</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="E65">
-        <v>13.88000011444092</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="F65">
-        <v>13232300</v>
+        <v>9048200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>13.96000003814697</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="B66">
-        <v>13.96000003814697</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="C66">
-        <v>13.26000022888184</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="D66">
-        <v>13.59000015258789</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E66">
-        <v>13.59000015258789</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F66">
-        <v>12735300</v>
+        <v>16550300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>13.44999980926514</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="B67">
-        <v>14.13000011444092</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="C67">
-        <v>13.23999977111816</v>
+        <v>13.02000045776367</v>
       </c>
       <c r="D67">
-        <v>13.69999980926514</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E67">
-        <v>13.69999980926514</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F67">
-        <v>13567300</v>
+        <v>12986900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>13.48999977111816</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B68">
-        <v>13.64999961853027</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C68">
-        <v>12.53999996185303</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="D68">
-        <v>12.72999954223633</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E68">
-        <v>12.72999954223633</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F68">
-        <v>24500600</v>
+        <v>16146400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>14.27000045776367</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="B69">
-        <v>16.48999977111816</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="C69">
-        <v>14.02000045776367</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D69">
-        <v>16.01000022888184</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="E69">
-        <v>16.01000022888184</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="F69">
-        <v>116127500</v>
+        <v>31537500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>16.61000061035156</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="B70">
-        <v>16.67000007629395</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C70">
-        <v>15.27999973297119</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D70">
-        <v>15.42000007629395</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="E70">
-        <v>15.42000007629395</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="F70">
-        <v>46247200</v>
+        <v>18242500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>15.02999973297119</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="B71">
-        <v>15.51000022888184</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="C71">
-        <v>14.42000007629395</v>
+        <v>12.55000019073486</v>
       </c>
       <c r="D71">
-        <v>14.60999965667725</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="E71">
-        <v>14.60999965667725</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="F71">
-        <v>22117400</v>
+        <v>12787700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>14.65999984741211</v>
+        <v>12.93000030517578</v>
       </c>
       <c r="B72">
-        <v>15.25</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="C72">
-        <v>14.4399995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="D72">
-        <v>14.60999965667725</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="E72">
-        <v>14.60999965667725</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="F72">
-        <v>13522000</v>
+        <v>12749700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>14.55000019073486</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="B73">
-        <v>14.57999992370605</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="C73">
-        <v>13.92000007629395</v>
+        <v>13.25</v>
       </c>
       <c r="D73">
-        <v>14.25</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="E73">
-        <v>14.25</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="F73">
-        <v>14151900</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>14.10999965667725</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="B74">
-        <v>14.56999969482422</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C74">
-        <v>13.88000011444092</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D74">
-        <v>13.96000003814697</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="E74">
-        <v>13.96000003814697</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F74">
-        <v>16313000</v>
+        <v>11390800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>13.98999977111816</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B75">
-        <v>14.75</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="C75">
-        <v>13.88000011444092</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="D75">
-        <v>14.47000026702881</v>
+        <v>13.25</v>
       </c>
       <c r="E75">
-        <v>14.47000026702881</v>
+        <v>13.25</v>
       </c>
       <c r="F75">
-        <v>17031900</v>
+        <v>16502500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>14.53999996185303</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B76">
-        <v>14.64000034332275</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="C76">
-        <v>14.10000038146973</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="D76">
-        <v>14.42000007629395</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="E76">
-        <v>14.42000007629395</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="F76">
-        <v>11634600</v>
+        <v>10619900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>14.27999973297119</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="B77">
-        <v>14.71000003814697</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="C77">
-        <v>13.88000011444092</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="D77">
-        <v>14.71000003814697</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E77">
-        <v>14.71000003814697</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F77">
-        <v>14547100</v>
+        <v>12907800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>14.60999965667725</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="B78">
-        <v>15.21000003814697</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="C78">
-        <v>14.44999980926514</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="D78">
-        <v>14.78999996185303</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="E78">
-        <v>14.78999996185303</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="F78">
-        <v>13606800</v>
+        <v>20161000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>14.8100004196167</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="B79">
-        <v>14.8100004196167</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C79">
-        <v>14.27000045776367</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="D79">
-        <v>14.30000019073486</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="E79">
-        <v>14.30000019073486</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="F79">
-        <v>9320200</v>
+        <v>13943600</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>14.27999973297119</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="B80">
-        <v>14.32999992370605</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="C80">
-        <v>13.92000007629395</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="D80">
-        <v>14.10000038146973</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="E80">
-        <v>14.10000038146973</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="F80">
-        <v>9048200</v>
+        <v>17892200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>14.05000019073486</v>
+        <v>13.75</v>
       </c>
       <c r="B81">
-        <v>14.05000019073486</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="C81">
-        <v>13.23999977111816</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="D81">
-        <v>13.30000019073486</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="E81">
-        <v>13.30000019073486</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F81">
-        <v>16550300</v>
+        <v>13665700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>13.22999954223633</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B82">
-        <v>13.52999973297119</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="C82">
-        <v>13.02000045776367</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D82">
-        <v>13.11999988555908</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E82">
-        <v>13.11999988555908</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F82">
-        <v>12986900</v>
+        <v>12900500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>12.96000003814697</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B83">
-        <v>13.35999965667725</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="C83">
-        <v>12.77999973297119</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="D83">
-        <v>13.11999988555908</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="E83">
-        <v>13.11999988555908</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="F83">
-        <v>16146400</v>
+        <v>14441300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>13.90999984741211</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="B84">
-        <v>14.0600004196167</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C84">
-        <v>13.17000007629395</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D84">
-        <v>13.26000022888184</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="E84">
-        <v>13.26000022888184</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="F84">
-        <v>31537500</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>13.03999996185303</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B85">
-        <v>13.35999965667725</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="C85">
-        <v>12.61999988555908</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="D85">
-        <v>12.68000030517578</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="E85">
-        <v>12.68000030517578</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F85">
-        <v>18242500</v>
+        <v>18407600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>12.80000019073486</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="B86">
-        <v>13.03999996185303</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="C86">
-        <v>12.55000019073486</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="D86">
-        <v>12.82999992370605</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E86">
-        <v>12.82999992370605</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F86">
-        <v>12787700</v>
+        <v>16030700</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>12.93000030517578</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="B87">
-        <v>13.42000007629395</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="C87">
-        <v>12.80000019073486</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="D87">
-        <v>13.36999988555908</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="E87">
-        <v>13.36999988555908</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F87">
-        <v>12749700</v>
+        <v>16072900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>13.4399995803833</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B88">
-        <v>13.8100004196167</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C88">
-        <v>13.25</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D88">
-        <v>13.8100004196167</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="E88">
-        <v>13.8100004196167</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="F88">
-        <v>12649000</v>
+        <v>12982400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>13.67000007629395</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>13.81999969482422</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C89">
-        <v>13.36999988555908</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="D89">
-        <v>13.53999996185303</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E89">
-        <v>13.53999996185303</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F89">
-        <v>11390800</v>
+        <v>9316000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>13.44999980926514</v>
+        <v>12</v>
       </c>
       <c r="B90">
-        <v>13.77000045776367</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C90">
-        <v>13.0600004196167</v>
+        <v>11.75</v>
       </c>
       <c r="D90">
-        <v>13.25</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="E90">
-        <v>13.25</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="F90">
-        <v>16502500</v>
+        <v>13644900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>13.22000026702881</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B91">
-        <v>13.64000034332275</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C91">
-        <v>13.11999988555908</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D91">
-        <v>13.42000007629395</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E91">
-        <v>13.42000007629395</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F91">
-        <v>10619900</v>
+        <v>25536800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>13.51000022888184</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="B92">
-        <v>13.51000022888184</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C92">
-        <v>12.89999961853027</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="D92">
-        <v>13.13000011444092</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="E92">
-        <v>13.13000011444092</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F92">
-        <v>12907800</v>
+        <v>19702500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>13.09000015258789</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="B93">
-        <v>14.1899995803833</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C93">
-        <v>12.96000003814697</v>
+        <v>11.25</v>
       </c>
       <c r="D93">
-        <v>13.6899995803833</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E93">
-        <v>13.6899995803833</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F93">
-        <v>20161000</v>
+        <v>16297000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>13.73999977111816</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="B94">
-        <v>14.19999980926514</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C94">
-        <v>13.51000022888184</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="D94">
-        <v>13.56999969482422</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E94">
-        <v>13.56999969482422</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="F94">
-        <v>13943600</v>
+        <v>21476600</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>13.65999984741211</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="B95">
-        <v>14.27000045776367</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="C95">
-        <v>13.44999980926514</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="D95">
-        <v>13.85000038146973</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E95">
-        <v>13.85000038146973</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F95">
-        <v>17892200</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>13.75</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B96">
-        <v>14.15999984741211</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="C96">
-        <v>13.4399995803833</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="D96">
-        <v>13.59000015258789</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="E96">
-        <v>13.59000015258789</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F96">
-        <v>13665700</v>
+        <v>14941700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>13.60000038146973</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="B97">
-        <v>13.67000007629395</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C97">
-        <v>13.17000007629395</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D97">
-        <v>13.30000019073486</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E97">
-        <v>13.30000019073486</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F97">
-        <v>12900500</v>
+        <v>17537500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>13.22000026702881</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="B98">
-        <v>13.32999992370605</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C98">
-        <v>12.77000045776367</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="D98">
-        <v>12.80000019073486</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E98">
-        <v>12.80000019073486</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F98">
-        <v>14441300</v>
+        <v>17441800</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>12.9399995803833</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="B99">
-        <v>13.14999961853027</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C99">
-        <v>12.76000022888184</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="D99">
-        <v>12.85999965667725</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="E99">
-        <v>12.85999965667725</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="F99">
-        <v>12649000</v>
+        <v>20291000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>12.96000003814697</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="B100">
-        <v>12.96000003814697</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="C100">
-        <v>12.39999961853027</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="D100">
-        <v>12.40999984741211</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="E100">
-        <v>12.40999984741211</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F100">
-        <v>18407600</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>12.4399995803833</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="B101">
-        <v>12.47000026702881</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="C101">
-        <v>11.92000007629395</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D101">
-        <v>12.22999954223633</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E101">
-        <v>12.22999954223633</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="F101">
-        <v>16030700</v>
+        <v>14980700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>12.26000022888184</v>
+        <v>10.75</v>
       </c>
       <c r="B102">
-        <v>12.3100004196167</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="C102">
-        <v>11.72000026702881</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D102">
-        <v>11.73999977111816</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E102">
-        <v>11.73999977111816</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F102">
-        <v>16072900</v>
+        <v>18162500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>11.76000022888184</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="B103">
-        <v>12.1899995803833</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C103">
-        <v>11.68000030517578</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D103">
-        <v>12.02999973297119</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="E103">
-        <v>12.02999973297119</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="F103">
-        <v>12982400</v>
+        <v>18595400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>12</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="B104">
-        <v>12.23999977111816</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="C104">
-        <v>11.89999961853027</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D104">
-        <v>12.01000022888184</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E104">
-        <v>12.01000022888184</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F104">
-        <v>9316000</v>
+        <v>34914000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>12</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="B105">
-        <v>12.19999980926514</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C105">
-        <v>11.75</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D105">
-        <v>12.17000007629395</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E105">
-        <v>12.17000007629395</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F105">
-        <v>13644900</v>
+        <v>20199900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>11.76000022888184</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="B106">
-        <v>11.77000045776367</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="C106">
-        <v>11.02000045776367</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="D106">
-        <v>11.22999954223633</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="E106">
-        <v>11.22999954223633</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="F106">
-        <v>25536800</v>
+        <v>12642500</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>11.22999954223633</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="B107">
-        <v>11.53999996185303</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="C107">
-        <v>11.02999973297119</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="D107">
-        <v>11.22000026702881</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="E107">
-        <v>11.22000026702881</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F107">
-        <v>19702500</v>
+        <v>13749900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>11.27999973297119</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="B108">
-        <v>11.88000011444092</v>
+        <v>10.53999996185303</v>
       </c>
       <c r="C108">
-        <v>11.25</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D108">
-        <v>11.63000011444092</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E108">
-        <v>11.63000011444092</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="F108">
-        <v>16297000</v>
+        <v>10136900</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>12.19999980926514</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B109">
-        <v>12.39999961853027</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="C109">
-        <v>11.86999988555908</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D109">
-        <v>12.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E109">
-        <v>12.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="F109">
-        <v>21476600</v>
+        <v>14890300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>11.85000038146973</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="B110">
-        <v>11.97999954223633</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="C110">
-        <v>11.64000034332275</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D110">
-        <v>11.67000007629395</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E110">
-        <v>11.67000007629395</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F110">
-        <v>13173400</v>
+        <v>13082200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>11.69999980926514</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="B111">
-        <v>12.27000045776367</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C111">
-        <v>11.64999961853027</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="D111">
-        <v>12.22000026702881</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="E111">
-        <v>12.22000026702881</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="F111">
-        <v>14941700</v>
+        <v>13975100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>12.03999996185303</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B112">
-        <v>12.1899995803833</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="C112">
-        <v>11.60000038146973</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D112">
-        <v>11.63000011444092</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E112">
-        <v>11.63000011444092</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="F112">
-        <v>17537500</v>
+        <v>68798000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>11.72999954223633</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="B113">
-        <v>11.77000045776367</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C113">
-        <v>11.09000015258789</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D113">
-        <v>11.10999965667725</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="E113">
-        <v>11.10999965667725</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="F113">
-        <v>17441800</v>
+        <v>44082000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>11.17000007629395</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="B114">
-        <v>11.52999973297119</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="C114">
-        <v>10.94999980926514</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D114">
-        <v>11.28999996185303</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="E114">
-        <v>11.28999996185303</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F114">
-        <v>20291000</v>
+        <v>30666900</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>11.28999996185303</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="B115">
-        <v>11.36999988555908</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C115">
-        <v>10.84000015258789</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="D115">
-        <v>11.14999961853027</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E115">
-        <v>11.14999961853027</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F115">
-        <v>18180300</v>
+        <v>18841500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>11.02000045776367</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="B116">
-        <v>11.10999965667725</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="C116">
-        <v>10.68000030517578</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="D116">
-        <v>10.73999977111816</v>
+        <v>11</v>
       </c>
       <c r="E116">
-        <v>10.73999977111816</v>
+        <v>11</v>
       </c>
       <c r="F116">
-        <v>14980700</v>
+        <v>13868500</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>10.75</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="B117">
-        <v>11.34000015258789</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="C117">
-        <v>10.68000030517578</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="D117">
-        <v>11.10000038146973</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E117">
-        <v>11.10000038146973</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="F117">
-        <v>18162500</v>
+        <v>15137800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>10.89999961853027</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B118">
-        <v>10.9399995803833</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="C118">
-        <v>10.68000030517578</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="D118">
-        <v>10.78999996185303</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E118">
-        <v>10.78999996185303</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F118">
-        <v>18595400</v>
+        <v>15093900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>10.81999969482422</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B119">
-        <v>11.42000007629395</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="C119">
-        <v>10.36999988555908</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D119">
-        <v>11.02000045776367</v>
+        <v>10.5</v>
       </c>
       <c r="E119">
-        <v>11.02000045776367</v>
+        <v>10.5</v>
       </c>
       <c r="F119">
-        <v>34914000</v>
+        <v>11171600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>10.85000038146973</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B120">
-        <v>11.07999992370605</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C120">
-        <v>10.46000003814697</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D120">
-        <v>10.48999977111816</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E120">
-        <v>10.48999977111816</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F120">
-        <v>20199900</v>
+        <v>11177500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>10.36999988555908</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="B121">
-        <v>10.60999965667725</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="C121">
-        <v>10.14999961853027</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D121">
-        <v>10.15999984741211</v>
+        <v>10.75</v>
       </c>
       <c r="E121">
-        <v>10.15999984741211</v>
+        <v>10.75</v>
       </c>
       <c r="F121">
-        <v>12642500</v>
+        <v>17396100</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>10.15999984741211</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="B122">
-        <v>10.5600004196167</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C122">
-        <v>10.11999988555908</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D122">
-        <v>10.27999973297119</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E122">
-        <v>10.27999973297119</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F122">
-        <v>13749900</v>
+        <v>14972500</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>10.34000015258789</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="B123">
-        <v>10.53999996185303</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C123">
-        <v>10.19999980926514</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D123">
-        <v>10.28999996185303</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="E123">
-        <v>10.28999996185303</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="F123">
-        <v>10136900</v>
+        <v>17924500</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>10.42000007629395</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="B124">
+        <v>11.27999973297119</v>
+      </c>
+      <c r="C124">
+        <v>10.69999980926514</v>
+      </c>
+      <c r="D124">
         <v>10.8100004196167</v>
       </c>
-      <c r="C124">
-        <v>10.36999988555908</v>
-      </c>
-      <c r="D124">
-        <v>10.39000034332275</v>
-      </c>
       <c r="E124">
-        <v>10.39000034332275</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F124">
-        <v>14890300</v>
+        <v>14915500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>10.46000003814697</v>
+        <v>10.75</v>
       </c>
       <c r="B125">
-        <v>10.52999973297119</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="C125">
-        <v>10.1899995803833</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="D125">
-        <v>10.23999977111816</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="E125">
-        <v>10.23999977111816</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F125">
-        <v>13082200</v>
+        <v>23511900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>10.21000003814697</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="B126">
-        <v>10.23999977111816</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="C126">
-        <v>9.979999542236328</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="D126">
-        <v>10.06999969482422</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="E126">
-        <v>10.06999969482422</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="F126">
-        <v>13975100</v>
+        <v>48931600</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>10.17000007629395</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="B127">
-        <v>11.82999992370605</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="C127">
-        <v>10.02999973297119</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D127">
-        <v>11.65999984741211</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="E127">
-        <v>11.65999984741211</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="F127">
-        <v>68798000</v>
+        <v>33221600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>11.55000019073486</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B128">
-        <v>11.80000019073486</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C128">
-        <v>11.02000045776367</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D128">
-        <v>11.59000015258789</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E128">
-        <v>11.59000015258789</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F128">
-        <v>44082000</v>
+        <v>21170700</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>11.46000003814697</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="B129">
-        <v>12.15999984741211</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="C129">
-        <v>11.42000007629395</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="D129">
-        <v>11.5600004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E129">
-        <v>11.5600004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F129">
-        <v>30461800</v>
+        <v>17104100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>12.56999969482422</v>
+      </c>
+      <c r="B130">
+        <v>13.06999969482422</v>
+      </c>
+      <c r="C130">
+        <v>12.10999965667725</v>
+      </c>
+      <c r="D130">
+        <v>12.9399995803833</v>
+      </c>
+      <c r="E130">
+        <v>12.9399995803833</v>
+      </c>
+      <c r="F130">
+        <v>56022300</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -417,2582 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>14.64000034332275</v>
+        <v>15.10000038146973</v>
       </c>
       <c r="B2">
-        <v>15.11999988555908</v>
+        <v>15.5600004196167</v>
       </c>
       <c r="C2">
-        <v>13.40999984741211</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="D2">
-        <v>13.68000030517578</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="E2">
-        <v>13.68000030517578</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="F2">
-        <v>25921400</v>
+        <v>16572200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>13.96000003814697</v>
+        <v>15.07999992370605</v>
       </c>
       <c r="B3">
-        <v>14.46000003814697</v>
+        <v>15.4399995803833</v>
       </c>
       <c r="C3">
-        <v>13.6899995803833</v>
+        <v>14.77000045776367</v>
       </c>
       <c r="D3">
-        <v>13.93000030517578</v>
+        <v>15.22999954223633</v>
       </c>
       <c r="E3">
-        <v>13.93000030517578</v>
+        <v>15.22999954223633</v>
       </c>
       <c r="F3">
-        <v>22006000</v>
+        <v>15448100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>14</v>
+        <v>15.25</v>
       </c>
       <c r="B4">
-        <v>15.18000030517578</v>
+        <v>15.4399995803833</v>
       </c>
       <c r="C4">
-        <v>13.75</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="D4">
-        <v>15.15999984741211</v>
+        <v>15.02999973297119</v>
       </c>
       <c r="E4">
-        <v>15.15999984741211</v>
+        <v>15.02999973297119</v>
       </c>
       <c r="F4">
-        <v>24051200</v>
+        <v>15548100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>15.05000019073486</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="B5">
-        <v>15.86999988555908</v>
+        <v>16.45999908447266</v>
       </c>
       <c r="C5">
-        <v>14.85000038146973</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="D5">
-        <v>15.57999992370605</v>
+        <v>15.46000003814697</v>
       </c>
       <c r="E5">
-        <v>15.57999992370605</v>
+        <v>15.46000003814697</v>
       </c>
       <c r="F5">
-        <v>18873800</v>
+        <v>33255500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>15.05000019073486</v>
+        <v>15.76000022888184</v>
       </c>
       <c r="B6">
-        <v>15.3100004196167</v>
+        <v>16.72999954223633</v>
       </c>
       <c r="C6">
-        <v>14.68000030517578</v>
+        <v>15.48999977111816</v>
       </c>
       <c r="D6">
-        <v>15.02000045776367</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="E6">
-        <v>15.02000045776367</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="F6">
-        <v>15473600</v>
+        <v>23650200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>15.10000038146973</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>15.5600004196167</v>
+        <v>17.20000076293945</v>
       </c>
       <c r="C7">
-        <v>14.78999996185303</v>
+        <v>16.15999984741211</v>
       </c>
       <c r="D7">
-        <v>14.9399995803833</v>
+        <v>17.17000007629395</v>
       </c>
       <c r="E7">
-        <v>14.9399995803833</v>
+        <v>17.17000007629395</v>
       </c>
       <c r="F7">
-        <v>16572200</v>
+        <v>28424000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>15.07999992370605</v>
+        <v>17.15999984741211</v>
       </c>
       <c r="B8">
-        <v>15.4399995803833</v>
+        <v>18.73999977111816</v>
       </c>
       <c r="C8">
-        <v>14.77000045776367</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="D8">
-        <v>15.22999954223633</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="E8">
-        <v>15.22999954223633</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="F8">
-        <v>15448100</v>
+        <v>65329400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>15.25</v>
+        <v>17.1299991607666</v>
       </c>
       <c r="B9">
-        <v>15.4399995803833</v>
+        <v>17.73999977111816</v>
       </c>
       <c r="C9">
-        <v>14.61999988555908</v>
+        <v>16.70000076293945</v>
       </c>
       <c r="D9">
-        <v>15.02999973297119</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="E9">
-        <v>15.02999973297119</v>
+        <v>16.97999954223633</v>
       </c>
       <c r="F9">
-        <v>15548100</v>
+        <v>23584600</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>15.09000015258789</v>
+        <v>17.25</v>
       </c>
       <c r="B10">
-        <v>16.45999908447266</v>
+        <v>19.13999938964844</v>
       </c>
       <c r="C10">
-        <v>15.06999969482422</v>
+        <v>17.13999938964844</v>
       </c>
       <c r="D10">
-        <v>15.46000003814697</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>15.46000003814697</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>33255500</v>
+        <v>47991300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>15.76000022888184</v>
+        <v>20.67000007629395</v>
       </c>
       <c r="B11">
-        <v>16.72999954223633</v>
+        <v>22.13999938964844</v>
       </c>
       <c r="C11">
-        <v>15.48999977111816</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="D11">
-        <v>16.67000007629395</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="E11">
-        <v>16.67000007629395</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="F11">
-        <v>23650200</v>
+        <v>84607700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>17</v>
+        <v>20.20999908447266</v>
       </c>
       <c r="B12">
-        <v>17.20000076293945</v>
+        <v>20.46999931335449</v>
       </c>
       <c r="C12">
-        <v>16.15999984741211</v>
+        <v>18.42000007629395</v>
       </c>
       <c r="D12">
-        <v>17.17000007629395</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="E12">
-        <v>17.17000007629395</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F12">
-        <v>28424000</v>
+        <v>35885800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>17.15999984741211</v>
+        <v>19.06999969482422</v>
       </c>
       <c r="B13">
-        <v>18.73999977111816</v>
+        <v>20.18000030517578</v>
       </c>
       <c r="C13">
-        <v>16.67000007629395</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="D13">
-        <v>16.67000007629395</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="E13">
-        <v>16.67000007629395</v>
+        <v>19.71999931335449</v>
       </c>
       <c r="F13">
-        <v>65329400</v>
+        <v>34434700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>17.1299991607666</v>
+        <v>20.20999908447266</v>
       </c>
       <c r="B14">
-        <v>17.73999977111816</v>
+        <v>20.51000022888184</v>
       </c>
       <c r="C14">
-        <v>16.70000076293945</v>
+        <v>19.27000045776367</v>
       </c>
       <c r="D14">
-        <v>16.97999954223633</v>
+        <v>20.21999931335449</v>
       </c>
       <c r="E14">
-        <v>16.97999954223633</v>
+        <v>20.21999931335449</v>
       </c>
       <c r="F14">
-        <v>23584600</v>
+        <v>30400300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>17.25</v>
+        <v>20.67000007629395</v>
       </c>
       <c r="B15">
-        <v>19.13999938964844</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="C15">
-        <v>17.13999938964844</v>
+        <v>20.43000030517578</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>21.43000030517578</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>21.43000030517578</v>
       </c>
       <c r="F15">
-        <v>47991300</v>
+        <v>85875600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20.67000007629395</v>
+        <v>21.39999961853027</v>
       </c>
       <c r="B16">
-        <v>22.13999938964844</v>
+        <v>21.44000053405762</v>
       </c>
       <c r="C16">
-        <v>19.10000038146973</v>
+        <v>19.79000091552734</v>
       </c>
       <c r="D16">
-        <v>19.71999931335449</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="E16">
-        <v>19.71999931335449</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="F16">
-        <v>84607700</v>
+        <v>33839100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20.20999908447266</v>
+        <v>19.89999961853027</v>
       </c>
       <c r="B17">
-        <v>20.46999931335449</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="C17">
-        <v>18.42000007629395</v>
+        <v>19.36000061035156</v>
       </c>
       <c r="D17">
-        <v>18.79999923706055</v>
+        <v>19.88999938964844</v>
       </c>
       <c r="E17">
-        <v>18.79999923706055</v>
+        <v>19.88999938964844</v>
       </c>
       <c r="F17">
-        <v>35885800</v>
+        <v>22581700</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19.06999969482422</v>
+        <v>19.89999961853027</v>
       </c>
       <c r="B18">
-        <v>20.18000030517578</v>
+        <v>20.29999923706055</v>
       </c>
       <c r="C18">
-        <v>18.53000068664551</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="D18">
-        <v>19.71999931335449</v>
+        <v>19.15999984741211</v>
       </c>
       <c r="E18">
-        <v>19.71999931335449</v>
+        <v>19.15999984741211</v>
       </c>
       <c r="F18">
-        <v>34434700</v>
+        <v>27324700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20.20999908447266</v>
+        <v>18.70000076293945</v>
       </c>
       <c r="B19">
-        <v>20.51000022888184</v>
+        <v>19.25</v>
       </c>
       <c r="C19">
-        <v>19.27000045776367</v>
+        <v>17.82999992370605</v>
       </c>
       <c r="D19">
-        <v>20.21999931335449</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="E19">
-        <v>20.21999931335449</v>
+        <v>17.97999954223633</v>
       </c>
       <c r="F19">
-        <v>30400300</v>
+        <v>28584300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20.67000007629395</v>
+        <v>17.92000007629395</v>
       </c>
       <c r="B20">
-        <v>23.04000091552734</v>
+        <v>18.69000053405762</v>
       </c>
       <c r="C20">
-        <v>20.43000030517578</v>
+        <v>17.63999938964844</v>
       </c>
       <c r="D20">
-        <v>21.43000030517578</v>
+        <v>18.1299991607666</v>
       </c>
       <c r="E20">
-        <v>21.43000030517578</v>
+        <v>18.1299991607666</v>
       </c>
       <c r="F20">
-        <v>85875600</v>
+        <v>22690500</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21.39999961853027</v>
+        <v>18.02000045776367</v>
       </c>
       <c r="B21">
-        <v>21.44000053405762</v>
+        <v>18.36000061035156</v>
       </c>
       <c r="C21">
-        <v>19.79000091552734</v>
+        <v>17.40999984741211</v>
       </c>
       <c r="D21">
-        <v>20.04999923706055</v>
+        <v>17.46999931335449</v>
       </c>
       <c r="E21">
-        <v>20.04999923706055</v>
+        <v>17.46999931335449</v>
       </c>
       <c r="F21">
-        <v>33839100</v>
+        <v>20519700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19.89999961853027</v>
+        <v>17.5</v>
       </c>
       <c r="B22">
-        <v>20.20000076293945</v>
+        <v>17.76000022888184</v>
       </c>
       <c r="C22">
-        <v>19.36000061035156</v>
+        <v>16.84000015258789</v>
       </c>
       <c r="D22">
-        <v>19.88999938964844</v>
+        <v>16.90999984741211</v>
       </c>
       <c r="E22">
-        <v>19.88999938964844</v>
+        <v>16.90999984741211</v>
       </c>
       <c r="F22">
-        <v>22581700</v>
+        <v>19100300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19.89999961853027</v>
+        <v>16.80999946594238</v>
       </c>
       <c r="B23">
-        <v>20.29999923706055</v>
+        <v>17.5</v>
       </c>
       <c r="C23">
-        <v>18.8799991607666</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="D23">
-        <v>19.15999984741211</v>
+        <v>17.3700008392334</v>
       </c>
       <c r="E23">
-        <v>19.15999984741211</v>
+        <v>17.3700008392334</v>
       </c>
       <c r="F23">
-        <v>27324700</v>
+        <v>21618900</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18.70000076293945</v>
+        <v>17.25</v>
       </c>
       <c r="B24">
-        <v>19.25</v>
+        <v>17.48999977111816</v>
       </c>
       <c r="C24">
-        <v>17.82999992370605</v>
+        <v>16.84000015258789</v>
       </c>
       <c r="D24">
-        <v>17.97999954223633</v>
+        <v>17.43000030517578</v>
       </c>
       <c r="E24">
-        <v>17.97999954223633</v>
+        <v>17.43000030517578</v>
       </c>
       <c r="F24">
-        <v>28584300</v>
+        <v>13103900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>17.92000007629395</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="B25">
-        <v>18.69000053405762</v>
+        <v>18.17000007629395</v>
       </c>
       <c r="C25">
-        <v>17.63999938964844</v>
+        <v>17.44000053405762</v>
       </c>
       <c r="D25">
-        <v>18.1299991607666</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="E25">
-        <v>18.1299991607666</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="F25">
-        <v>22690500</v>
+        <v>15644500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18.02000045776367</v>
+        <v>17.95999908447266</v>
       </c>
       <c r="B26">
-        <v>18.36000061035156</v>
+        <v>18.68000030517578</v>
       </c>
       <c r="C26">
-        <v>17.40999984741211</v>
+        <v>17.71999931335449</v>
       </c>
       <c r="D26">
-        <v>17.46999931335449</v>
+        <v>18.26000022888184</v>
       </c>
       <c r="E26">
-        <v>17.46999931335449</v>
+        <v>18.26000022888184</v>
       </c>
       <c r="F26">
-        <v>20519700</v>
+        <v>20425500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>17.5</v>
+        <v>18.15999984741211</v>
       </c>
       <c r="B27">
-        <v>17.76000022888184</v>
+        <v>18.3700008392334</v>
       </c>
       <c r="C27">
-        <v>16.84000015258789</v>
+        <v>17.73999977111816</v>
       </c>
       <c r="D27">
-        <v>16.90999984741211</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="E27">
-        <v>16.90999984741211</v>
+        <v>18.20000076293945</v>
       </c>
       <c r="F27">
-        <v>19100300</v>
+        <v>14548100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>16.80999946594238</v>
+        <v>18.18000030517578</v>
       </c>
       <c r="B28">
-        <v>17.5</v>
+        <v>19.13999938964844</v>
       </c>
       <c r="C28">
-        <v>16.31999969482422</v>
+        <v>18.04000091552734</v>
       </c>
       <c r="D28">
-        <v>17.3700008392334</v>
+        <v>18.6299991607666</v>
       </c>
       <c r="E28">
-        <v>17.3700008392334</v>
+        <v>18.6299991607666</v>
       </c>
       <c r="F28">
-        <v>21618900</v>
+        <v>20750500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>17.25</v>
+        <v>18.67000007629395</v>
       </c>
       <c r="B29">
-        <v>17.48999977111816</v>
+        <v>19.23999977111816</v>
       </c>
       <c r="C29">
-        <v>16.84000015258789</v>
+        <v>17.78000068664551</v>
       </c>
       <c r="D29">
-        <v>17.43000030517578</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="E29">
-        <v>17.43000030517578</v>
+        <v>17.86000061035156</v>
       </c>
       <c r="F29">
-        <v>13103900</v>
+        <v>20315400</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>17.61000061035156</v>
+        <v>17.89999961853027</v>
       </c>
       <c r="B30">
-        <v>18.17000007629395</v>
+        <v>18.39999961853027</v>
       </c>
       <c r="C30">
-        <v>17.44000053405762</v>
+        <v>17.28000068664551</v>
       </c>
       <c r="D30">
-        <v>17.61000061035156</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="E30">
-        <v>17.61000061035156</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="F30">
-        <v>15644500</v>
+        <v>25452600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>17.95999908447266</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="B31">
-        <v>18.68000030517578</v>
+        <v>18.45000076293945</v>
       </c>
       <c r="C31">
-        <v>17.71999931335449</v>
+        <v>17.60000038146973</v>
       </c>
       <c r="D31">
-        <v>18.26000022888184</v>
+        <v>17.84000015258789</v>
       </c>
       <c r="E31">
-        <v>18.26000022888184</v>
+        <v>17.84000015258789</v>
       </c>
       <c r="F31">
-        <v>20425500</v>
+        <v>16278000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18.15999984741211</v>
+        <v>17.82999992370605</v>
       </c>
       <c r="B32">
-        <v>18.3700008392334</v>
+        <v>17.90999984741211</v>
       </c>
       <c r="C32">
-        <v>17.73999977111816</v>
+        <v>17.19000053405762</v>
       </c>
       <c r="D32">
-        <v>18.20000076293945</v>
+        <v>17.22999954223633</v>
       </c>
       <c r="E32">
-        <v>18.20000076293945</v>
+        <v>17.22999954223633</v>
       </c>
       <c r="F32">
-        <v>14548100</v>
+        <v>13154500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18.18000030517578</v>
+        <v>17.13999938964844</v>
       </c>
       <c r="B33">
-        <v>19.13999938964844</v>
+        <v>17.47999954223633</v>
       </c>
       <c r="C33">
-        <v>18.04000091552734</v>
+        <v>16.69000053405762</v>
       </c>
       <c r="D33">
-        <v>18.6299991607666</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="E33">
-        <v>18.6299991607666</v>
+        <v>16.71999931335449</v>
       </c>
       <c r="F33">
-        <v>20750500</v>
+        <v>12756900</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18.67000007629395</v>
+        <v>16.75</v>
       </c>
       <c r="B34">
-        <v>19.23999977111816</v>
+        <v>16.94000053405762</v>
       </c>
       <c r="C34">
-        <v>17.78000068664551</v>
+        <v>15.84000015258789</v>
       </c>
       <c r="D34">
-        <v>17.86000061035156</v>
+        <v>16.22999954223633</v>
       </c>
       <c r="E34">
-        <v>17.86000061035156</v>
+        <v>16.22999954223633</v>
       </c>
       <c r="F34">
-        <v>20315400</v>
+        <v>19486700</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>17.89999961853027</v>
+        <v>15.47999954223633</v>
       </c>
       <c r="B35">
-        <v>18.39999961853027</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="C35">
-        <v>17.28000068664551</v>
+        <v>15.40999984741211</v>
       </c>
       <c r="D35">
-        <v>18.07999992370605</v>
+        <v>16.25</v>
       </c>
       <c r="E35">
-        <v>18.07999992370605</v>
+        <v>16.25</v>
       </c>
       <c r="F35">
-        <v>25452600</v>
+        <v>12901900</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18.03000068664551</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="B36">
-        <v>18.45000076293945</v>
+        <v>16.3700008392334</v>
       </c>
       <c r="C36">
-        <v>17.60000038146973</v>
+        <v>15.85000038146973</v>
       </c>
       <c r="D36">
-        <v>17.84000015258789</v>
+        <v>16.17000007629395</v>
       </c>
       <c r="E36">
-        <v>17.84000015258789</v>
+        <v>16.17000007629395</v>
       </c>
       <c r="F36">
-        <v>16278000</v>
+        <v>11851200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>17.82999992370605</v>
+        <v>16.02000045776367</v>
       </c>
       <c r="B37">
-        <v>17.90999984741211</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="C37">
-        <v>17.19000053405762</v>
+        <v>15.72999954223633</v>
       </c>
       <c r="D37">
-        <v>17.22999954223633</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="E37">
-        <v>17.22999954223633</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="F37">
-        <v>13154500</v>
+        <v>11637400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>17.13999938964844</v>
+        <v>16.5</v>
       </c>
       <c r="B38">
-        <v>17.47999954223633</v>
+        <v>17.42000007629395</v>
       </c>
       <c r="C38">
-        <v>16.69000053405762</v>
+        <v>16.19000053405762</v>
       </c>
       <c r="D38">
-        <v>16.71999931335449</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="E38">
-        <v>16.71999931335449</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="F38">
-        <v>12756900</v>
+        <v>26745900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>16.75</v>
+        <v>16.76000022888184</v>
       </c>
       <c r="B39">
-        <v>16.94000053405762</v>
+        <v>16.79999923706055</v>
       </c>
       <c r="C39">
-        <v>15.84000015258789</v>
+        <v>14.94999980926514</v>
       </c>
       <c r="D39">
-        <v>16.22999954223633</v>
+        <v>15.01000022888184</v>
       </c>
       <c r="E39">
-        <v>16.22999954223633</v>
+        <v>15.01000022888184</v>
       </c>
       <c r="F39">
-        <v>19486700</v>
+        <v>27927000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>15.47999954223633</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="B40">
-        <v>16.38999938964844</v>
+        <v>15.34000015258789</v>
       </c>
       <c r="C40">
-        <v>15.40999984741211</v>
+        <v>13.97000026702881</v>
       </c>
       <c r="D40">
-        <v>16.25</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="E40">
-        <v>16.25</v>
+        <v>14.39999961853027</v>
       </c>
       <c r="F40">
-        <v>12901900</v>
+        <v>24352300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>16.23999977111816</v>
+        <v>14.36999988555908</v>
       </c>
       <c r="B41">
-        <v>16.3700008392334</v>
+        <v>14.61999988555908</v>
       </c>
       <c r="C41">
-        <v>15.85000038146973</v>
+        <v>13.72000026702881</v>
       </c>
       <c r="D41">
-        <v>16.17000007629395</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="E41">
-        <v>16.17000007629395</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="F41">
-        <v>11851200</v>
+        <v>20527900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>16.02000045776367</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="B42">
-        <v>16.38999938964844</v>
+        <v>13.78999996185303</v>
       </c>
       <c r="C42">
-        <v>15.72999954223633</v>
+        <v>13.1899995803833</v>
       </c>
       <c r="D42">
-        <v>16.23999977111816</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="E42">
-        <v>16.23999977111816</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="F42">
-        <v>11637400</v>
+        <v>21065900</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>16.5</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="B43">
-        <v>17.42000007629395</v>
+        <v>14.23999977111816</v>
       </c>
       <c r="C43">
-        <v>16.19000053405762</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="D43">
-        <v>16.31999969482422</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="E43">
-        <v>16.31999969482422</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="F43">
-        <v>26745900</v>
+        <v>17667400</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>16.76000022888184</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="B44">
-        <v>16.79999923706055</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="C44">
-        <v>14.94999980926514</v>
+        <v>13.9399995803833</v>
       </c>
       <c r="D44">
-        <v>15.01000022888184</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="E44">
-        <v>15.01000022888184</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="F44">
-        <v>27927000</v>
+        <v>15887200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>14.97000026702881</v>
+        <v>14.44999980926514</v>
       </c>
       <c r="B45">
-        <v>15.34000015258789</v>
+        <v>14.52999973297119</v>
       </c>
       <c r="C45">
-        <v>13.97000026702881</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="D45">
-        <v>14.39999961853027</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="E45">
-        <v>14.39999961853027</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="F45">
-        <v>24352300</v>
+        <v>13232300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>14.36999988555908</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="B46">
-        <v>14.61999988555908</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="C46">
-        <v>13.72000026702881</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="D46">
-        <v>13.90999984741211</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="E46">
-        <v>13.90999984741211</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F46">
-        <v>20527900</v>
+        <v>12735300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>13.35999965667725</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B47">
-        <v>13.78999996185303</v>
+        <v>14.13000011444092</v>
       </c>
       <c r="C47">
-        <v>13.1899995803833</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="D47">
-        <v>13.60000038146973</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="E47">
-        <v>13.60000038146973</v>
+        <v>13.69999980926514</v>
       </c>
       <c r="F47">
-        <v>21065900</v>
+        <v>13567300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>13.64000034332275</v>
+        <v>13.48999977111816</v>
       </c>
       <c r="B48">
-        <v>14.23999977111816</v>
+        <v>13.64999961853027</v>
       </c>
       <c r="C48">
-        <v>13.02999973297119</v>
+        <v>12.53999996185303</v>
       </c>
       <c r="D48">
-        <v>14.15999984741211</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="E48">
-        <v>14.15999984741211</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="F48">
-        <v>17667400</v>
+        <v>24500600</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>14.15999984741211</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="B49">
-        <v>14.89000034332275</v>
+        <v>16.48999977111816</v>
       </c>
       <c r="C49">
-        <v>13.9399995803833</v>
+        <v>14.02000045776367</v>
       </c>
       <c r="D49">
-        <v>14.60000038146973</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="E49">
-        <v>14.60000038146973</v>
+        <v>16.01000022888184</v>
       </c>
       <c r="F49">
-        <v>15887200</v>
+        <v>116127500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>14.44999980926514</v>
+        <v>16.61000061035156</v>
       </c>
       <c r="B50">
-        <v>14.52999973297119</v>
+        <v>16.67000007629395</v>
       </c>
       <c r="C50">
-        <v>13.77000045776367</v>
+        <v>15.27999973297119</v>
       </c>
       <c r="D50">
-        <v>13.88000011444092</v>
+        <v>15.42000007629395</v>
       </c>
       <c r="E50">
-        <v>13.88000011444092</v>
+        <v>15.42000007629395</v>
       </c>
       <c r="F50">
-        <v>13232300</v>
+        <v>46247200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>13.96000003814697</v>
+        <v>15.02999973297119</v>
       </c>
       <c r="B51">
-        <v>13.96000003814697</v>
+        <v>15.51000022888184</v>
       </c>
       <c r="C51">
-        <v>13.26000022888184</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="D51">
-        <v>13.59000015258789</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="E51">
-        <v>13.59000015258789</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="F51">
-        <v>12735300</v>
+        <v>22117400</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>13.44999980926514</v>
+        <v>14.65999984741211</v>
       </c>
       <c r="B52">
-        <v>14.13000011444092</v>
+        <v>15.25</v>
       </c>
       <c r="C52">
-        <v>13.23999977111816</v>
+        <v>14.4399995803833</v>
       </c>
       <c r="D52">
-        <v>13.69999980926514</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="E52">
-        <v>13.69999980926514</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="F52">
-        <v>13567300</v>
+        <v>13522000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>13.48999977111816</v>
+        <v>14.55000019073486</v>
       </c>
       <c r="B53">
-        <v>13.64999961853027</v>
+        <v>14.57999992370605</v>
       </c>
       <c r="C53">
-        <v>12.53999996185303</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="D53">
-        <v>12.72999954223633</v>
+        <v>14.25</v>
       </c>
       <c r="E53">
-        <v>12.72999954223633</v>
+        <v>14.25</v>
       </c>
       <c r="F53">
-        <v>24500600</v>
+        <v>14151900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>14.27000045776367</v>
+        <v>14.10999965667725</v>
       </c>
       <c r="B54">
-        <v>16.48999977111816</v>
+        <v>14.56999969482422</v>
       </c>
       <c r="C54">
-        <v>14.02000045776367</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="D54">
-        <v>16.01000022888184</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="E54">
-        <v>16.01000022888184</v>
+        <v>13.96000003814697</v>
       </c>
       <c r="F54">
-        <v>116127500</v>
+        <v>16313000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>16.61000061035156</v>
+        <v>13.98999977111816</v>
       </c>
       <c r="B55">
-        <v>16.67000007629395</v>
+        <v>14.75</v>
       </c>
       <c r="C55">
-        <v>15.27999973297119</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="D55">
-        <v>15.42000007629395</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="E55">
-        <v>15.42000007629395</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="F55">
-        <v>46247200</v>
+        <v>17031900</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>15.02999973297119</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="B56">
-        <v>15.51000022888184</v>
+        <v>14.64000034332275</v>
       </c>
       <c r="C56">
+        <v>14.10000038146973</v>
+      </c>
+      <c r="D56">
         <v>14.42000007629395</v>
       </c>
-      <c r="D56">
-        <v>14.60999965667725</v>
-      </c>
       <c r="E56">
-        <v>14.60999965667725</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="F56">
-        <v>22117400</v>
+        <v>11634600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>14.65999984741211</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="B57">
-        <v>15.25</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="C57">
-        <v>14.4399995803833</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="D57">
-        <v>14.60999965667725</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="E57">
-        <v>14.60999965667725</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="F57">
-        <v>13522000</v>
+        <v>14547100</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>14.55000019073486</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="B58">
-        <v>14.57999992370605</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="C58">
-        <v>13.92000007629395</v>
+        <v>14.44999980926514</v>
       </c>
       <c r="D58">
-        <v>14.25</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="E58">
-        <v>14.25</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="F58">
-        <v>14151900</v>
+        <v>13606800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>14.10999965667725</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="B59">
-        <v>14.56999969482422</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="C59">
-        <v>13.88000011444092</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="D59">
-        <v>13.96000003814697</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="E59">
-        <v>13.96000003814697</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="F59">
-        <v>16313000</v>
+        <v>9320200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>13.98999977111816</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="B60">
-        <v>14.75</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="C60">
-        <v>13.88000011444092</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="D60">
-        <v>14.47000026702881</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="E60">
-        <v>14.47000026702881</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="F60">
-        <v>17031900</v>
+        <v>9048200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>14.53999996185303</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="B61">
-        <v>14.64000034332275</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="C61">
-        <v>14.10000038146973</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="D61">
-        <v>14.42000007629395</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E61">
-        <v>14.42000007629395</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F61">
-        <v>11634600</v>
+        <v>16550300</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>14.27999973297119</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="B62">
-        <v>14.71000003814697</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="C62">
-        <v>13.88000011444092</v>
+        <v>13.02000045776367</v>
       </c>
       <c r="D62">
-        <v>14.71000003814697</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E62">
-        <v>14.71000003814697</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F62">
-        <v>14547100</v>
+        <v>12986900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>14.60999965667725</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B63">
-        <v>15.21000003814697</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C63">
-        <v>14.44999980926514</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="D63">
-        <v>14.78999996185303</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E63">
-        <v>14.78999996185303</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F63">
-        <v>13606800</v>
+        <v>16146400</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>14.8100004196167</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="B64">
-        <v>14.8100004196167</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="C64">
-        <v>14.27000045776367</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D64">
-        <v>14.30000019073486</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="E64">
-        <v>14.30000019073486</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="F64">
-        <v>9320200</v>
+        <v>31537500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>14.27999973297119</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="B65">
-        <v>14.32999992370605</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C65">
-        <v>13.92000007629395</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D65">
-        <v>14.10000038146973</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="E65">
-        <v>14.10000038146973</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="F65">
-        <v>9048200</v>
+        <v>18242500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>14.05000019073486</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="B66">
-        <v>14.05000019073486</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="C66">
-        <v>13.23999977111816</v>
+        <v>12.55000019073486</v>
       </c>
       <c r="D66">
-        <v>13.30000019073486</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="E66">
-        <v>13.30000019073486</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="F66">
-        <v>16550300</v>
+        <v>12787700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>13.22999954223633</v>
+        <v>12.93000030517578</v>
       </c>
       <c r="B67">
-        <v>13.52999973297119</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="C67">
-        <v>13.02000045776367</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="D67">
-        <v>13.11999988555908</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="E67">
-        <v>13.11999988555908</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="F67">
-        <v>12986900</v>
+        <v>12749700</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>12.96000003814697</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="B68">
-        <v>13.35999965667725</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="C68">
-        <v>12.77999973297119</v>
+        <v>13.25</v>
       </c>
       <c r="D68">
-        <v>13.11999988555908</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="E68">
-        <v>13.11999988555908</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="F68">
-        <v>16146400</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>13.90999984741211</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="B69">
-        <v>14.0600004196167</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C69">
-        <v>13.17000007629395</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D69">
-        <v>13.26000022888184</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="E69">
-        <v>13.26000022888184</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F69">
-        <v>31537500</v>
+        <v>11390800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>13.03999996185303</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B70">
-        <v>13.35999965667725</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="C70">
-        <v>12.61999988555908</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="D70">
-        <v>12.68000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="E70">
-        <v>12.68000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="F70">
-        <v>18242500</v>
+        <v>16502500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>12.80000019073486</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B71">
-        <v>13.03999996185303</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="C71">
-        <v>12.55000019073486</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="D71">
-        <v>12.82999992370605</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="E71">
-        <v>12.82999992370605</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="F71">
-        <v>12787700</v>
+        <v>10619900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>12.93000030517578</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="B72">
-        <v>13.42000007629395</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="C72">
-        <v>12.80000019073486</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="D72">
-        <v>13.36999988555908</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E72">
-        <v>13.36999988555908</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F72">
-        <v>12749700</v>
+        <v>12907800</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>13.4399995803833</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="B73">
-        <v>13.8100004196167</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="C73">
-        <v>13.25</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="D73">
-        <v>13.8100004196167</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="E73">
-        <v>13.8100004196167</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="F73">
-        <v>12649000</v>
+        <v>20161000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>13.67000007629395</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="B74">
-        <v>13.81999969482422</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C74">
-        <v>13.36999988555908</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="D74">
-        <v>13.53999996185303</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="E74">
-        <v>13.53999996185303</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="F74">
-        <v>11390800</v>
+        <v>13943600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
+        <v>13.65999984741211</v>
+      </c>
+      <c r="B75">
+        <v>14.27000045776367</v>
+      </c>
+      <c r="C75">
         <v>13.44999980926514</v>
       </c>
-      <c r="B75">
-        <v>13.77000045776367</v>
-      </c>
-      <c r="C75">
-        <v>13.0600004196167</v>
-      </c>
       <c r="D75">
-        <v>13.25</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="E75">
-        <v>13.25</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="F75">
-        <v>16502500</v>
+        <v>17892200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>13.22000026702881</v>
+        <v>13.75</v>
       </c>
       <c r="B76">
-        <v>13.64000034332275</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="C76">
-        <v>13.11999988555908</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="D76">
-        <v>13.42000007629395</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="E76">
-        <v>13.42000007629395</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F76">
-        <v>10619900</v>
+        <v>13665700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>13.51000022888184</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B77">
-        <v>13.51000022888184</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="C77">
-        <v>12.89999961853027</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D77">
-        <v>13.13000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E77">
-        <v>13.13000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F77">
-        <v>12907800</v>
+        <v>12900500</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>13.09000015258789</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B78">
-        <v>14.1899995803833</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="C78">
-        <v>12.96000003814697</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="D78">
-        <v>13.6899995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="E78">
-        <v>13.6899995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="F78">
-        <v>20161000</v>
+        <v>14441300</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>13.73999977111816</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="B79">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C79">
-        <v>13.51000022888184</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D79">
-        <v>13.56999969482422</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="E79">
-        <v>13.56999969482422</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="F79">
-        <v>13943600</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>13.65999984741211</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B80">
-        <v>14.27000045776367</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="C80">
-        <v>13.44999980926514</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="D80">
-        <v>13.85000038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="E80">
-        <v>13.85000038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F80">
-        <v>17892200</v>
+        <v>18407600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>13.75</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="B81">
-        <v>14.15999984741211</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="C81">
-        <v>13.4399995803833</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="D81">
-        <v>13.59000015258789</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E81">
-        <v>13.59000015258789</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F81">
-        <v>13665700</v>
+        <v>16030700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>13.60000038146973</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="B82">
-        <v>13.67000007629395</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="C82">
-        <v>13.17000007629395</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="D82">
-        <v>13.30000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="E82">
-        <v>13.30000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F82">
-        <v>12900500</v>
+        <v>16072900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>13.22000026702881</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B83">
-        <v>13.32999992370605</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C83">
-        <v>12.77000045776367</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D83">
-        <v>12.80000019073486</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="E83">
-        <v>12.80000019073486</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="F83">
-        <v>14441300</v>
+        <v>12982400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>12.9399995803833</v>
+        <v>12</v>
       </c>
       <c r="B84">
-        <v>13.14999961853027</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C84">
-        <v>12.76000022888184</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="D84">
-        <v>12.85999965667725</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E84">
-        <v>12.85999965667725</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F84">
-        <v>12649000</v>
+        <v>9316000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>12.96000003814697</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>12.96000003814697</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C85">
-        <v>12.39999961853027</v>
+        <v>11.75</v>
       </c>
       <c r="D85">
-        <v>12.40999984741211</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="E85">
-        <v>12.40999984741211</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="F85">
-        <v>18407600</v>
+        <v>13644900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>12.4399995803833</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B86">
-        <v>12.47000026702881</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C86">
-        <v>11.92000007629395</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D86">
-        <v>12.22999954223633</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E86">
-        <v>12.22999954223633</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F86">
-        <v>16030700</v>
+        <v>25536800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>12.26000022888184</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="B87">
-        <v>12.3100004196167</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C87">
-        <v>11.72000026702881</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="D87">
-        <v>11.73999977111816</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="E87">
-        <v>11.73999977111816</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F87">
-        <v>16072900</v>
+        <v>19702500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>11.76000022888184</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="B88">
-        <v>12.1899995803833</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C88">
-        <v>11.68000030517578</v>
+        <v>11.25</v>
       </c>
       <c r="D88">
-        <v>12.02999973297119</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E88">
-        <v>12.02999973297119</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F88">
-        <v>12982400</v>
+        <v>16297000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>12</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="B89">
-        <v>12.23999977111816</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C89">
-        <v>11.89999961853027</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="D89">
-        <v>12.01000022888184</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E89">
-        <v>12.01000022888184</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="F89">
-        <v>9316000</v>
+        <v>21476600</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>12</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="B90">
-        <v>12.19999980926514</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="C90">
-        <v>11.75</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="D90">
-        <v>12.17000007629395</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E90">
-        <v>12.17000007629395</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F90">
-        <v>13644900</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>11.76000022888184</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B91">
-        <v>11.77000045776367</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="C91">
-        <v>11.02000045776367</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="D91">
-        <v>11.22999954223633</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="E91">
-        <v>11.22999954223633</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F91">
-        <v>25536800</v>
+        <v>14941700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>11.22999954223633</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="B92">
-        <v>11.53999996185303</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C92">
-        <v>11.02999973297119</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D92">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E92">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F92">
-        <v>19702500</v>
+        <v>17537500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>11.27999973297119</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="B93">
-        <v>11.88000011444092</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C93">
-        <v>11.25</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="D93">
-        <v>11.63000011444092</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E93">
-        <v>11.63000011444092</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F93">
-        <v>16297000</v>
+        <v>17441800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>12.19999980926514</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="B94">
-        <v>12.39999961853027</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C94">
-        <v>11.86999988555908</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="D94">
-        <v>12.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="E94">
-        <v>12.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="F94">
-        <v>21476600</v>
+        <v>20291000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>11.85000038146973</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="B95">
-        <v>11.97999954223633</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="C95">
-        <v>11.64000034332275</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="D95">
-        <v>11.67000007629395</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="E95">
-        <v>11.67000007629395</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F95">
-        <v>13173400</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>11.69999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="B96">
-        <v>12.27000045776367</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="C96">
-        <v>11.64999961853027</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D96">
-        <v>12.22000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E96">
-        <v>12.22000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="F96">
-        <v>14941700</v>
+        <v>14980700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>12.03999996185303</v>
+        <v>10.75</v>
       </c>
       <c r="B97">
-        <v>12.1899995803833</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="C97">
-        <v>11.60000038146973</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D97">
-        <v>11.63000011444092</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E97">
-        <v>11.63000011444092</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F97">
-        <v>17537500</v>
+        <v>18162500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>11.72999954223633</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="B98">
-        <v>11.77000045776367</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C98">
-        <v>11.09000015258789</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D98">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="E98">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="F98">
-        <v>17441800</v>
+        <v>18595400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>11.17000007629395</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="B99">
-        <v>11.52999973297119</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="C99">
-        <v>10.94999980926514</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D99">
-        <v>11.28999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E99">
-        <v>11.28999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F99">
-        <v>20291000</v>
+        <v>34914000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>11.28999996185303</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="B100">
-        <v>11.36999988555908</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C100">
-        <v>10.84000015258789</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D100">
-        <v>11.14999961853027</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E100">
-        <v>11.14999961853027</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F100">
-        <v>18180300</v>
+        <v>20199900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>11.02000045776367</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="B101">
-        <v>11.10999965667725</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="C101">
-        <v>10.68000030517578</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="D101">
-        <v>10.73999977111816</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="E101">
-        <v>10.73999977111816</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="F101">
-        <v>14980700</v>
+        <v>12642500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>10.75</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="B102">
-        <v>11.34000015258789</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="C102">
-        <v>10.68000030517578</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="D102">
-        <v>11.10000038146973</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="E102">
-        <v>11.10000038146973</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F102">
-        <v>18162500</v>
+        <v>13749900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>10.89999961853027</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="B103">
-        <v>10.9399995803833</v>
+        <v>10.53999996185303</v>
       </c>
       <c r="C103">
-        <v>10.68000030517578</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D103">
-        <v>10.78999996185303</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E103">
-        <v>10.78999996185303</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="F103">
-        <v>18595400</v>
+        <v>10136900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>10.81999969482422</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B104">
-        <v>11.42000007629395</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="C104">
         <v>10.36999988555908</v>
       </c>
       <c r="D104">
-        <v>11.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E104">
-        <v>11.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="F104">
-        <v>34914000</v>
+        <v>14890300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>10.85000038146973</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="B105">
-        <v>11.07999992370605</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="C105">
-        <v>10.46000003814697</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D105">
-        <v>10.48999977111816</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E105">
-        <v>10.48999977111816</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F105">
-        <v>20199900</v>
+        <v>13082200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>10.36999988555908</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="B106">
-        <v>10.60999965667725</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C106">
-        <v>10.14999961853027</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="D106">
-        <v>10.15999984741211</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="E106">
-        <v>10.15999984741211</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="F106">
-        <v>12642500</v>
+        <v>13975100</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>10.15999984741211</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B107">
-        <v>10.5600004196167</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="C107">
-        <v>10.11999988555908</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D107">
-        <v>10.27999973297119</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E107">
-        <v>10.27999973297119</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="F107">
-        <v>13749900</v>
+        <v>68798000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>10.34000015258789</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="B108">
-        <v>10.53999996185303</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C108">
-        <v>10.19999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D108">
-        <v>10.28999996185303</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="E108">
-        <v>10.28999996185303</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="F108">
-        <v>10136900</v>
+        <v>44082000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>10.42000007629395</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="B109">
-        <v>10.8100004196167</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="C109">
-        <v>10.36999988555908</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D109">
-        <v>10.39000034332275</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="E109">
-        <v>10.39000034332275</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F109">
-        <v>14890300</v>
+        <v>30666900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>10.46000003814697</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="B110">
-        <v>10.52999973297119</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C110">
-        <v>10.1899995803833</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="D110">
-        <v>10.23999977111816</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E110">
-        <v>10.23999977111816</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F110">
-        <v>13082200</v>
+        <v>18841500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>10.21000003814697</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="B111">
-        <v>10.23999977111816</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="C111">
-        <v>9.979999542236328</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="D111">
-        <v>10.06999969482422</v>
+        <v>11</v>
       </c>
       <c r="E111">
-        <v>10.06999969482422</v>
+        <v>11</v>
       </c>
       <c r="F111">
-        <v>13975100</v>
+        <v>13868500</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>10.17000007629395</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="B112">
-        <v>11.82999992370605</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="C112">
-        <v>10.02999973297119</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="D112">
-        <v>11.65999984741211</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E112">
-        <v>11.65999984741211</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="F112">
-        <v>68798000</v>
+        <v>15137800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>11.55000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B113">
-        <v>11.80000019073486</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="C113">
-        <v>11.02000045776367</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="D113">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E113">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F113">
-        <v>44082000</v>
+        <v>15093900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>11.46000003814697</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B114">
-        <v>12.15999984741211</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="C114">
-        <v>11.42000007629395</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D114">
-        <v>11.5600004196167</v>
+        <v>10.5</v>
       </c>
       <c r="E114">
-        <v>11.5600004196167</v>
+        <v>10.5</v>
       </c>
       <c r="F114">
-        <v>30666900</v>
+        <v>11171600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>11.52999973297119</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B115">
-        <v>11.52999973297119</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C115">
-        <v>10.9399995803833</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D115">
-        <v>11.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E115">
-        <v>11.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F115">
-        <v>18841500</v>
+        <v>11177500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>11.05000019073486</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="B116">
-        <v>11.28999996185303</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="C116">
-        <v>10.88000011444092</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="E116">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="F116">
-        <v>13868500</v>
+        <v>17396100</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>11.06999969482422</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="B117">
-        <v>11.14000034332275</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C117">
-        <v>10.57999992370605</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D117">
-        <v>10.71000003814697</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E117">
-        <v>10.71000003814697</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F117">
-        <v>15137800</v>
+        <v>14972500</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>10.69999980926514</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="B118">
-        <v>10.82999992370605</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C118">
-        <v>10.28999996185303</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D118">
-        <v>10.30000019073486</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="E118">
-        <v>10.30000019073486</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="F118">
-        <v>15093900</v>
+        <v>17924500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>10.32999992370605</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="B119">
-        <v>10.56999969482422</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="C119">
-        <v>10.1899995803833</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D119">
-        <v>10.5</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E119">
-        <v>10.5</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F119">
-        <v>11171600</v>
+        <v>14915500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>10.43000030517578</v>
+        <v>10.75</v>
       </c>
       <c r="B120">
-        <v>10.64000034332275</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="C120">
-        <v>10.22000026702881</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="D120">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="E120">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F120">
-        <v>11177500</v>
+        <v>23511900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>10.23999977111816</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="B121">
-        <v>10.88000011444092</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="C121">
-        <v>10.10000038146973</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="D121">
-        <v>10.75</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="E121">
-        <v>10.75</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="F121">
-        <v>17396100</v>
+        <v>48931600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>10.72000026702881</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="B122">
-        <v>10.72999954223633</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="C122">
-        <v>10.23999977111816</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D122">
-        <v>10.42000007629395</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="E122">
-        <v>10.42000007629395</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="F122">
-        <v>14972500</v>
+        <v>33221600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>10.38000011444092</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B123">
-        <v>11.09000015258789</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C123">
-        <v>10.31999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D123">
-        <v>10.85999965667725</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E123">
-        <v>10.85999965667725</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F123">
-        <v>17924500</v>
+        <v>21170700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>11.13000011444092</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="B124">
-        <v>11.27999973297119</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="C124">
-        <v>10.69999980926514</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="D124">
-        <v>10.8100004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E124">
-        <v>10.8100004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F124">
-        <v>14915500</v>
+        <v>17104100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>10.75</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="B125">
-        <v>10.77000045776367</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="C125">
-        <v>10.15999984741211</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="D125">
-        <v>10.69999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E125">
-        <v>10.69999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F125">
-        <v>23511900</v>
+        <v>56022300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>10.73999977111816</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="B126">
-        <v>12.56999969482422</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="C126">
-        <v>10.6899995803833</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D126">
-        <v>12.36999988555908</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="E126">
-        <v>12.36999988555908</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="F126">
-        <v>48931600</v>
+        <v>61294100</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>12.14000034332275</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="B127">
-        <v>12.71000003814697</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="C127">
-        <v>11.51000022888184</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="D127">
-        <v>12.38000011444092</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="E127">
-        <v>12.38000011444092</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="F127">
-        <v>33221600</v>
+        <v>28670000</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>11.98999977111816</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="B128">
-        <v>12.44999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C128">
-        <v>11.39999961853027</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="D128">
-        <v>11.52000045776367</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="E128">
-        <v>11.52000045776367</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F128">
-        <v>21170700</v>
+        <v>16254700</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>11.67000007629395</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B129">
-        <v>12.13000011444092</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="C129">
-        <v>11.56999969482422</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D129">
-        <v>11.85999965667725</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E129">
-        <v>11.85999965667725</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F129">
-        <v>17104100</v>
+        <v>42792400</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>12.56999969482422</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B130">
-        <v>13.06999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C130">
-        <v>12.10999965667725</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D130">
-        <v>12.9399995803833</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="E130">
-        <v>12.9399995803833</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="F130">
-        <v>56022300</v>
+        <v>24036500</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2582 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>15.10000038146973</v>
+        <v>13.98999977111816</v>
       </c>
       <c r="B2">
-        <v>15.5600004196167</v>
+        <v>14.75</v>
       </c>
       <c r="C2">
-        <v>14.78999996185303</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="D2">
-        <v>14.9399995803833</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="E2">
-        <v>14.9399995803833</v>
+        <v>14.47000026702881</v>
       </c>
       <c r="F2">
-        <v>16572200</v>
+        <v>17031900</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>15.07999992370605</v>
+        <v>14.53999996185303</v>
       </c>
       <c r="B3">
-        <v>15.4399995803833</v>
+        <v>14.64000034332275</v>
       </c>
       <c r="C3">
-        <v>14.77000045776367</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="D3">
-        <v>15.22999954223633</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="E3">
-        <v>15.22999954223633</v>
+        <v>14.42000007629395</v>
       </c>
       <c r="F3">
-        <v>15448100</v>
+        <v>11634600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>15.25</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="B4">
-        <v>15.4399995803833</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="C4">
-        <v>14.61999988555908</v>
+        <v>13.88000011444092</v>
       </c>
       <c r="D4">
-        <v>15.02999973297119</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="E4">
-        <v>15.02999973297119</v>
+        <v>14.71000003814697</v>
       </c>
       <c r="F4">
-        <v>15548100</v>
+        <v>14547100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>15.09000015258789</v>
+        <v>14.60999965667725</v>
       </c>
       <c r="B5">
-        <v>16.45999908447266</v>
+        <v>15.21000003814697</v>
       </c>
       <c r="C5">
-        <v>15.06999969482422</v>
+        <v>14.44999980926514</v>
       </c>
       <c r="D5">
-        <v>15.46000003814697</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="E5">
-        <v>15.46000003814697</v>
+        <v>14.78999996185303</v>
       </c>
       <c r="F5">
-        <v>33255500</v>
+        <v>13606800</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>15.76000022888184</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="B6">
-        <v>16.72999954223633</v>
+        <v>14.8100004196167</v>
       </c>
       <c r="C6">
-        <v>15.48999977111816</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="D6">
-        <v>16.67000007629395</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="E6">
-        <v>16.67000007629395</v>
+        <v>14.30000019073486</v>
       </c>
       <c r="F6">
-        <v>23650200</v>
+        <v>9320200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>17</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="B7">
-        <v>17.20000076293945</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="C7">
-        <v>16.15999984741211</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="D7">
-        <v>17.17000007629395</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="E7">
-        <v>17.17000007629395</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="F7">
-        <v>28424000</v>
+        <v>9048200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>17.15999984741211</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="B8">
-        <v>18.73999977111816</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="C8">
-        <v>16.67000007629395</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="D8">
-        <v>16.67000007629395</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E8">
-        <v>16.67000007629395</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F8">
-        <v>65329400</v>
+        <v>16550300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>17.1299991607666</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="B9">
-        <v>17.73999977111816</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="C9">
-        <v>16.70000076293945</v>
+        <v>13.02000045776367</v>
       </c>
       <c r="D9">
-        <v>16.97999954223633</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E9">
-        <v>16.97999954223633</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F9">
-        <v>23584600</v>
+        <v>12986900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>17.25</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B10">
-        <v>19.13999938964844</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C10">
-        <v>17.13999938964844</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F10">
-        <v>47991300</v>
+        <v>16146400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20.67000007629395</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="B11">
-        <v>22.13999938964844</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="C11">
-        <v>19.10000038146973</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D11">
-        <v>19.71999931335449</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="E11">
-        <v>19.71999931335449</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="F11">
-        <v>84607700</v>
+        <v>31537500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20.20999908447266</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="B12">
-        <v>20.46999931335449</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C12">
-        <v>18.42000007629395</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D12">
-        <v>18.79999923706055</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="E12">
-        <v>18.79999923706055</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="F12">
-        <v>35885800</v>
+        <v>18242500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19.06999969482422</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="B13">
-        <v>20.18000030517578</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="C13">
-        <v>18.53000068664551</v>
+        <v>12.55000019073486</v>
       </c>
       <c r="D13">
-        <v>19.71999931335449</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="E13">
-        <v>19.71999931335449</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="F13">
-        <v>34434700</v>
+        <v>12787700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20.20999908447266</v>
+        <v>12.93000030517578</v>
       </c>
       <c r="B14">
-        <v>20.51000022888184</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="C14">
-        <v>19.27000045776367</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="D14">
-        <v>20.21999931335449</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="E14">
-        <v>20.21999931335449</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="F14">
-        <v>30400300</v>
+        <v>12749700</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20.67000007629395</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="B15">
-        <v>23.04000091552734</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="C15">
-        <v>20.43000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="D15">
-        <v>21.43000030517578</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="E15">
-        <v>21.43000030517578</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="F15">
-        <v>85875600</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21.39999961853027</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="B16">
-        <v>21.44000053405762</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C16">
-        <v>19.79000091552734</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D16">
-        <v>20.04999923706055</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="E16">
-        <v>20.04999923706055</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F16">
-        <v>33839100</v>
+        <v>11390800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19.89999961853027</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B17">
-        <v>20.20000076293945</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="C17">
-        <v>19.36000061035156</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="D17">
-        <v>19.88999938964844</v>
+        <v>13.25</v>
       </c>
       <c r="E17">
-        <v>19.88999938964844</v>
+        <v>13.25</v>
       </c>
       <c r="F17">
-        <v>22581700</v>
+        <v>16502500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19.89999961853027</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B18">
-        <v>20.29999923706055</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="C18">
-        <v>18.8799991607666</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="D18">
-        <v>19.15999984741211</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="E18">
-        <v>19.15999984741211</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="F18">
-        <v>27324700</v>
+        <v>10619900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18.70000076293945</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="B19">
-        <v>19.25</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="C19">
-        <v>17.82999992370605</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="D19">
-        <v>17.97999954223633</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E19">
-        <v>17.97999954223633</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F19">
-        <v>28584300</v>
+        <v>12907800</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>17.92000007629395</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="B20">
-        <v>18.69000053405762</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="C20">
-        <v>17.63999938964844</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="D20">
-        <v>18.1299991607666</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="E20">
-        <v>18.1299991607666</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="F20">
-        <v>22690500</v>
+        <v>20161000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18.02000045776367</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="B21">
-        <v>18.36000061035156</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C21">
-        <v>17.40999984741211</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="D21">
-        <v>17.46999931335449</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="E21">
-        <v>17.46999931335449</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="F21">
-        <v>20519700</v>
+        <v>13943600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>17.5</v>
+        <v>13.65999984741211</v>
       </c>
       <c r="B22">
-        <v>17.76000022888184</v>
+        <v>14.27000045776367</v>
       </c>
       <c r="C22">
-        <v>16.84000015258789</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="D22">
-        <v>16.90999984741211</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="E22">
-        <v>16.90999984741211</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="F22">
-        <v>19100300</v>
+        <v>17892200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>16.80999946594238</v>
+        <v>13.75</v>
       </c>
       <c r="B23">
-        <v>17.5</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="C23">
-        <v>16.31999969482422</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="D23">
-        <v>17.3700008392334</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="E23">
-        <v>17.3700008392334</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F23">
-        <v>21618900</v>
+        <v>13665700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>17.25</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B24">
-        <v>17.48999977111816</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="C24">
-        <v>16.84000015258789</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D24">
-        <v>17.43000030517578</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E24">
-        <v>17.43000030517578</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F24">
-        <v>13103900</v>
+        <v>12900500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>17.61000061035156</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B25">
-        <v>18.17000007629395</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="C25">
-        <v>17.44000053405762</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="D25">
-        <v>17.61000061035156</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="E25">
-        <v>17.61000061035156</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="F25">
-        <v>15644500</v>
+        <v>14441300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>17.95999908447266</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="B26">
-        <v>18.68000030517578</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C26">
-        <v>17.71999931335449</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D26">
-        <v>18.26000022888184</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="E26">
-        <v>18.26000022888184</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="F26">
-        <v>20425500</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18.15999984741211</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B27">
-        <v>18.3700008392334</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="C27">
-        <v>17.73999977111816</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="D27">
-        <v>18.20000076293945</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="E27">
-        <v>18.20000076293945</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F27">
-        <v>14548100</v>
+        <v>18407600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18.18000030517578</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="B28">
-        <v>19.13999938964844</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="C28">
-        <v>18.04000091552734</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="D28">
-        <v>18.6299991607666</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E28">
-        <v>18.6299991607666</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F28">
-        <v>20750500</v>
+        <v>16030700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18.67000007629395</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="B29">
-        <v>19.23999977111816</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="C29">
-        <v>17.78000068664551</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="D29">
-        <v>17.86000061035156</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="E29">
-        <v>17.86000061035156</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F29">
-        <v>20315400</v>
+        <v>16072900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>17.89999961853027</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B30">
-        <v>18.39999961853027</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C30">
-        <v>17.28000068664551</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D30">
-        <v>18.07999992370605</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="E30">
-        <v>18.07999992370605</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="F30">
-        <v>25452600</v>
+        <v>12982400</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18.03000068664551</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>18.45000076293945</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C31">
-        <v>17.60000038146973</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="D31">
-        <v>17.84000015258789</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E31">
-        <v>17.84000015258789</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F31">
-        <v>16278000</v>
+        <v>9316000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>17.82999992370605</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>17.90999984741211</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C32">
-        <v>17.19000053405762</v>
+        <v>11.75</v>
       </c>
       <c r="D32">
-        <v>17.22999954223633</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="E32">
-        <v>17.22999954223633</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="F32">
-        <v>13154500</v>
+        <v>13644900</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>17.13999938964844</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B33">
-        <v>17.47999954223633</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C33">
-        <v>16.69000053405762</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D33">
-        <v>16.71999931335449</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E33">
-        <v>16.71999931335449</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F33">
-        <v>12756900</v>
+        <v>25536800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>16.75</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="B34">
-        <v>16.94000053405762</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C34">
-        <v>15.84000015258789</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="D34">
-        <v>16.22999954223633</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="E34">
-        <v>16.22999954223633</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F34">
-        <v>19486700</v>
+        <v>19702500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>15.47999954223633</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="B35">
-        <v>16.38999938964844</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C35">
-        <v>15.40999984741211</v>
+        <v>11.25</v>
       </c>
       <c r="D35">
-        <v>16.25</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E35">
-        <v>16.25</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F35">
-        <v>12901900</v>
+        <v>16297000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>16.23999977111816</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="B36">
-        <v>16.3700008392334</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C36">
-        <v>15.85000038146973</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="D36">
-        <v>16.17000007629395</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E36">
-        <v>16.17000007629395</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="F36">
-        <v>11851200</v>
+        <v>21476600</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>16.02000045776367</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="B37">
-        <v>16.38999938964844</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="C37">
-        <v>15.72999954223633</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="D37">
-        <v>16.23999977111816</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E37">
-        <v>16.23999977111816</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F37">
-        <v>11637400</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>16.5</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B38">
-        <v>17.42000007629395</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="C38">
-        <v>16.19000053405762</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="D38">
-        <v>16.31999969482422</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="E38">
-        <v>16.31999969482422</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F38">
-        <v>26745900</v>
+        <v>14941700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>16.76000022888184</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="B39">
-        <v>16.79999923706055</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C39">
-        <v>14.94999980926514</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D39">
-        <v>15.01000022888184</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E39">
-        <v>15.01000022888184</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F39">
-        <v>27927000</v>
+        <v>17537500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>14.97000026702881</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="B40">
-        <v>15.34000015258789</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C40">
-        <v>13.97000026702881</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="D40">
-        <v>14.39999961853027</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E40">
-        <v>14.39999961853027</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F40">
-        <v>24352300</v>
+        <v>17441800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>14.36999988555908</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="B41">
-        <v>14.61999988555908</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C41">
-        <v>13.72000026702881</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="D41">
-        <v>13.90999984741211</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="E41">
-        <v>13.90999984741211</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="F41">
-        <v>20527900</v>
+        <v>20291000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>13.35999965667725</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="B42">
-        <v>13.78999996185303</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="C42">
-        <v>13.1899995803833</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="D42">
-        <v>13.60000038146973</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="E42">
-        <v>13.60000038146973</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F42">
-        <v>21065900</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>13.64000034332275</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="B43">
-        <v>14.23999977111816</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="C43">
-        <v>13.02999973297119</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D43">
-        <v>14.15999984741211</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E43">
-        <v>14.15999984741211</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="F43">
-        <v>17667400</v>
+        <v>14980700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>14.15999984741211</v>
+        <v>10.75</v>
       </c>
       <c r="B44">
-        <v>14.89000034332275</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="C44">
-        <v>13.9399995803833</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D44">
-        <v>14.60000038146973</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E44">
-        <v>14.60000038146973</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F44">
-        <v>15887200</v>
+        <v>18162500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>14.44999980926514</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="B45">
-        <v>14.52999973297119</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C45">
-        <v>13.77000045776367</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D45">
-        <v>13.88000011444092</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="E45">
-        <v>13.88000011444092</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="F45">
-        <v>13232300</v>
+        <v>18595400</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>13.96000003814697</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="B46">
-        <v>13.96000003814697</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="C46">
-        <v>13.26000022888184</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D46">
-        <v>13.59000015258789</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E46">
-        <v>13.59000015258789</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F46">
-        <v>12735300</v>
+        <v>34914000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>13.44999980926514</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="B47">
-        <v>14.13000011444092</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C47">
-        <v>13.23999977111816</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D47">
-        <v>13.69999980926514</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E47">
-        <v>13.69999980926514</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F47">
-        <v>13567300</v>
+        <v>20199900</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>13.48999977111816</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="B48">
-        <v>13.64999961853027</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="C48">
-        <v>12.53999996185303</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="D48">
-        <v>12.72999954223633</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="E48">
-        <v>12.72999954223633</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="F48">
-        <v>24500600</v>
+        <v>12642500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>14.27000045776367</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="B49">
-        <v>16.48999977111816</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="C49">
-        <v>14.02000045776367</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="D49">
-        <v>16.01000022888184</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="E49">
-        <v>16.01000022888184</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F49">
-        <v>116127500</v>
+        <v>13749900</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>16.61000061035156</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="B50">
-        <v>16.67000007629395</v>
+        <v>10.53999996185303</v>
       </c>
       <c r="C50">
-        <v>15.27999973297119</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D50">
-        <v>15.42000007629395</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E50">
-        <v>15.42000007629395</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="F50">
-        <v>46247200</v>
+        <v>10136900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>15.02999973297119</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B51">
-        <v>15.51000022888184</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="C51">
-        <v>14.42000007629395</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D51">
-        <v>14.60999965667725</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E51">
-        <v>14.60999965667725</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="F51">
-        <v>22117400</v>
+        <v>14890300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>14.65999984741211</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="B52">
-        <v>15.25</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="C52">
-        <v>14.4399995803833</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D52">
-        <v>14.60999965667725</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E52">
-        <v>14.60999965667725</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F52">
-        <v>13522000</v>
+        <v>13082200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>14.55000019073486</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="B53">
-        <v>14.57999992370605</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C53">
-        <v>13.92000007629395</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="D53">
-        <v>14.25</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="E53">
-        <v>14.25</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="F53">
-        <v>14151900</v>
+        <v>13975100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>14.10999965667725</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B54">
-        <v>14.56999969482422</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="C54">
-        <v>13.88000011444092</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D54">
-        <v>13.96000003814697</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E54">
-        <v>13.96000003814697</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="F54">
-        <v>16313000</v>
+        <v>68798000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>13.98999977111816</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="B55">
-        <v>14.75</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C55">
-        <v>13.88000011444092</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D55">
-        <v>14.47000026702881</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="E55">
-        <v>14.47000026702881</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="F55">
-        <v>17031900</v>
+        <v>44082000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>14.53999996185303</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="B56">
-        <v>14.64000034332275</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="C56">
-        <v>14.10000038146973</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D56">
-        <v>14.42000007629395</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="E56">
-        <v>14.42000007629395</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F56">
-        <v>11634600</v>
+        <v>30666900</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>14.27999973297119</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="B57">
-        <v>14.71000003814697</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C57">
-        <v>13.88000011444092</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="D57">
-        <v>14.71000003814697</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E57">
-        <v>14.71000003814697</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F57">
-        <v>14547100</v>
+        <v>18841500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>14.60999965667725</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="B58">
-        <v>15.21000003814697</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="C58">
-        <v>14.44999980926514</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="D58">
-        <v>14.78999996185303</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>14.78999996185303</v>
+        <v>11</v>
       </c>
       <c r="F58">
-        <v>13606800</v>
+        <v>13868500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>14.8100004196167</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="B59">
-        <v>14.8100004196167</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="C59">
-        <v>14.27000045776367</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="D59">
-        <v>14.30000019073486</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E59">
-        <v>14.30000019073486</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="F59">
-        <v>9320200</v>
+        <v>15137800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>14.27999973297119</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B60">
-        <v>14.32999992370605</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="C60">
-        <v>13.92000007629395</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="D60">
-        <v>14.10000038146973</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E60">
-        <v>14.10000038146973</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F60">
-        <v>9048200</v>
+        <v>15093900</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>14.05000019073486</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B61">
-        <v>14.05000019073486</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="C61">
-        <v>13.23999977111816</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D61">
-        <v>13.30000019073486</v>
+        <v>10.5</v>
       </c>
       <c r="E61">
-        <v>13.30000019073486</v>
+        <v>10.5</v>
       </c>
       <c r="F61">
-        <v>16550300</v>
+        <v>11171600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>13.22999954223633</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B62">
-        <v>13.52999973297119</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C62">
-        <v>13.02000045776367</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D62">
-        <v>13.11999988555908</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E62">
-        <v>13.11999988555908</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F62">
-        <v>12986900</v>
+        <v>11177500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>12.96000003814697</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="B63">
-        <v>13.35999965667725</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="C63">
-        <v>12.77999973297119</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D63">
-        <v>13.11999988555908</v>
+        <v>10.75</v>
       </c>
       <c r="E63">
-        <v>13.11999988555908</v>
+        <v>10.75</v>
       </c>
       <c r="F63">
-        <v>16146400</v>
+        <v>17396100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>13.90999984741211</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="B64">
-        <v>14.0600004196167</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C64">
-        <v>13.17000007629395</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D64">
-        <v>13.26000022888184</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E64">
-        <v>13.26000022888184</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F64">
-        <v>31537500</v>
+        <v>14972500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>13.03999996185303</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="B65">
-        <v>13.35999965667725</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C65">
-        <v>12.61999988555908</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D65">
-        <v>12.68000030517578</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="E65">
-        <v>12.68000030517578</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="F65">
-        <v>18242500</v>
+        <v>17924500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>12.80000019073486</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="B66">
-        <v>13.03999996185303</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="C66">
-        <v>12.55000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D66">
-        <v>12.82999992370605</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E66">
-        <v>12.82999992370605</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F66">
-        <v>12787700</v>
+        <v>14915500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>12.93000030517578</v>
+        <v>10.75</v>
       </c>
       <c r="B67">
-        <v>13.42000007629395</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="C67">
-        <v>12.80000019073486</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="D67">
-        <v>13.36999988555908</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="E67">
-        <v>13.36999988555908</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F67">
-        <v>12749700</v>
+        <v>23511900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>13.4399995803833</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="B68">
-        <v>13.8100004196167</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="C68">
-        <v>13.25</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="D68">
-        <v>13.8100004196167</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="E68">
-        <v>13.8100004196167</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="F68">
-        <v>12649000</v>
+        <v>48931600</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>13.67000007629395</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="B69">
-        <v>13.81999969482422</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="C69">
-        <v>13.36999988555908</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D69">
-        <v>13.53999996185303</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="E69">
-        <v>13.53999996185303</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="F69">
-        <v>11390800</v>
+        <v>33221600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>13.44999980926514</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B70">
-        <v>13.77000045776367</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C70">
-        <v>13.0600004196167</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D70">
-        <v>13.25</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E70">
-        <v>13.25</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F70">
-        <v>16502500</v>
+        <v>21170700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>13.22000026702881</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="B71">
-        <v>13.64000034332275</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="C71">
-        <v>13.11999988555908</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="D71">
-        <v>13.42000007629395</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E71">
-        <v>13.42000007629395</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F71">
-        <v>10619900</v>
+        <v>17104100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>13.51000022888184</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="B72">
-        <v>13.51000022888184</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="C72">
-        <v>12.89999961853027</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="D72">
-        <v>13.13000011444092</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E72">
-        <v>13.13000011444092</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F72">
-        <v>12907800</v>
+        <v>56022300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>13.09000015258789</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="B73">
-        <v>14.1899995803833</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="C73">
-        <v>12.96000003814697</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D73">
-        <v>13.6899995803833</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="E73">
-        <v>13.6899995803833</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="F73">
-        <v>20161000</v>
+        <v>61294100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>13.73999977111816</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="B74">
-        <v>14.19999980926514</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="C74">
-        <v>13.51000022888184</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="D74">
-        <v>13.56999969482422</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="E74">
-        <v>13.56999969482422</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="F74">
-        <v>13943600</v>
+        <v>28670000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>13.65999984741211</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="B75">
-        <v>14.27000045776367</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C75">
-        <v>13.44999980926514</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="D75">
-        <v>13.85000038146973</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="E75">
-        <v>13.85000038146973</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F75">
-        <v>17892200</v>
+        <v>16254700</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>13.75</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B76">
-        <v>14.15999984741211</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="C76">
-        <v>13.4399995803833</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D76">
-        <v>13.59000015258789</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E76">
-        <v>13.59000015258789</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F76">
-        <v>13665700</v>
+        <v>42792400</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>13.60000038146973</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B77">
-        <v>13.67000007629395</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C77">
-        <v>13.17000007629395</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D77">
-        <v>13.30000019073486</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="E77">
-        <v>13.30000019073486</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="F77">
-        <v>12900500</v>
+        <v>24096900</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>13.22000026702881</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B78">
-        <v>13.32999992370605</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="C78">
-        <v>12.77000045776367</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D78">
-        <v>12.80000019073486</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E78">
-        <v>12.80000019073486</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F78">
-        <v>14441300</v>
+        <v>23342600</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>12.9399995803833</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="B79">
-        <v>13.14999961853027</v>
+        <v>10.90999984741211</v>
       </c>
       <c r="C79">
-        <v>12.76000022888184</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D79">
-        <v>12.85999965667725</v>
+        <v>10.5</v>
       </c>
       <c r="E79">
-        <v>12.85999965667725</v>
+        <v>10.5</v>
       </c>
       <c r="F79">
-        <v>12649000</v>
+        <v>18239100</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>12.96000003814697</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B80">
-        <v>12.96000003814697</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="C80">
-        <v>12.39999961853027</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D80">
-        <v>12.40999984741211</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E80">
-        <v>12.40999984741211</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F80">
-        <v>18407600</v>
+        <v>15538500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>12.4399995803833</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B81">
-        <v>12.47000026702881</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C81">
-        <v>11.92000007629395</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D81">
-        <v>12.22999954223633</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="E81">
-        <v>12.22999954223633</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="F81">
-        <v>16030700</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>12.26000022888184</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="B82">
-        <v>12.3100004196167</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="C82">
-        <v>11.72000026702881</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D82">
-        <v>11.73999977111816</v>
+        <v>10.25</v>
       </c>
       <c r="E82">
-        <v>11.73999977111816</v>
+        <v>10.25</v>
       </c>
       <c r="F82">
-        <v>16072900</v>
+        <v>20593400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>11.76000022888184</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="B83">
-        <v>12.1899995803833</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="C83">
-        <v>11.68000030517578</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="D83">
-        <v>12.02999973297119</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="E83">
-        <v>12.02999973297119</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="F83">
-        <v>12982400</v>
+        <v>21916200</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>12</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="B84">
-        <v>12.23999977111816</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C84">
-        <v>11.89999961853027</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="D84">
-        <v>12.01000022888184</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="E84">
-        <v>12.01000022888184</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="F84">
-        <v>9316000</v>
+        <v>29217800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>12</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="B85">
-        <v>12.19999980926514</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C85">
-        <v>11.75</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="D85">
-        <v>12.17000007629395</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="E85">
-        <v>12.17000007629395</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="F85">
-        <v>13644900</v>
+        <v>21379100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>11.76000022888184</v>
+        <v>9.510000228881836</v>
       </c>
       <c r="B86">
-        <v>11.77000045776367</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C86">
-        <v>11.02000045776367</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="D86">
-        <v>11.22999954223633</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E86">
-        <v>11.22999954223633</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F86">
-        <v>25536800</v>
+        <v>25914700</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>11.22999954223633</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="B87">
-        <v>11.53999996185303</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="C87">
-        <v>11.02999973297119</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="D87">
-        <v>11.22000026702881</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="E87">
-        <v>11.22000026702881</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="F87">
-        <v>19702500</v>
+        <v>18864900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>11.27999973297119</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B88">
-        <v>11.88000011444092</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="C88">
-        <v>11.25</v>
+        <v>9.25</v>
       </c>
       <c r="D88">
-        <v>11.63000011444092</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="E88">
-        <v>11.63000011444092</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="F88">
-        <v>16297000</v>
+        <v>16530900</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>12.19999980926514</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="B89">
-        <v>12.39999961853027</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="C89">
-        <v>11.86999988555908</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="D89">
-        <v>12.02000045776367</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="E89">
-        <v>12.02000045776367</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="F89">
-        <v>21476600</v>
+        <v>16712300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>11.85000038146973</v>
+        <v>9.5</v>
       </c>
       <c r="B90">
-        <v>11.97999954223633</v>
+        <v>9.75</v>
       </c>
       <c r="C90">
-        <v>11.64000034332275</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="D90">
-        <v>11.67000007629395</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E90">
-        <v>11.67000007629395</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F90">
-        <v>13173400</v>
+        <v>19085100</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>11.69999980926514</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B91">
-        <v>12.27000045776367</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C91">
-        <v>11.64999961853027</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="D91">
-        <v>12.22000026702881</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E91">
-        <v>12.22000026702881</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="F91">
-        <v>14941700</v>
+        <v>20077900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>12.03999996185303</v>
+        <v>8.539999961853027</v>
       </c>
       <c r="B92">
-        <v>12.1899995803833</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C92">
-        <v>11.60000038146973</v>
+        <v>8.079999923706055</v>
       </c>
       <c r="D92">
-        <v>11.63000011444092</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="E92">
-        <v>11.63000011444092</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="F92">
-        <v>17537500</v>
+        <v>20232400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>11.72999954223633</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="B93">
-        <v>11.77000045776367</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="C93">
-        <v>11.09000015258789</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D93">
-        <v>11.10999965667725</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="E93">
-        <v>11.10999965667725</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="F93">
-        <v>17441800</v>
+        <v>16321800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>11.17000007629395</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="B94">
-        <v>11.52999973297119</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="C94">
-        <v>10.94999980926514</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D94">
-        <v>11.28999996185303</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="E94">
-        <v>11.28999996185303</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="F94">
-        <v>20291000</v>
+        <v>22453700</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>11.28999996185303</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="B95">
-        <v>11.36999988555908</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C95">
-        <v>10.84000015258789</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="D95">
-        <v>11.14999961853027</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="E95">
-        <v>11.14999961853027</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="F95">
-        <v>18180300</v>
+        <v>18551100</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>11.02000045776367</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="B96">
-        <v>11.10999965667725</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="C96">
-        <v>10.68000030517578</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="D96">
-        <v>10.73999977111816</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="E96">
-        <v>10.73999977111816</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F96">
-        <v>14980700</v>
+        <v>27219600</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>10.75</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="B97">
-        <v>11.34000015258789</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C97">
-        <v>10.68000030517578</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="D97">
-        <v>11.10000038146973</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="E97">
-        <v>11.10000038146973</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="F97">
-        <v>18162500</v>
+        <v>22899900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>10.89999961853027</v>
+        <v>7.5</v>
       </c>
       <c r="B98">
-        <v>10.9399995803833</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="C98">
-        <v>10.68000030517578</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="D98">
-        <v>10.78999996185303</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="E98">
-        <v>10.78999996185303</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="F98">
-        <v>18595400</v>
+        <v>19972200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>10.81999969482422</v>
+        <v>7.75</v>
       </c>
       <c r="B99">
-        <v>11.42000007629395</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="C99">
-        <v>10.36999988555908</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="D99">
-        <v>11.02000045776367</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="E99">
-        <v>11.02000045776367</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="F99">
-        <v>34914000</v>
+        <v>12366300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>10.85000038146973</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="B100">
-        <v>11.07999992370605</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="C100">
-        <v>10.46000003814697</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D100">
-        <v>10.48999977111816</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="E100">
-        <v>10.48999977111816</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="F100">
-        <v>20199900</v>
+        <v>16615900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>10.36999988555908</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="B101">
-        <v>10.60999965667725</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C101">
-        <v>10.14999961853027</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D101">
-        <v>10.15999984741211</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E101">
-        <v>10.15999984741211</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F101">
-        <v>12642500</v>
+        <v>16313100</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>10.15999984741211</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B102">
-        <v>10.5600004196167</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="C102">
-        <v>10.11999988555908</v>
+        <v>7.25</v>
       </c>
       <c r="D102">
-        <v>10.27999973297119</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E102">
-        <v>10.27999973297119</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F102">
-        <v>13749900</v>
+        <v>18199300</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>10.34000015258789</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="B103">
-        <v>10.53999996185303</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="C103">
-        <v>10.19999980926514</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D103">
-        <v>10.28999996185303</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="E103">
-        <v>10.28999996185303</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="F103">
-        <v>10136900</v>
+        <v>23466400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>10.42000007629395</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B104">
-        <v>10.8100004196167</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C104">
-        <v>10.36999988555908</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>10.39000034332275</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E104">
-        <v>10.39000034332275</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F104">
-        <v>14890300</v>
+        <v>28741300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>10.46000003814697</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B105">
-        <v>10.52999973297119</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="C105">
-        <v>10.1899995803833</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D105">
-        <v>10.23999977111816</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E105">
-        <v>10.23999977111816</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F105">
-        <v>13082200</v>
+        <v>20258500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>10.21000003814697</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="B106">
-        <v>10.23999977111816</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C106">
-        <v>9.979999542236328</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D106">
-        <v>10.06999969482422</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E106">
-        <v>10.06999969482422</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F106">
-        <v>13975100</v>
+        <v>21556900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>10.17000007629395</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B107">
-        <v>11.82999992370605</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C107">
-        <v>10.02999973297119</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D107">
-        <v>11.65999984741211</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E107">
-        <v>11.65999984741211</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F107">
-        <v>68798000</v>
+        <v>24622800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>11.55000019073486</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B108">
-        <v>11.80000019073486</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C108">
-        <v>11.02000045776367</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D108">
-        <v>11.59000015258789</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E108">
-        <v>11.59000015258789</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F108">
-        <v>44082000</v>
+        <v>30015800</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>11.46000003814697</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B109">
-        <v>12.15999984741211</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C109">
-        <v>11.42000007629395</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="D109">
-        <v>11.5600004196167</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E109">
-        <v>11.5600004196167</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F109">
-        <v>30666900</v>
+        <v>27322300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>11.52999973297119</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B110">
-        <v>11.52999973297119</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="C110">
-        <v>10.9399995803833</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D110">
-        <v>11.07999992370605</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E110">
-        <v>11.07999992370605</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F110">
-        <v>18841500</v>
+        <v>27156200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>11.05000019073486</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="B111">
-        <v>11.28999996185303</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="C111">
-        <v>10.88000011444092</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E111">
-        <v>11</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F111">
-        <v>13868500</v>
+        <v>107145700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>11.06999969482422</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="B112">
-        <v>11.14000034332275</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C112">
-        <v>10.57999992370605</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D112">
-        <v>10.71000003814697</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E112">
-        <v>10.71000003814697</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F112">
-        <v>15137800</v>
+        <v>33490300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>10.69999980926514</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B113">
-        <v>10.82999992370605</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C113">
-        <v>10.28999996185303</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="D113">
-        <v>10.30000019073486</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E113">
-        <v>10.30000019073486</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F113">
-        <v>15093900</v>
+        <v>23457700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>10.32999992370605</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B114">
-        <v>10.56999969482422</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C114">
-        <v>10.1899995803833</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D114">
-        <v>10.5</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="E114">
-        <v>10.5</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="F114">
-        <v>11171600</v>
+        <v>16643300</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>10.43000030517578</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="B115">
-        <v>10.64000034332275</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C115">
-        <v>10.22000026702881</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D115">
-        <v>10.30000019073486</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="E115">
-        <v>10.30000019073486</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F115">
-        <v>11177500</v>
+        <v>18008500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>10.23999977111816</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B116">
-        <v>10.88000011444092</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="C116">
-        <v>10.10000038146973</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="D116">
-        <v>10.75</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="E116">
-        <v>10.75</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="F116">
-        <v>17396100</v>
+        <v>21597000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>10.72000026702881</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B117">
-        <v>10.72999954223633</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C117">
-        <v>10.23999977111816</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D117">
-        <v>10.42000007629395</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E117">
-        <v>10.42000007629395</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F117">
-        <v>14972500</v>
+        <v>25170900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>10.38000011444092</v>
+        <v>6</v>
       </c>
       <c r="B118">
-        <v>11.09000015258789</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="C118">
-        <v>10.31999969482422</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D118">
-        <v>10.85999965667725</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E118">
-        <v>10.85999965667725</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F118">
-        <v>17924500</v>
+        <v>24224700</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>11.13000011444092</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="B119">
-        <v>11.27999973297119</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="C119">
-        <v>10.69999980926514</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D119">
-        <v>10.8100004196167</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="E119">
-        <v>10.8100004196167</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="F119">
-        <v>14915500</v>
+        <v>25137900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>10.75</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B120">
-        <v>10.77000045776367</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C120">
-        <v>10.15999984741211</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="D120">
-        <v>10.69999980926514</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="E120">
-        <v>10.69999980926514</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="F120">
-        <v>23511900</v>
+        <v>28766400</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>10.73999977111816</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B121">
-        <v>12.56999969482422</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C121">
-        <v>10.6899995803833</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D121">
-        <v>12.36999988555908</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E121">
-        <v>12.36999988555908</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F121">
-        <v>48931600</v>
+        <v>15242400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>12.14000034332275</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B122">
-        <v>12.71000003814697</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C122">
-        <v>11.51000022888184</v>
+        <v>5.460000038146973</v>
       </c>
       <c r="D122">
-        <v>12.38000011444092</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="E122">
-        <v>12.38000011444092</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="F122">
-        <v>33221600</v>
+        <v>20766700</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>11.98999977111816</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="B123">
-        <v>12.44999980926514</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C123">
-        <v>11.39999961853027</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D123">
-        <v>11.52000045776367</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="E123">
-        <v>11.52000045776367</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="F123">
-        <v>21170700</v>
+        <v>24067200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>11.67000007629395</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="B124">
-        <v>12.13000011444092</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C124">
-        <v>11.56999969482422</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D124">
-        <v>11.85999965667725</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="E124">
-        <v>11.85999965667725</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="F124">
-        <v>17104100</v>
+        <v>19750600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>12.56999969482422</v>
+        <v>5.5</v>
       </c>
       <c r="B125">
-        <v>13.06999969482422</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C125">
-        <v>12.10999965667725</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D125">
-        <v>12.9399995803833</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="E125">
-        <v>12.9399995803833</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="F125">
-        <v>56022300</v>
+        <v>18665900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>13.36999988555908</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="B126">
-        <v>13.94999980926514</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C126">
-        <v>12.97000026702881</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D126">
-        <v>13.02999973297119</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="E126">
-        <v>13.02999973297119</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="F126">
-        <v>61294100</v>
+        <v>20274300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>12.77999973297119</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B127">
-        <v>13.30000019073486</v>
+        <v>6.25</v>
       </c>
       <c r="C127">
-        <v>12.26000022888184</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D127">
-        <v>12.97000026702881</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="E127">
-        <v>12.97000026702881</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="F127">
-        <v>28670000</v>
+        <v>15233700</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>12.72999954223633</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="B128">
-        <v>13.14999961853027</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="C128">
-        <v>12.30000019073486</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D128">
-        <v>12.34000015258789</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="E128">
-        <v>12.34000015258789</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="F128">
-        <v>16254700</v>
+        <v>11710900</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>11.92000007629395</v>
+        <v>5.672699928283691</v>
       </c>
       <c r="B129">
-        <v>12.14000034332275</v>
+        <v>6.017799854278564</v>
       </c>
       <c r="C129">
-        <v>10.69999980926514</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D129">
-        <v>10.89999961853027</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E129">
-        <v>10.89999961853027</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F129">
-        <v>42792400</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>11.19999980926514</v>
-      </c>
-      <c r="B130">
-        <v>11.39999961853027</v>
-      </c>
-      <c r="C130">
-        <v>10.69999980926514</v>
-      </c>
-      <c r="D130">
-        <v>10.93000030517578</v>
-      </c>
-      <c r="E130">
-        <v>10.93000030517578</v>
-      </c>
-      <c r="F130">
-        <v>24036500</v>
+        <v>14255508</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -2912,7 +2912,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="F126">
-        <v>20274300</v>
+        <v>20392700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2957,10 +2957,10 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>5.672699928283691</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="B129">
-        <v>6.017799854278564</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="C129">
         <v>5.630000114440918</v>
@@ -2972,7 +2972,7 @@
         <v>5.949999809265137</v>
       </c>
       <c r="F129">
-        <v>14255508</v>
+        <v>14268100</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>13.98999977111816</v>
+        <v>14.27999973297119</v>
       </c>
       <c r="B2">
-        <v>14.75</v>
+        <v>14.32999992370605</v>
       </c>
       <c r="C2">
-        <v>13.88000011444092</v>
+        <v>13.92000007629395</v>
       </c>
       <c r="D2">
-        <v>14.47000026702881</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="E2">
-        <v>14.47000026702881</v>
+        <v>14.10000038146973</v>
       </c>
       <c r="F2">
-        <v>17031900</v>
+        <v>9048200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>14.53999996185303</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="B3">
-        <v>14.64000034332275</v>
+        <v>14.05000019073486</v>
       </c>
       <c r="C3">
-        <v>14.10000038146973</v>
+        <v>13.23999977111816</v>
       </c>
       <c r="D3">
-        <v>14.42000007629395</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E3">
-        <v>14.42000007629395</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F3">
-        <v>11634600</v>
+        <v>16550300</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>14.27999973297119</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="B4">
-        <v>14.71000003814697</v>
+        <v>13.52999973297119</v>
       </c>
       <c r="C4">
-        <v>13.88000011444092</v>
+        <v>13.02000045776367</v>
       </c>
       <c r="D4">
-        <v>14.71000003814697</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E4">
-        <v>14.71000003814697</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F4">
-        <v>14547100</v>
+        <v>12986900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>14.60999965667725</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B5">
-        <v>15.21000003814697</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C5">
-        <v>14.44999980926514</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="D5">
-        <v>14.78999996185303</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="E5">
-        <v>14.78999996185303</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="F5">
-        <v>13606800</v>
+        <v>16146400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>14.8100004196167</v>
+        <v>13.90999984741211</v>
       </c>
       <c r="B6">
-        <v>14.8100004196167</v>
+        <v>14.0600004196167</v>
       </c>
       <c r="C6">
-        <v>14.27000045776367</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D6">
-        <v>14.30000019073486</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="E6">
-        <v>14.30000019073486</v>
+        <v>13.26000022888184</v>
       </c>
       <c r="F6">
-        <v>9320200</v>
+        <v>31537500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>14.27999973297119</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="B7">
-        <v>14.32999992370605</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C7">
-        <v>13.92000007629395</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D7">
-        <v>14.10000038146973</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="E7">
-        <v>14.10000038146973</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="F7">
-        <v>9048200</v>
+        <v>18242500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>14.05000019073486</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="B8">
-        <v>14.05000019073486</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="C8">
-        <v>13.23999977111816</v>
+        <v>12.55000019073486</v>
       </c>
       <c r="D8">
-        <v>13.30000019073486</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="E8">
-        <v>13.30000019073486</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="F8">
-        <v>16550300</v>
+        <v>12787700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>13.22999954223633</v>
+        <v>12.93000030517578</v>
       </c>
       <c r="B9">
-        <v>13.52999973297119</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="C9">
-        <v>13.02000045776367</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="D9">
-        <v>13.11999988555908</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="E9">
-        <v>13.11999988555908</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="F9">
-        <v>12986900</v>
+        <v>12749700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>12.96000003814697</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="B10">
-        <v>13.35999965667725</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="C10">
-        <v>12.77999973297119</v>
+        <v>13.25</v>
       </c>
       <c r="D10">
-        <v>13.11999988555908</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="E10">
-        <v>13.11999988555908</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="F10">
-        <v>16146400</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>13.90999984741211</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="B11">
-        <v>14.0600004196167</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C11">
-        <v>13.17000007629395</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D11">
-        <v>13.26000022888184</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="E11">
-        <v>13.26000022888184</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F11">
-        <v>31537500</v>
+        <v>11390800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>13.03999996185303</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B12">
-        <v>13.35999965667725</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="C12">
-        <v>12.61999988555908</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="D12">
-        <v>12.68000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="E12">
-        <v>12.68000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="F12">
-        <v>18242500</v>
+        <v>16502500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>12.80000019073486</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B13">
-        <v>13.03999996185303</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="C13">
-        <v>12.55000019073486</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="D13">
-        <v>12.82999992370605</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="E13">
-        <v>12.82999992370605</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="F13">
-        <v>12787700</v>
+        <v>10619900</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>12.93000030517578</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="B14">
-        <v>13.42000007629395</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="C14">
-        <v>12.80000019073486</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="D14">
-        <v>13.36999988555908</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E14">
-        <v>13.36999988555908</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F14">
-        <v>12749700</v>
+        <v>12907800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>13.4399995803833</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="B15">
-        <v>13.8100004196167</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="C15">
-        <v>13.25</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="D15">
-        <v>13.8100004196167</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="E15">
-        <v>13.8100004196167</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="F15">
-        <v>12649000</v>
+        <v>20161000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>13.67000007629395</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="B16">
-        <v>13.81999969482422</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C16">
-        <v>13.36999988555908</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="D16">
-        <v>13.53999996185303</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="E16">
-        <v>13.53999996185303</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="F16">
-        <v>11390800</v>
+        <v>13943600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
+        <v>13.65999984741211</v>
+      </c>
+      <c r="B17">
+        <v>14.27000045776367</v>
+      </c>
+      <c r="C17">
         <v>13.44999980926514</v>
       </c>
-      <c r="B17">
-        <v>13.77000045776367</v>
-      </c>
-      <c r="C17">
-        <v>13.0600004196167</v>
-      </c>
       <c r="D17">
-        <v>13.25</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="E17">
-        <v>13.25</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="F17">
-        <v>16502500</v>
+        <v>17892200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>13.22000026702881</v>
+        <v>13.75</v>
       </c>
       <c r="B18">
-        <v>13.64000034332275</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="C18">
-        <v>13.11999988555908</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="D18">
-        <v>13.42000007629395</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="E18">
-        <v>13.42000007629395</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F18">
-        <v>10619900</v>
+        <v>13665700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>13.51000022888184</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B19">
-        <v>13.51000022888184</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="C19">
-        <v>12.89999961853027</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D19">
-        <v>13.13000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E19">
-        <v>13.13000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F19">
-        <v>12907800</v>
+        <v>12900500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>13.09000015258789</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B20">
-        <v>14.1899995803833</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="C20">
-        <v>12.96000003814697</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="D20">
-        <v>13.6899995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="E20">
-        <v>13.6899995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="F20">
-        <v>20161000</v>
+        <v>14441300</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>13.73999977111816</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="B21">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C21">
-        <v>13.51000022888184</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D21">
-        <v>13.56999969482422</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="E21">
-        <v>13.56999969482422</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="F21">
-        <v>13943600</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>13.65999984741211</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B22">
-        <v>14.27000045776367</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="C22">
-        <v>13.44999980926514</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="D22">
-        <v>13.85000038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="E22">
-        <v>13.85000038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F22">
-        <v>17892200</v>
+        <v>18407600</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>13.75</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="B23">
-        <v>14.15999984741211</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="C23">
-        <v>13.4399995803833</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="D23">
-        <v>13.59000015258789</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E23">
-        <v>13.59000015258789</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F23">
-        <v>13665700</v>
+        <v>16030700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>13.60000038146973</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="B24">
-        <v>13.67000007629395</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="C24">
-        <v>13.17000007629395</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="D24">
-        <v>13.30000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="E24">
-        <v>13.30000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F24">
-        <v>12900500</v>
+        <v>16072900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>13.22000026702881</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B25">
-        <v>13.32999992370605</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C25">
-        <v>12.77000045776367</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D25">
-        <v>12.80000019073486</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="E25">
-        <v>12.80000019073486</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="F25">
-        <v>14441300</v>
+        <v>12982400</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>12.9399995803833</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>13.14999961853027</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C26">
-        <v>12.76000022888184</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="D26">
-        <v>12.85999965667725</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E26">
-        <v>12.85999965667725</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F26">
-        <v>12649000</v>
+        <v>9316000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>12.96000003814697</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>12.96000003814697</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C27">
-        <v>12.39999961853027</v>
+        <v>11.75</v>
       </c>
       <c r="D27">
-        <v>12.40999984741211</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="E27">
-        <v>12.40999984741211</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="F27">
-        <v>18407600</v>
+        <v>13644900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>12.4399995803833</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B28">
-        <v>12.47000026702881</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C28">
-        <v>11.92000007629395</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D28">
-        <v>12.22999954223633</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E28">
-        <v>12.22999954223633</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F28">
-        <v>16030700</v>
+        <v>25536800</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>12.26000022888184</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="B29">
-        <v>12.3100004196167</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C29">
-        <v>11.72000026702881</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="D29">
-        <v>11.73999977111816</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="E29">
-        <v>11.73999977111816</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F29">
-        <v>16072900</v>
+        <v>19702500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>11.76000022888184</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="B30">
-        <v>12.1899995803833</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C30">
-        <v>11.68000030517578</v>
+        <v>11.25</v>
       </c>
       <c r="D30">
-        <v>12.02999973297119</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E30">
-        <v>12.02999973297119</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F30">
-        <v>12982400</v>
+        <v>16297000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>12</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="B31">
-        <v>12.23999977111816</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C31">
-        <v>11.89999961853027</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="D31">
-        <v>12.01000022888184</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E31">
-        <v>12.01000022888184</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="F31">
-        <v>9316000</v>
+        <v>21476600</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>12</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="B32">
-        <v>12.19999980926514</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="C32">
-        <v>11.75</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="D32">
-        <v>12.17000007629395</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E32">
-        <v>12.17000007629395</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F32">
-        <v>13644900</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>11.76000022888184</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B33">
-        <v>11.77000045776367</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="C33">
-        <v>11.02000045776367</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="D33">
-        <v>11.22999954223633</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="E33">
-        <v>11.22999954223633</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F33">
-        <v>25536800</v>
+        <v>14941700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>11.22999954223633</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="B34">
-        <v>11.53999996185303</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C34">
-        <v>11.02999973297119</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D34">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E34">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F34">
-        <v>19702500</v>
+        <v>17537500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>11.27999973297119</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="B35">
-        <v>11.88000011444092</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C35">
-        <v>11.25</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="D35">
-        <v>11.63000011444092</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E35">
-        <v>11.63000011444092</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F35">
-        <v>16297000</v>
+        <v>17441800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>12.19999980926514</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="B36">
-        <v>12.39999961853027</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C36">
-        <v>11.86999988555908</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="D36">
-        <v>12.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="E36">
-        <v>12.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="F36">
-        <v>21476600</v>
+        <v>20291000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>11.85000038146973</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="B37">
-        <v>11.97999954223633</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="C37">
-        <v>11.64000034332275</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="D37">
-        <v>11.67000007629395</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="E37">
-        <v>11.67000007629395</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F37">
-        <v>13173400</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>11.69999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="B38">
-        <v>12.27000045776367</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="C38">
-        <v>11.64999961853027</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D38">
-        <v>12.22000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E38">
-        <v>12.22000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="F38">
-        <v>14941700</v>
+        <v>14980700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>12.03999996185303</v>
+        <v>10.75</v>
       </c>
       <c r="B39">
-        <v>12.1899995803833</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="C39">
-        <v>11.60000038146973</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D39">
-        <v>11.63000011444092</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E39">
-        <v>11.63000011444092</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F39">
-        <v>17537500</v>
+        <v>18162500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>11.72999954223633</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="B40">
-        <v>11.77000045776367</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C40">
-        <v>11.09000015258789</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D40">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="E40">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="F40">
-        <v>17441800</v>
+        <v>18595400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>11.17000007629395</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="B41">
-        <v>11.52999973297119</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="C41">
-        <v>10.94999980926514</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D41">
-        <v>11.28999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E41">
-        <v>11.28999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F41">
-        <v>20291000</v>
+        <v>34914000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>11.28999996185303</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="B42">
-        <v>11.36999988555908</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C42">
-        <v>10.84000015258789</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D42">
-        <v>11.14999961853027</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E42">
-        <v>11.14999961853027</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F42">
-        <v>18180300</v>
+        <v>20199900</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>11.02000045776367</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="B43">
-        <v>11.10999965667725</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="C43">
-        <v>10.68000030517578</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="D43">
-        <v>10.73999977111816</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="E43">
-        <v>10.73999977111816</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="F43">
-        <v>14980700</v>
+        <v>12642500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>10.75</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="B44">
-        <v>11.34000015258789</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="C44">
-        <v>10.68000030517578</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="D44">
-        <v>11.10000038146973</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="E44">
-        <v>11.10000038146973</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F44">
-        <v>18162500</v>
+        <v>13749900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>10.89999961853027</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="B45">
-        <v>10.9399995803833</v>
+        <v>10.53999996185303</v>
       </c>
       <c r="C45">
-        <v>10.68000030517578</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D45">
-        <v>10.78999996185303</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E45">
-        <v>10.78999996185303</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="F45">
-        <v>18595400</v>
+        <v>10136900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>10.81999969482422</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B46">
-        <v>11.42000007629395</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="C46">
         <v>10.36999988555908</v>
       </c>
       <c r="D46">
-        <v>11.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E46">
-        <v>11.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="F46">
-        <v>34914000</v>
+        <v>14890300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>10.85000038146973</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="B47">
-        <v>11.07999992370605</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="C47">
-        <v>10.46000003814697</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D47">
-        <v>10.48999977111816</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E47">
-        <v>10.48999977111816</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F47">
-        <v>20199900</v>
+        <v>13082200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>10.36999988555908</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="B48">
-        <v>10.60999965667725</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C48">
-        <v>10.14999961853027</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="D48">
-        <v>10.15999984741211</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="E48">
-        <v>10.15999984741211</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="F48">
-        <v>12642500</v>
+        <v>13975100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>10.15999984741211</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B49">
-        <v>10.5600004196167</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="C49">
-        <v>10.11999988555908</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D49">
-        <v>10.27999973297119</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E49">
-        <v>10.27999973297119</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="F49">
-        <v>13749900</v>
+        <v>68798000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>10.34000015258789</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="B50">
-        <v>10.53999996185303</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C50">
-        <v>10.19999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D50">
-        <v>10.28999996185303</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="E50">
-        <v>10.28999996185303</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="F50">
-        <v>10136900</v>
+        <v>44082000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>10.42000007629395</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="B51">
-        <v>10.8100004196167</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="C51">
-        <v>10.36999988555908</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D51">
-        <v>10.39000034332275</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="E51">
-        <v>10.39000034332275</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F51">
-        <v>14890300</v>
+        <v>30666900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>10.46000003814697</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="B52">
-        <v>10.52999973297119</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C52">
-        <v>10.1899995803833</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="D52">
-        <v>10.23999977111816</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E52">
-        <v>10.23999977111816</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F52">
-        <v>13082200</v>
+        <v>18841500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>10.21000003814697</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="B53">
-        <v>10.23999977111816</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="C53">
-        <v>9.979999542236328</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="D53">
-        <v>10.06999969482422</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>10.06999969482422</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>13975100</v>
+        <v>13868500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>10.17000007629395</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="B54">
-        <v>11.82999992370605</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="C54">
-        <v>10.02999973297119</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="D54">
-        <v>11.65999984741211</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E54">
-        <v>11.65999984741211</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="F54">
-        <v>68798000</v>
+        <v>15137800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>11.55000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B55">
-        <v>11.80000019073486</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="C55">
-        <v>11.02000045776367</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="D55">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E55">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F55">
-        <v>44082000</v>
+        <v>15093900</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>11.46000003814697</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B56">
-        <v>12.15999984741211</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="C56">
-        <v>11.42000007629395</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D56">
-        <v>11.5600004196167</v>
+        <v>10.5</v>
       </c>
       <c r="E56">
-        <v>11.5600004196167</v>
+        <v>10.5</v>
       </c>
       <c r="F56">
-        <v>30666900</v>
+        <v>11171600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>11.52999973297119</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B57">
-        <v>11.52999973297119</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C57">
-        <v>10.9399995803833</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D57">
-        <v>11.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E57">
-        <v>11.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F57">
-        <v>18841500</v>
+        <v>11177500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>11.05000019073486</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="B58">
-        <v>11.28999996185303</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="C58">
-        <v>10.88000011444092</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="F58">
-        <v>13868500</v>
+        <v>17396100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>11.06999969482422</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="B59">
-        <v>11.14000034332275</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C59">
-        <v>10.57999992370605</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D59">
-        <v>10.71000003814697</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E59">
-        <v>10.71000003814697</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F59">
-        <v>15137800</v>
+        <v>14972500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>10.69999980926514</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="B60">
-        <v>10.82999992370605</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C60">
-        <v>10.28999996185303</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D60">
-        <v>10.30000019073486</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="E60">
-        <v>10.30000019073486</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="F60">
-        <v>15093900</v>
+        <v>17924500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>10.32999992370605</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="B61">
-        <v>10.56999969482422</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="C61">
-        <v>10.1899995803833</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D61">
-        <v>10.5</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E61">
-        <v>10.5</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F61">
-        <v>11171600</v>
+        <v>14915500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>10.43000030517578</v>
+        <v>10.75</v>
       </c>
       <c r="B62">
-        <v>10.64000034332275</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="C62">
-        <v>10.22000026702881</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="D62">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="E62">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F62">
-        <v>11177500</v>
+        <v>23511900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>10.23999977111816</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="B63">
-        <v>10.88000011444092</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="C63">
-        <v>10.10000038146973</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="D63">
-        <v>10.75</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="E63">
-        <v>10.75</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="F63">
-        <v>17396100</v>
+        <v>48931600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>10.72000026702881</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="B64">
-        <v>10.72999954223633</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="C64">
-        <v>10.23999977111816</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D64">
-        <v>10.42000007629395</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="E64">
-        <v>10.42000007629395</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="F64">
-        <v>14972500</v>
+        <v>33221600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>10.38000011444092</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B65">
-        <v>11.09000015258789</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C65">
-        <v>10.31999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D65">
-        <v>10.85999965667725</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E65">
-        <v>10.85999965667725</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F65">
-        <v>17924500</v>
+        <v>21170700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>11.13000011444092</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="B66">
-        <v>11.27999973297119</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="C66">
-        <v>10.69999980926514</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="D66">
-        <v>10.8100004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E66">
-        <v>10.8100004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F66">
-        <v>14915500</v>
+        <v>17104100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>10.75</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="B67">
-        <v>10.77000045776367</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="C67">
-        <v>10.15999984741211</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="D67">
-        <v>10.69999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E67">
-        <v>10.69999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F67">
-        <v>23511900</v>
+        <v>56022300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>10.73999977111816</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="B68">
-        <v>12.56999969482422</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="C68">
-        <v>10.6899995803833</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D68">
-        <v>12.36999988555908</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="E68">
-        <v>12.36999988555908</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="F68">
-        <v>48931600</v>
+        <v>61294100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>12.14000034332275</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="B69">
-        <v>12.71000003814697</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="C69">
-        <v>11.51000022888184</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="D69">
-        <v>12.38000011444092</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="E69">
-        <v>12.38000011444092</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="F69">
-        <v>33221600</v>
+        <v>28670000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>11.98999977111816</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="B70">
-        <v>12.44999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C70">
-        <v>11.39999961853027</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="D70">
-        <v>11.52000045776367</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="E70">
-        <v>11.52000045776367</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F70">
-        <v>21170700</v>
+        <v>16254700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>11.67000007629395</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B71">
-        <v>12.13000011444092</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="C71">
-        <v>11.56999969482422</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D71">
-        <v>11.85999965667725</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E71">
-        <v>11.85999965667725</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F71">
-        <v>17104100</v>
+        <v>42792400</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>12.56999969482422</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B72">
-        <v>13.06999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C72">
-        <v>12.10999965667725</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D72">
-        <v>12.9399995803833</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="E72">
-        <v>12.9399995803833</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="F72">
-        <v>56022300</v>
+        <v>24096900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>13.36999988555908</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B73">
-        <v>13.94999980926514</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="C73">
-        <v>12.97000026702881</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D73">
-        <v>13.02999973297119</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E73">
-        <v>13.02999973297119</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F73">
-        <v>61294100</v>
+        <v>23342600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>12.77999973297119</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="B74">
-        <v>13.30000019073486</v>
+        <v>10.90999984741211</v>
       </c>
       <c r="C74">
-        <v>12.26000022888184</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D74">
-        <v>12.97000026702881</v>
+        <v>10.5</v>
       </c>
       <c r="E74">
-        <v>12.97000026702881</v>
+        <v>10.5</v>
       </c>
       <c r="F74">
-        <v>28670000</v>
+        <v>18239100</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>12.72999954223633</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B75">
-        <v>13.14999961853027</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="C75">
-        <v>12.30000019073486</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D75">
-        <v>12.34000015258789</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E75">
-        <v>12.34000015258789</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F75">
-        <v>16254700</v>
+        <v>15538500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>11.92000007629395</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B76">
-        <v>12.14000034332275</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C76">
-        <v>10.69999980926514</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D76">
-        <v>10.89999961853027</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="E76">
-        <v>10.89999961853027</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="F76">
-        <v>42792400</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>11.19999980926514</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="B77">
-        <v>11.39999961853027</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="C77">
-        <v>10.69999980926514</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D77">
-        <v>10.93000030517578</v>
+        <v>10.25</v>
       </c>
       <c r="E77">
-        <v>10.93000030517578</v>
+        <v>10.25</v>
       </c>
       <c r="F77">
-        <v>24096900</v>
+        <v>20593400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>11.19999980926514</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="B78">
-        <v>11.19999980926514</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="C78">
-        <v>10.22000026702881</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="D78">
-        <v>10.48999977111816</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="E78">
-        <v>10.48999977111816</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="F78">
-        <v>23342600</v>
+        <v>21916200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>10.47000026702881</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="B79">
-        <v>10.90999984741211</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C79">
-        <v>10.23999977111816</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="D79">
-        <v>10.5</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="E79">
-        <v>10.5</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="F79">
-        <v>18239100</v>
+        <v>29217800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>10.52999973297119</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="B80">
-        <v>11.05000019073486</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C80">
-        <v>10.31999969482422</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="D80">
-        <v>10.89999961853027</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="E80">
-        <v>10.89999961853027</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="F80">
-        <v>15538500</v>
+        <v>21379100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>10.43000030517578</v>
+        <v>9.510000228881836</v>
       </c>
       <c r="B81">
-        <v>10.72999954223633</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C81">
-        <v>10.30000019073486</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="D81">
-        <v>10.56999969482422</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E81">
-        <v>10.56999969482422</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F81">
-        <v>12165000</v>
+        <v>25914700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>10.60000038146973</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="B82">
-        <v>10.61999988555908</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="C82">
-        <v>10.02999973297119</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="D82">
-        <v>10.25</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="E82">
-        <v>10.25</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="F82">
-        <v>20593400</v>
+        <v>18864900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>10.1899995803833</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B83">
-        <v>10.51000022888184</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="C83">
-        <v>9.649999618530273</v>
+        <v>9.25</v>
       </c>
       <c r="D83">
-        <v>10.11999988555908</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="E83">
-        <v>10.11999988555908</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="F83">
-        <v>21916200</v>
+        <v>16530900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>10.19999980926514</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="B84">
-        <v>10.26000022888184</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="C84">
-        <v>9.130000114440918</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="D84">
-        <v>9.270000457763672</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="E84">
-        <v>9.270000457763672</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="F84">
-        <v>29217800</v>
+        <v>16712300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>9.260000228881836</v>
+        <v>9.5</v>
       </c>
       <c r="B85">
-        <v>9.600000381469727</v>
+        <v>9.75</v>
       </c>
       <c r="C85">
-        <v>9.100000381469727</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="D85">
-        <v>9.539999961853027</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E85">
-        <v>9.539999961853027</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F85">
-        <v>21379100</v>
+        <v>19085100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>9.510000228881836</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B86">
-        <v>9.550000190734863</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C86">
-        <v>8.689999580383301</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="D86">
-        <v>8.949999809265137</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E86">
-        <v>8.949999809265137</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="F86">
-        <v>25914700</v>
+        <v>20077900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>8.800000190734863</v>
+        <v>8.539999961853027</v>
       </c>
       <c r="B87">
-        <v>9.350000381469727</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C87">
-        <v>8.439999580383301</v>
+        <v>8.079999923706055</v>
       </c>
       <c r="D87">
-        <v>9.149999618530273</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="E87">
-        <v>9.149999618530273</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="F87">
-        <v>18864900</v>
+        <v>20232400</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>9.319999694824219</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="B88">
-        <v>9.640000343322754</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="C88">
-        <v>9.25</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D88">
-        <v>9.439999580383301</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="E88">
-        <v>9.439999580383301</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="F88">
-        <v>16530900</v>
+        <v>16321800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>9.539999961853027</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="B89">
-        <v>9.939999580383301</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="C89">
-        <v>9.229999542236328</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D89">
-        <v>9.609999656677246</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="E89">
-        <v>9.609999656677246</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="F89">
-        <v>16712300</v>
+        <v>22453700</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>9.5</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="B90">
-        <v>9.75</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C90">
-        <v>8.920000076293945</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="D90">
-        <v>8.939999580383301</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="E90">
-        <v>8.939999580383301</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="F90">
-        <v>19085100</v>
+        <v>18551100</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>8.989999771118164</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="B91">
-        <v>9.069999694824219</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="C91">
-        <v>8.510000228881836</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="D91">
-        <v>8.619999885559082</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="E91">
-        <v>8.619999885559082</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F91">
-        <v>20077900</v>
+        <v>27219600</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>8.539999961853027</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="B92">
-        <v>8.579999923706055</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C92">
-        <v>8.079999923706055</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="D92">
-        <v>8.289999961853027</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="E92">
-        <v>8.289999961853027</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="F92">
-        <v>20232400</v>
+        <v>22899900</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>8.020000457763672</v>
+        <v>7.5</v>
       </c>
       <c r="B93">
-        <v>8.439999580383301</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="C93">
-        <v>7.940000057220459</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="D93">
-        <v>8.050000190734863</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="E93">
-        <v>8.050000190734863</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="F93">
-        <v>16321800</v>
+        <v>19972200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>8.029999732971191</v>
+        <v>7.75</v>
       </c>
       <c r="B94">
-        <v>8.229999542236328</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="C94">
-        <v>7.670000076293945</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="D94">
-        <v>8.140000343322754</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="E94">
-        <v>8.140000343322754</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="F94">
-        <v>22453700</v>
+        <v>12366300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>8.189999580383301</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="B95">
-        <v>8.399999618530273</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="C95">
-        <v>7.760000228881836</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D95">
-        <v>7.880000114440918</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="E95">
-        <v>7.880000114440918</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="F95">
-        <v>18551100</v>
+        <v>16615900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>7.679999828338623</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="B96">
-        <v>8.109999656677246</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C96">
-        <v>7.400000095367432</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D96">
-        <v>7.980000019073486</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E96">
-        <v>7.980000019073486</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F96">
-        <v>27219600</v>
+        <v>16313100</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>7.710000038146973</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B97">
-        <v>7.829999923706055</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="C97">
-        <v>7.309999942779541</v>
+        <v>7.25</v>
       </c>
       <c r="D97">
-        <v>7.460000038146973</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E97">
-        <v>7.460000038146973</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F97">
-        <v>22899900</v>
+        <v>18199300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>7.5</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="B98">
-        <v>7.929999828338623</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="C98">
-        <v>7.46999979019165</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D98">
-        <v>7.849999904632568</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="E98">
-        <v>7.849999904632568</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="F98">
-        <v>19972200</v>
+        <v>23466400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>7.75</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B99">
-        <v>7.889999866485596</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C99">
-        <v>7.579999923706055</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>7.739999771118164</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E99">
-        <v>7.739999771118164</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F99">
-        <v>12366300</v>
+        <v>28741300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>7.760000228881836</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B100">
-        <v>7.960000038146973</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="C100">
-        <v>7.53000020980835</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D100">
-        <v>7.840000152587891</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E100">
-        <v>7.840000152587891</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F100">
-        <v>16615900</v>
+        <v>20258500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>7.849999904632568</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="B101">
-        <v>7.849999904632568</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C101">
-        <v>7.53000020980835</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D101">
-        <v>7.610000133514404</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E101">
-        <v>7.610000133514404</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F101">
-        <v>16313100</v>
+        <v>21556900</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>7.550000190734863</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B102">
-        <v>7.679999828338623</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C102">
-        <v>7.25</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D102">
-        <v>7.28000020980835</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E102">
-        <v>7.28000020980835</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F102">
-        <v>18199300</v>
+        <v>24622800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>7.269999980926514</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B103">
-        <v>7.380000114440918</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C103">
-        <v>6.96999979019165</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D103">
-        <v>7.050000190734863</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E103">
-        <v>7.050000190734863</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F103">
-        <v>23466400</v>
+        <v>30015800</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>7.019999980926514</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B104">
-        <v>7.559999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C104">
-        <v>7</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="D104">
-        <v>7.28000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E104">
-        <v>7.28000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F104">
-        <v>28741300</v>
+        <v>27322300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>7.210000038146973</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B105">
-        <v>7.489999771118164</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="C105">
-        <v>7.03000020980835</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D105">
-        <v>7.03000020980835</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E105">
-        <v>7.03000020980835</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F105">
-        <v>20258500</v>
+        <v>27156200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>7.190000057220459</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="B106">
-        <v>7.699999809265137</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="C106">
-        <v>7.079999923706055</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D106">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E106">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F106">
-        <v>21556900</v>
+        <v>107145700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>7.460000038146973</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="B107">
-        <v>7.480000019073486</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C107">
-        <v>6.960000038146973</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D107">
-        <v>7.110000133514404</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E107">
-        <v>7.110000133514404</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F107">
-        <v>24622800</v>
+        <v>33490300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>7.059999942779541</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B108">
-        <v>7.289999961853027</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C108">
-        <v>6.610000133514404</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="D108">
-        <v>6.630000114440918</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E108">
-        <v>6.630000114440918</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F108">
-        <v>30015800</v>
+        <v>23457700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>6.670000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B109">
-        <v>6.840000152587891</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C109">
-        <v>6.360000133514404</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D109">
-        <v>6.440000057220459</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="E109">
-        <v>6.440000057220459</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="F109">
-        <v>27322300</v>
+        <v>16643300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>6.510000228881836</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="B110">
-        <v>6.769999980926514</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C110">
-        <v>6.289999961853027</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D110">
-        <v>6.420000076293945</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="E110">
-        <v>6.420000076293945</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F110">
-        <v>27156200</v>
+        <v>18008500</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>7.159999847412109</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B111">
-        <v>7.840000152587891</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="C111">
-        <v>6.949999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="D111">
-        <v>7.289999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="E111">
-        <v>7.289999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="F111">
-        <v>107145700</v>
+        <v>21597000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>6.960000038146973</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B112">
-        <v>7.559999942779541</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C112">
-        <v>6.800000190734863</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D112">
-        <v>7.380000114440918</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E112">
-        <v>7.380000114440918</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F112">
-        <v>33490300</v>
+        <v>25170900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>7.489999771118164</v>
+        <v>6</v>
       </c>
       <c r="B113">
-        <v>7.699999809265137</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="C113">
-        <v>7.070000171661377</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D113">
-        <v>7.150000095367432</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E113">
-        <v>7.150000095367432</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F113">
-        <v>23457700</v>
+        <v>24224700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>7.199999809265137</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="B114">
-        <v>7.309999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="C114">
-        <v>6.849999904632568</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D114">
-        <v>6.869999885559082</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="E114">
-        <v>6.869999885559082</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="F114">
-        <v>16643300</v>
+        <v>25137900</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>6.769999980926514</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B115">
-        <v>6.949999809265137</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C115">
-        <v>6.630000114440918</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="D115">
-        <v>6.860000133514404</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="E115">
-        <v>6.860000133514404</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="F115">
-        <v>18008500</v>
+        <v>28766400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>6.670000076293945</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B116">
-        <v>6.789999961853027</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C116">
-        <v>6.269999980926514</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D116">
-        <v>6.289999961853027</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E116">
-        <v>6.289999961853027</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F116">
-        <v>21597000</v>
+        <v>15242400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>6.320000171661377</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B117">
-        <v>6.409999847412109</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C117">
-        <v>5.940000057220459</v>
+        <v>5.460000038146973</v>
       </c>
       <c r="D117">
-        <v>5.96999979019165</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="E117">
-        <v>5.96999979019165</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="F117">
-        <v>25170900</v>
+        <v>20766700</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>6</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="B118">
-        <v>6.340000152587891</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C118">
-        <v>5.900000095367432</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D118">
-        <v>5.920000076293945</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="E118">
-        <v>5.920000076293945</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="F118">
-        <v>24224700</v>
+        <v>24067200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>5.829999923706055</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="B119">
-        <v>6.079999923706055</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C119">
-        <v>5.699999809265137</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D119">
-        <v>5.789999961853027</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="E119">
-        <v>5.789999961853027</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="F119">
-        <v>25137900</v>
+        <v>19750600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>5.510000228881836</v>
+        <v>5.5</v>
       </c>
       <c r="B120">
-        <v>5.849999904632568</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C120">
-        <v>5.199999809265137</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D120">
-        <v>5.840000152587891</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="E120">
-        <v>5.840000152587891</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="F120">
-        <v>28766400</v>
+        <v>18665900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>5.659999847412109</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="B121">
-        <v>5.869999885559082</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C121">
-        <v>5.550000190734863</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D121">
-        <v>5.71999979019165</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="E121">
-        <v>5.71999979019165</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="F121">
-        <v>15242400</v>
+        <v>20392700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>5.860000133514404</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B122">
-        <v>5.869999885559082</v>
+        <v>6.25</v>
       </c>
       <c r="C122">
-        <v>5.460000038146973</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D122">
-        <v>5.559999942779541</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="E122">
-        <v>5.559999942779541</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="F122">
-        <v>20766700</v>
+        <v>15233700</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>5.570000171661377</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="B123">
+        <v>5.920000076293945</v>
+      </c>
+      <c r="C123">
         <v>5.630000114440918</v>
       </c>
-      <c r="C123">
-        <v>5.150000095367432</v>
-      </c>
       <c r="D123">
-        <v>5.21999979019165</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="E123">
-        <v>5.21999979019165</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="F123">
-        <v>24067200</v>
+        <v>11710900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>5.239999771118164</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="B124">
-        <v>5.519999980926514</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="C124">
-        <v>5.150000095367432</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D124">
-        <v>5.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E124">
-        <v>5.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F124">
-        <v>19750600</v>
+        <v>14268100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>5.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="B125">
-        <v>6.010000228881836</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="C125">
-        <v>5.46999979019165</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D125">
-        <v>5.960000038146973</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E125">
-        <v>5.960000038146973</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F125">
-        <v>18665900</v>
+        <v>14856100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>6.050000190734863</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B126">
-        <v>6.360000133514404</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="C126">
-        <v>5.840000152587891</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D126">
-        <v>6.21999979019165</v>
+        <v>6.25</v>
       </c>
       <c r="E126">
-        <v>6.21999979019165</v>
+        <v>6.25</v>
       </c>
       <c r="F126">
-        <v>20392700</v>
+        <v>12634800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>6.170000076293945</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B127">
-        <v>6.25</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C127">
-        <v>5.889999866485596</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D127">
-        <v>5.980000019073486</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E127">
-        <v>5.980000019073486</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F127">
-        <v>15233700</v>
+        <v>28831200</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>5.820000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B128">
-        <v>5.920000076293945</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C128">
-        <v>5.630000114440918</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="D128">
-        <v>5.650000095367432</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>5.650000095367432</v>
+        <v>7</v>
       </c>
       <c r="F128">
-        <v>11710900</v>
+        <v>30866200</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>5.670000076293945</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="B129">
-        <v>6.019999980926514</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="C129">
-        <v>5.630000114440918</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="D129">
-        <v>5.949999809265137</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="E129">
-        <v>5.949999809265137</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="F129">
-        <v>14268100</v>
+        <v>31495200</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>14.27999973297119</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="B2">
-        <v>14.32999992370605</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C2">
-        <v>13.92000007629395</v>
+        <v>12.61999988555908</v>
       </c>
       <c r="D2">
-        <v>14.10000038146973</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="E2">
-        <v>14.10000038146973</v>
+        <v>12.68000030517578</v>
       </c>
       <c r="F2">
-        <v>9048200</v>
+        <v>18242500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>14.05000019073486</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="B3">
-        <v>14.05000019073486</v>
+        <v>13.03999996185303</v>
       </c>
       <c r="C3">
-        <v>13.23999977111816</v>
+        <v>12.55000019073486</v>
       </c>
       <c r="D3">
-        <v>13.30000019073486</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="E3">
-        <v>13.30000019073486</v>
+        <v>12.82999992370605</v>
       </c>
       <c r="F3">
-        <v>16550300</v>
+        <v>12787700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>13.22999954223633</v>
+        <v>12.93000030517578</v>
       </c>
       <c r="B4">
-        <v>13.52999973297119</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="C4">
-        <v>13.02000045776367</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="D4">
-        <v>13.11999988555908</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="E4">
-        <v>13.11999988555908</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="F4">
-        <v>12986900</v>
+        <v>12749700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>12.96000003814697</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="B5">
-        <v>13.35999965667725</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="C5">
-        <v>12.77999973297119</v>
+        <v>13.25</v>
       </c>
       <c r="D5">
-        <v>13.11999988555908</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="E5">
-        <v>13.11999988555908</v>
+        <v>13.8100004196167</v>
       </c>
       <c r="F5">
-        <v>16146400</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>13.90999984741211</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="B6">
-        <v>14.0600004196167</v>
+        <v>13.81999969482422</v>
       </c>
       <c r="C6">
-        <v>13.17000007629395</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="D6">
-        <v>13.26000022888184</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="E6">
-        <v>13.26000022888184</v>
+        <v>13.53999996185303</v>
       </c>
       <c r="F6">
-        <v>31537500</v>
+        <v>11390800</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>13.03999996185303</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B7">
-        <v>13.35999965667725</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="C7">
-        <v>12.61999988555908</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="D7">
-        <v>12.68000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="E7">
-        <v>12.68000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="F7">
-        <v>18242500</v>
+        <v>16502500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>12.80000019073486</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B8">
-        <v>13.03999996185303</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="C8">
-        <v>12.55000019073486</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="D8">
-        <v>12.82999992370605</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="E8">
-        <v>12.82999992370605</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="F8">
-        <v>12787700</v>
+        <v>10619900</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>12.93000030517578</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="B9">
-        <v>13.42000007629395</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="C9">
-        <v>12.80000019073486</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="D9">
-        <v>13.36999988555908</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E9">
-        <v>13.36999988555908</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F9">
-        <v>12749700</v>
+        <v>12907800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>13.4399995803833</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="B10">
-        <v>13.8100004196167</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="C10">
-        <v>13.25</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="D10">
-        <v>13.8100004196167</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="E10">
-        <v>13.8100004196167</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="F10">
-        <v>12649000</v>
+        <v>20161000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>13.67000007629395</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="B11">
-        <v>13.81999969482422</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C11">
-        <v>13.36999988555908</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="D11">
-        <v>13.53999996185303</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="E11">
-        <v>13.53999996185303</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="F11">
-        <v>11390800</v>
+        <v>13943600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
+        <v>13.65999984741211</v>
+      </c>
+      <c r="B12">
+        <v>14.27000045776367</v>
+      </c>
+      <c r="C12">
         <v>13.44999980926514</v>
       </c>
-      <c r="B12">
-        <v>13.77000045776367</v>
-      </c>
-      <c r="C12">
-        <v>13.0600004196167</v>
-      </c>
       <c r="D12">
-        <v>13.25</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="E12">
-        <v>13.25</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="F12">
-        <v>16502500</v>
+        <v>17892200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>13.22000026702881</v>
+        <v>13.75</v>
       </c>
       <c r="B13">
-        <v>13.64000034332275</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="C13">
-        <v>13.11999988555908</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="D13">
-        <v>13.42000007629395</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="E13">
-        <v>13.42000007629395</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F13">
-        <v>10619900</v>
+        <v>13665700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>13.51000022888184</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B14">
-        <v>13.51000022888184</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="C14">
-        <v>12.89999961853027</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D14">
-        <v>13.13000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E14">
-        <v>13.13000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F14">
-        <v>12907800</v>
+        <v>12900500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>13.09000015258789</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B15">
-        <v>14.1899995803833</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="C15">
-        <v>12.96000003814697</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="D15">
-        <v>13.6899995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="E15">
-        <v>13.6899995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="F15">
-        <v>20161000</v>
+        <v>14441300</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>13.73999977111816</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="B16">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C16">
-        <v>13.51000022888184</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D16">
-        <v>13.56999969482422</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="E16">
-        <v>13.56999969482422</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="F16">
-        <v>13943600</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>13.65999984741211</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B17">
-        <v>14.27000045776367</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="C17">
-        <v>13.44999980926514</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="D17">
-        <v>13.85000038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="E17">
-        <v>13.85000038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F17">
-        <v>17892200</v>
+        <v>18407600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>13.75</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="B18">
-        <v>14.15999984741211</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="C18">
-        <v>13.4399995803833</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="D18">
-        <v>13.59000015258789</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E18">
-        <v>13.59000015258789</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F18">
-        <v>13665700</v>
+        <v>16030700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>13.60000038146973</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="B19">
-        <v>13.67000007629395</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="C19">
-        <v>13.17000007629395</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="D19">
-        <v>13.30000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="E19">
-        <v>13.30000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F19">
-        <v>12900500</v>
+        <v>16072900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>13.22000026702881</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B20">
-        <v>13.32999992370605</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C20">
-        <v>12.77000045776367</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D20">
-        <v>12.80000019073486</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="E20">
-        <v>12.80000019073486</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="F20">
-        <v>14441300</v>
+        <v>12982400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>12.9399995803833</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>13.14999961853027</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C21">
-        <v>12.76000022888184</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="D21">
-        <v>12.85999965667725</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E21">
-        <v>12.85999965667725</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F21">
-        <v>12649000</v>
+        <v>9316000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>12.96000003814697</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>12.96000003814697</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C22">
-        <v>12.39999961853027</v>
+        <v>11.75</v>
       </c>
       <c r="D22">
-        <v>12.40999984741211</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="E22">
-        <v>12.40999984741211</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="F22">
-        <v>18407600</v>
+        <v>13644900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>12.4399995803833</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B23">
-        <v>12.47000026702881</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C23">
-        <v>11.92000007629395</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D23">
-        <v>12.22999954223633</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E23">
-        <v>12.22999954223633</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F23">
-        <v>16030700</v>
+        <v>25536800</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>12.26000022888184</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="B24">
-        <v>12.3100004196167</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C24">
-        <v>11.72000026702881</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="D24">
-        <v>11.73999977111816</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="E24">
-        <v>11.73999977111816</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F24">
-        <v>16072900</v>
+        <v>19702500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>11.76000022888184</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="B25">
-        <v>12.1899995803833</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C25">
-        <v>11.68000030517578</v>
+        <v>11.25</v>
       </c>
       <c r="D25">
-        <v>12.02999973297119</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E25">
-        <v>12.02999973297119</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F25">
-        <v>12982400</v>
+        <v>16297000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>12</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="B26">
-        <v>12.23999977111816</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C26">
-        <v>11.89999961853027</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="D26">
-        <v>12.01000022888184</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E26">
-        <v>12.01000022888184</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="F26">
-        <v>9316000</v>
+        <v>21476600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>12</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="B27">
-        <v>12.19999980926514</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="C27">
-        <v>11.75</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="D27">
-        <v>12.17000007629395</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E27">
-        <v>12.17000007629395</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F27">
-        <v>13644900</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>11.76000022888184</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B28">
-        <v>11.77000045776367</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="C28">
-        <v>11.02000045776367</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="D28">
-        <v>11.22999954223633</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="E28">
-        <v>11.22999954223633</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F28">
-        <v>25536800</v>
+        <v>14941700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>11.22999954223633</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="B29">
-        <v>11.53999996185303</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C29">
-        <v>11.02999973297119</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D29">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E29">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F29">
-        <v>19702500</v>
+        <v>17537500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>11.27999973297119</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="B30">
-        <v>11.88000011444092</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C30">
-        <v>11.25</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="D30">
-        <v>11.63000011444092</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E30">
-        <v>11.63000011444092</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F30">
-        <v>16297000</v>
+        <v>17441800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>12.19999980926514</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="B31">
-        <v>12.39999961853027</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C31">
-        <v>11.86999988555908</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="D31">
-        <v>12.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="E31">
-        <v>12.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="F31">
-        <v>21476600</v>
+        <v>20291000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>11.85000038146973</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="B32">
-        <v>11.97999954223633</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="C32">
-        <v>11.64000034332275</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="D32">
-        <v>11.67000007629395</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="E32">
-        <v>11.67000007629395</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F32">
-        <v>13173400</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>11.69999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="B33">
-        <v>12.27000045776367</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="C33">
-        <v>11.64999961853027</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D33">
-        <v>12.22000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E33">
-        <v>12.22000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="F33">
-        <v>14941700</v>
+        <v>14980700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>12.03999996185303</v>
+        <v>10.75</v>
       </c>
       <c r="B34">
-        <v>12.1899995803833</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="C34">
-        <v>11.60000038146973</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D34">
-        <v>11.63000011444092</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E34">
-        <v>11.63000011444092</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F34">
-        <v>17537500</v>
+        <v>18162500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>11.72999954223633</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="B35">
-        <v>11.77000045776367</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C35">
-        <v>11.09000015258789</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D35">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="E35">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="F35">
-        <v>17441800</v>
+        <v>18595400</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>11.17000007629395</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="B36">
-        <v>11.52999973297119</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="C36">
-        <v>10.94999980926514</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D36">
-        <v>11.28999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E36">
-        <v>11.28999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F36">
-        <v>20291000</v>
+        <v>34914000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>11.28999996185303</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="B37">
-        <v>11.36999988555908</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C37">
-        <v>10.84000015258789</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D37">
-        <v>11.14999961853027</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E37">
-        <v>11.14999961853027</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F37">
-        <v>18180300</v>
+        <v>20199900</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>11.02000045776367</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="B38">
-        <v>11.10999965667725</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="C38">
-        <v>10.68000030517578</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="D38">
-        <v>10.73999977111816</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="E38">
-        <v>10.73999977111816</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="F38">
-        <v>14980700</v>
+        <v>12642500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>10.75</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="B39">
-        <v>11.34000015258789</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="C39">
-        <v>10.68000030517578</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="D39">
-        <v>11.10000038146973</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="E39">
-        <v>11.10000038146973</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F39">
-        <v>18162500</v>
+        <v>13749900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>10.89999961853027</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="B40">
-        <v>10.9399995803833</v>
+        <v>10.53999996185303</v>
       </c>
       <c r="C40">
-        <v>10.68000030517578</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D40">
-        <v>10.78999996185303</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E40">
-        <v>10.78999996185303</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="F40">
-        <v>18595400</v>
+        <v>10136900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>10.81999969482422</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B41">
-        <v>11.42000007629395</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="C41">
         <v>10.36999988555908</v>
       </c>
       <c r="D41">
-        <v>11.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E41">
-        <v>11.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="F41">
-        <v>34914000</v>
+        <v>14890300</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>10.85000038146973</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="B42">
-        <v>11.07999992370605</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="C42">
-        <v>10.46000003814697</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D42">
-        <v>10.48999977111816</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E42">
-        <v>10.48999977111816</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F42">
-        <v>20199900</v>
+        <v>13082200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>10.36999988555908</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="B43">
-        <v>10.60999965667725</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C43">
-        <v>10.14999961853027</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="D43">
-        <v>10.15999984741211</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="E43">
-        <v>10.15999984741211</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="F43">
-        <v>12642500</v>
+        <v>13975100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>10.15999984741211</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B44">
-        <v>10.5600004196167</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="C44">
-        <v>10.11999988555908</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D44">
-        <v>10.27999973297119</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E44">
-        <v>10.27999973297119</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="F44">
-        <v>13749900</v>
+        <v>68798000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>10.34000015258789</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="B45">
-        <v>10.53999996185303</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C45">
-        <v>10.19999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D45">
-        <v>10.28999996185303</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="E45">
-        <v>10.28999996185303</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="F45">
-        <v>10136900</v>
+        <v>44082000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>10.42000007629395</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="B46">
-        <v>10.8100004196167</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="C46">
-        <v>10.36999988555908</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D46">
-        <v>10.39000034332275</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="E46">
-        <v>10.39000034332275</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F46">
-        <v>14890300</v>
+        <v>30666900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>10.46000003814697</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="B47">
-        <v>10.52999973297119</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C47">
-        <v>10.1899995803833</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="D47">
-        <v>10.23999977111816</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E47">
-        <v>10.23999977111816</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F47">
-        <v>13082200</v>
+        <v>18841500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>10.21000003814697</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="B48">
-        <v>10.23999977111816</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="C48">
-        <v>9.979999542236328</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="D48">
-        <v>10.06999969482422</v>
+        <v>11</v>
       </c>
       <c r="E48">
-        <v>10.06999969482422</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>13975100</v>
+        <v>13868500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>10.17000007629395</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="B49">
-        <v>11.82999992370605</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="C49">
-        <v>10.02999973297119</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="D49">
-        <v>11.65999984741211</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E49">
-        <v>11.65999984741211</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="F49">
-        <v>68798000</v>
+        <v>15137800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>11.55000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B50">
-        <v>11.80000019073486</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="C50">
-        <v>11.02000045776367</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="D50">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E50">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F50">
-        <v>44082000</v>
+        <v>15093900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>11.46000003814697</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B51">
-        <v>12.15999984741211</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="C51">
-        <v>11.42000007629395</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D51">
-        <v>11.5600004196167</v>
+        <v>10.5</v>
       </c>
       <c r="E51">
-        <v>11.5600004196167</v>
+        <v>10.5</v>
       </c>
       <c r="F51">
-        <v>30666900</v>
+        <v>11171600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>11.52999973297119</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B52">
-        <v>11.52999973297119</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C52">
-        <v>10.9399995803833</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D52">
-        <v>11.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E52">
-        <v>11.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F52">
-        <v>18841500</v>
+        <v>11177500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>11.05000019073486</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="B53">
-        <v>11.28999996185303</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="C53">
-        <v>10.88000011444092</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="F53">
-        <v>13868500</v>
+        <v>17396100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>11.06999969482422</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="B54">
-        <v>11.14000034332275</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C54">
-        <v>10.57999992370605</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D54">
-        <v>10.71000003814697</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E54">
-        <v>10.71000003814697</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F54">
-        <v>15137800</v>
+        <v>14972500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>10.69999980926514</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="B55">
-        <v>10.82999992370605</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C55">
-        <v>10.28999996185303</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D55">
-        <v>10.30000019073486</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="E55">
-        <v>10.30000019073486</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="F55">
-        <v>15093900</v>
+        <v>17924500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>10.32999992370605</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="B56">
-        <v>10.56999969482422</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="C56">
-        <v>10.1899995803833</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D56">
-        <v>10.5</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E56">
-        <v>10.5</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F56">
-        <v>11171600</v>
+        <v>14915500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>10.43000030517578</v>
+        <v>10.75</v>
       </c>
       <c r="B57">
-        <v>10.64000034332275</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="C57">
-        <v>10.22000026702881</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="D57">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="E57">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F57">
-        <v>11177500</v>
+        <v>23511900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>10.23999977111816</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="B58">
-        <v>10.88000011444092</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="C58">
-        <v>10.10000038146973</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="D58">
-        <v>10.75</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="E58">
-        <v>10.75</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="F58">
-        <v>17396100</v>
+        <v>48931600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>10.72000026702881</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="B59">
-        <v>10.72999954223633</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="C59">
-        <v>10.23999977111816</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D59">
-        <v>10.42000007629395</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="E59">
-        <v>10.42000007629395</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="F59">
-        <v>14972500</v>
+        <v>33221600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>10.38000011444092</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B60">
-        <v>11.09000015258789</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C60">
-        <v>10.31999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D60">
-        <v>10.85999965667725</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E60">
-        <v>10.85999965667725</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F60">
-        <v>17924500</v>
+        <v>21170700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>11.13000011444092</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="B61">
-        <v>11.27999973297119</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="C61">
-        <v>10.69999980926514</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="D61">
-        <v>10.8100004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E61">
-        <v>10.8100004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F61">
-        <v>14915500</v>
+        <v>17104100</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>10.75</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="B62">
-        <v>10.77000045776367</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="C62">
-        <v>10.15999984741211</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="D62">
-        <v>10.69999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E62">
-        <v>10.69999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F62">
-        <v>23511900</v>
+        <v>56022300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>10.73999977111816</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="B63">
-        <v>12.56999969482422</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="C63">
-        <v>10.6899995803833</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D63">
-        <v>12.36999988555908</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="E63">
-        <v>12.36999988555908</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="F63">
-        <v>48931600</v>
+        <v>61294100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>12.14000034332275</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="B64">
-        <v>12.71000003814697</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="C64">
-        <v>11.51000022888184</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="D64">
-        <v>12.38000011444092</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="E64">
-        <v>12.38000011444092</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="F64">
-        <v>33221600</v>
+        <v>28670000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>11.98999977111816</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="B65">
-        <v>12.44999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C65">
-        <v>11.39999961853027</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="D65">
-        <v>11.52000045776367</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="E65">
-        <v>11.52000045776367</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F65">
-        <v>21170700</v>
+        <v>16254700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>11.67000007629395</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B66">
-        <v>12.13000011444092</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="C66">
-        <v>11.56999969482422</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D66">
-        <v>11.85999965667725</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E66">
-        <v>11.85999965667725</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F66">
-        <v>17104100</v>
+        <v>42792400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>12.56999969482422</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B67">
-        <v>13.06999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C67">
-        <v>12.10999965667725</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D67">
-        <v>12.9399995803833</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="E67">
-        <v>12.9399995803833</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="F67">
-        <v>56022300</v>
+        <v>24096900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>13.36999988555908</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B68">
-        <v>13.94999980926514</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="C68">
-        <v>12.97000026702881</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D68">
-        <v>13.02999973297119</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E68">
-        <v>13.02999973297119</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F68">
-        <v>61294100</v>
+        <v>23342600</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>12.77999973297119</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="B69">
-        <v>13.30000019073486</v>
+        <v>10.90999984741211</v>
       </c>
       <c r="C69">
-        <v>12.26000022888184</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D69">
-        <v>12.97000026702881</v>
+        <v>10.5</v>
       </c>
       <c r="E69">
-        <v>12.97000026702881</v>
+        <v>10.5</v>
       </c>
       <c r="F69">
-        <v>28670000</v>
+        <v>18239100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>12.72999954223633</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B70">
-        <v>13.14999961853027</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="C70">
-        <v>12.30000019073486</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D70">
-        <v>12.34000015258789</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E70">
-        <v>12.34000015258789</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F70">
-        <v>16254700</v>
+        <v>15538500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>11.92000007629395</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B71">
-        <v>12.14000034332275</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C71">
-        <v>10.69999980926514</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D71">
-        <v>10.89999961853027</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="E71">
-        <v>10.89999961853027</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="F71">
-        <v>42792400</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>11.19999980926514</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="B72">
-        <v>11.39999961853027</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="C72">
-        <v>10.69999980926514</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D72">
-        <v>10.93000030517578</v>
+        <v>10.25</v>
       </c>
       <c r="E72">
-        <v>10.93000030517578</v>
+        <v>10.25</v>
       </c>
       <c r="F72">
-        <v>24096900</v>
+        <v>20593400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>11.19999980926514</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="B73">
-        <v>11.19999980926514</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="C73">
-        <v>10.22000026702881</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="D73">
-        <v>10.48999977111816</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="E73">
-        <v>10.48999977111816</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="F73">
-        <v>23342600</v>
+        <v>21916200</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>10.47000026702881</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="B74">
-        <v>10.90999984741211</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C74">
-        <v>10.23999977111816</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="D74">
-        <v>10.5</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="E74">
-        <v>10.5</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="F74">
-        <v>18239100</v>
+        <v>29217800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>10.52999973297119</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="B75">
-        <v>11.05000019073486</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C75">
-        <v>10.31999969482422</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="D75">
-        <v>10.89999961853027</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="E75">
-        <v>10.89999961853027</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="F75">
-        <v>15538500</v>
+        <v>21379100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>10.43000030517578</v>
+        <v>9.510000228881836</v>
       </c>
       <c r="B76">
-        <v>10.72999954223633</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C76">
-        <v>10.30000019073486</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="D76">
-        <v>10.56999969482422</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E76">
-        <v>10.56999969482422</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F76">
-        <v>12165000</v>
+        <v>25914700</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>10.60000038146973</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="B77">
-        <v>10.61999988555908</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="C77">
-        <v>10.02999973297119</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="D77">
-        <v>10.25</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="E77">
-        <v>10.25</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="F77">
-        <v>20593400</v>
+        <v>18864900</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>10.1899995803833</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B78">
-        <v>10.51000022888184</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="C78">
-        <v>9.649999618530273</v>
+        <v>9.25</v>
       </c>
       <c r="D78">
-        <v>10.11999988555908</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="E78">
-        <v>10.11999988555908</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="F78">
-        <v>21916200</v>
+        <v>16530900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>10.19999980926514</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="B79">
-        <v>10.26000022888184</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="C79">
-        <v>9.130000114440918</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="D79">
-        <v>9.270000457763672</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="E79">
-        <v>9.270000457763672</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="F79">
-        <v>29217800</v>
+        <v>16712300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>9.260000228881836</v>
+        <v>9.5</v>
       </c>
       <c r="B80">
-        <v>9.600000381469727</v>
+        <v>9.75</v>
       </c>
       <c r="C80">
-        <v>9.100000381469727</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="D80">
-        <v>9.539999961853027</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E80">
-        <v>9.539999961853027</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F80">
-        <v>21379100</v>
+        <v>19085100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>9.510000228881836</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B81">
-        <v>9.550000190734863</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C81">
-        <v>8.689999580383301</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="D81">
-        <v>8.949999809265137</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E81">
-        <v>8.949999809265137</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="F81">
-        <v>25914700</v>
+        <v>20077900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>8.800000190734863</v>
+        <v>8.539999961853027</v>
       </c>
       <c r="B82">
-        <v>9.350000381469727</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C82">
-        <v>8.439999580383301</v>
+        <v>8.079999923706055</v>
       </c>
       <c r="D82">
-        <v>9.149999618530273</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="E82">
-        <v>9.149999618530273</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="F82">
-        <v>18864900</v>
+        <v>20232400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>9.319999694824219</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="B83">
-        <v>9.640000343322754</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="C83">
-        <v>9.25</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D83">
-        <v>9.439999580383301</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="E83">
-        <v>9.439999580383301</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="F83">
-        <v>16530900</v>
+        <v>16321800</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>9.539999961853027</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="B84">
-        <v>9.939999580383301</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="C84">
-        <v>9.229999542236328</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D84">
-        <v>9.609999656677246</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="E84">
-        <v>9.609999656677246</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="F84">
-        <v>16712300</v>
+        <v>22453700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>9.5</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="B85">
-        <v>9.75</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C85">
-        <v>8.920000076293945</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="D85">
-        <v>8.939999580383301</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="E85">
-        <v>8.939999580383301</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="F85">
-        <v>19085100</v>
+        <v>18551100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>8.989999771118164</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="B86">
-        <v>9.069999694824219</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="C86">
-        <v>8.510000228881836</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="D86">
-        <v>8.619999885559082</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="E86">
-        <v>8.619999885559082</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F86">
-        <v>20077900</v>
+        <v>27219600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>8.539999961853027</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="B87">
-        <v>8.579999923706055</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C87">
-        <v>8.079999923706055</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="D87">
-        <v>8.289999961853027</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="E87">
-        <v>8.289999961853027</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="F87">
-        <v>20232400</v>
+        <v>22899900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>8.020000457763672</v>
+        <v>7.5</v>
       </c>
       <c r="B88">
-        <v>8.439999580383301</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="C88">
-        <v>7.940000057220459</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="D88">
-        <v>8.050000190734863</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="E88">
-        <v>8.050000190734863</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="F88">
-        <v>16321800</v>
+        <v>19972200</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>8.029999732971191</v>
+        <v>7.75</v>
       </c>
       <c r="B89">
-        <v>8.229999542236328</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="C89">
-        <v>7.670000076293945</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="D89">
-        <v>8.140000343322754</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="E89">
-        <v>8.140000343322754</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="F89">
-        <v>22453700</v>
+        <v>12366300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>8.189999580383301</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="B90">
-        <v>8.399999618530273</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="C90">
-        <v>7.760000228881836</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D90">
-        <v>7.880000114440918</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="E90">
-        <v>7.880000114440918</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="F90">
-        <v>18551100</v>
+        <v>16615900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>7.679999828338623</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="B91">
-        <v>8.109999656677246</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C91">
-        <v>7.400000095367432</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D91">
-        <v>7.980000019073486</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E91">
-        <v>7.980000019073486</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F91">
-        <v>27219600</v>
+        <v>16313100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>7.710000038146973</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B92">
-        <v>7.829999923706055</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="C92">
-        <v>7.309999942779541</v>
+        <v>7.25</v>
       </c>
       <c r="D92">
-        <v>7.460000038146973</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E92">
-        <v>7.460000038146973</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F92">
-        <v>22899900</v>
+        <v>18199300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>7.5</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="B93">
-        <v>7.929999828338623</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="C93">
-        <v>7.46999979019165</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D93">
-        <v>7.849999904632568</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="E93">
-        <v>7.849999904632568</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="F93">
-        <v>19972200</v>
+        <v>23466400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>7.75</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B94">
-        <v>7.889999866485596</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C94">
-        <v>7.579999923706055</v>
+        <v>7</v>
       </c>
       <c r="D94">
-        <v>7.739999771118164</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E94">
-        <v>7.739999771118164</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F94">
-        <v>12366300</v>
+        <v>28741300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>7.760000228881836</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B95">
-        <v>7.960000038146973</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="C95">
-        <v>7.53000020980835</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D95">
-        <v>7.840000152587891</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E95">
-        <v>7.840000152587891</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F95">
-        <v>16615900</v>
+        <v>20258500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>7.849999904632568</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="B96">
-        <v>7.849999904632568</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C96">
-        <v>7.53000020980835</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D96">
-        <v>7.610000133514404</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E96">
-        <v>7.610000133514404</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F96">
-        <v>16313100</v>
+        <v>21556900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>7.550000190734863</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B97">
-        <v>7.679999828338623</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C97">
-        <v>7.25</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D97">
-        <v>7.28000020980835</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E97">
-        <v>7.28000020980835</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F97">
-        <v>18199300</v>
+        <v>24622800</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>7.269999980926514</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B98">
-        <v>7.380000114440918</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C98">
-        <v>6.96999979019165</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D98">
-        <v>7.050000190734863</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E98">
-        <v>7.050000190734863</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F98">
-        <v>23466400</v>
+        <v>30015800</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>7.019999980926514</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B99">
-        <v>7.559999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="D99">
-        <v>7.28000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E99">
-        <v>7.28000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F99">
-        <v>28741300</v>
+        <v>27322300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>7.210000038146973</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B100">
-        <v>7.489999771118164</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="C100">
-        <v>7.03000020980835</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D100">
-        <v>7.03000020980835</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E100">
-        <v>7.03000020980835</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F100">
-        <v>20258500</v>
+        <v>27156200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>7.190000057220459</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="B101">
-        <v>7.699999809265137</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="C101">
-        <v>7.079999923706055</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D101">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E101">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F101">
-        <v>21556900</v>
+        <v>107145700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>7.460000038146973</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="B102">
-        <v>7.480000019073486</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C102">
-        <v>6.960000038146973</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D102">
-        <v>7.110000133514404</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E102">
-        <v>7.110000133514404</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F102">
-        <v>24622800</v>
+        <v>33490300</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>7.059999942779541</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B103">
-        <v>7.289999961853027</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C103">
-        <v>6.610000133514404</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="D103">
-        <v>6.630000114440918</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E103">
-        <v>6.630000114440918</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F103">
-        <v>30015800</v>
+        <v>23457700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>6.670000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B104">
-        <v>6.840000152587891</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C104">
-        <v>6.360000133514404</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D104">
-        <v>6.440000057220459</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="E104">
-        <v>6.440000057220459</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="F104">
-        <v>27322300</v>
+        <v>16643300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>6.510000228881836</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="B105">
-        <v>6.769999980926514</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C105">
-        <v>6.289999961853027</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D105">
-        <v>6.420000076293945</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="E105">
-        <v>6.420000076293945</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F105">
-        <v>27156200</v>
+        <v>18008500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>7.159999847412109</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B106">
-        <v>7.840000152587891</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="C106">
-        <v>6.949999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="D106">
-        <v>7.289999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="E106">
-        <v>7.289999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="F106">
-        <v>107145700</v>
+        <v>21597000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>6.960000038146973</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B107">
-        <v>7.559999942779541</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C107">
-        <v>6.800000190734863</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D107">
-        <v>7.380000114440918</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E107">
-        <v>7.380000114440918</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F107">
-        <v>33490300</v>
+        <v>25170900</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>7.489999771118164</v>
+        <v>6</v>
       </c>
       <c r="B108">
-        <v>7.699999809265137</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="C108">
-        <v>7.070000171661377</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D108">
-        <v>7.150000095367432</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E108">
-        <v>7.150000095367432</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F108">
-        <v>23457700</v>
+        <v>24224700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>7.199999809265137</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="B109">
-        <v>7.309999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="C109">
-        <v>6.849999904632568</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D109">
-        <v>6.869999885559082</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="E109">
-        <v>6.869999885559082</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="F109">
-        <v>16643300</v>
+        <v>25137900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>6.769999980926514</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B110">
-        <v>6.949999809265137</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C110">
-        <v>6.630000114440918</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="D110">
-        <v>6.860000133514404</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="E110">
-        <v>6.860000133514404</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="F110">
-        <v>18008500</v>
+        <v>28766400</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>6.670000076293945</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B111">
-        <v>6.789999961853027</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C111">
-        <v>6.269999980926514</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D111">
-        <v>6.289999961853027</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E111">
-        <v>6.289999961853027</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F111">
-        <v>21597000</v>
+        <v>15242400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>6.320000171661377</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B112">
-        <v>6.409999847412109</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C112">
-        <v>5.940000057220459</v>
+        <v>5.460000038146973</v>
       </c>
       <c r="D112">
-        <v>5.96999979019165</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="E112">
-        <v>5.96999979019165</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="F112">
-        <v>25170900</v>
+        <v>20766700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>6</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="B113">
-        <v>6.340000152587891</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C113">
-        <v>5.900000095367432</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D113">
-        <v>5.920000076293945</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="E113">
-        <v>5.920000076293945</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="F113">
-        <v>24224700</v>
+        <v>24067200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>5.829999923706055</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="B114">
-        <v>6.079999923706055</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C114">
-        <v>5.699999809265137</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D114">
-        <v>5.789999961853027</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="E114">
-        <v>5.789999961853027</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="F114">
-        <v>25137900</v>
+        <v>19750600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>5.510000228881836</v>
+        <v>5.5</v>
       </c>
       <c r="B115">
-        <v>5.849999904632568</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C115">
-        <v>5.199999809265137</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D115">
-        <v>5.840000152587891</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="E115">
-        <v>5.840000152587891</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="F115">
-        <v>28766400</v>
+        <v>18665900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>5.659999847412109</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="B116">
-        <v>5.869999885559082</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C116">
-        <v>5.550000190734863</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D116">
-        <v>5.71999979019165</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="E116">
-        <v>5.71999979019165</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="F116">
-        <v>15242400</v>
+        <v>20392700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>5.860000133514404</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B117">
-        <v>5.869999885559082</v>
+        <v>6.25</v>
       </c>
       <c r="C117">
-        <v>5.460000038146973</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D117">
-        <v>5.559999942779541</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="E117">
-        <v>5.559999942779541</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="F117">
-        <v>20766700</v>
+        <v>15233700</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>5.570000171661377</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="B118">
+        <v>5.920000076293945</v>
+      </c>
+      <c r="C118">
         <v>5.630000114440918</v>
       </c>
-      <c r="C118">
-        <v>5.150000095367432</v>
-      </c>
       <c r="D118">
-        <v>5.21999979019165</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="E118">
-        <v>5.21999979019165</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="F118">
-        <v>24067200</v>
+        <v>11710900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>5.239999771118164</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="B119">
-        <v>5.519999980926514</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="C119">
-        <v>5.150000095367432</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D119">
-        <v>5.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E119">
-        <v>5.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F119">
-        <v>19750600</v>
+        <v>14268100</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>5.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="B120">
-        <v>6.010000228881836</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="C120">
-        <v>5.46999979019165</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D120">
-        <v>5.960000038146973</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E120">
-        <v>5.960000038146973</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F120">
-        <v>18665900</v>
+        <v>14856100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>6.050000190734863</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B121">
-        <v>6.360000133514404</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="C121">
-        <v>5.840000152587891</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D121">
-        <v>6.21999979019165</v>
+        <v>6.25</v>
       </c>
       <c r="E121">
-        <v>6.21999979019165</v>
+        <v>6.25</v>
       </c>
       <c r="F121">
-        <v>20392700</v>
+        <v>12634800</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>6.170000076293945</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B122">
-        <v>6.25</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C122">
-        <v>5.889999866485596</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D122">
-        <v>5.980000019073486</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E122">
-        <v>5.980000019073486</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F122">
-        <v>15233700</v>
+        <v>28831200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>5.820000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B123">
-        <v>5.920000076293945</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C123">
-        <v>5.630000114440918</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="D123">
-        <v>5.650000095367432</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>5.650000095367432</v>
+        <v>7</v>
       </c>
       <c r="F123">
-        <v>11710900</v>
+        <v>30866200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>5.670000076293945</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="B124">
-        <v>6.019999980926514</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="C124">
-        <v>5.630000114440918</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="D124">
-        <v>5.949999809265137</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="E124">
-        <v>5.949999809265137</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="F124">
-        <v>14268100</v>
+        <v>31495200</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>6.03000020980835</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B125">
-        <v>6.230000019073486</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C125">
-        <v>5.909999847412109</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="D125">
-        <v>6.03000020980835</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="E125">
-        <v>6.03000020980835</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="F125">
-        <v>14856100</v>
+        <v>20311900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>6.010000228881836</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="B126">
-        <v>6.260000228881836</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="C126">
-        <v>5.920000076293945</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D126">
-        <v>6.25</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E126">
-        <v>6.25</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F126">
-        <v>12634800</v>
+        <v>14703300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>6.420000076293945</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B127">
-        <v>6.96999979019165</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C127">
-        <v>6.349999904632568</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D127">
-        <v>6.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E127">
-        <v>6.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F127">
-        <v>28831200</v>
+        <v>17451600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>6.699999809265137</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B128">
-        <v>7.389999866485596</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="C128">
-        <v>6.539999961853027</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="D128">
-        <v>7</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E128">
-        <v>7</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F128">
-        <v>30866200</v>
+        <v>15178900</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>6.920000076293945</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B129">
-        <v>7.360000133514404</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C129">
-        <v>6.840000152587891</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D129">
-        <v>7.119999885559082</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E129">
-        <v>7.119999885559082</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F129">
-        <v>31495200</v>
+        <v>14504700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2542 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>13.03999996185303</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="B2">
-        <v>13.35999965667725</v>
+        <v>13.77000045776367</v>
       </c>
       <c r="C2">
-        <v>12.61999988555908</v>
+        <v>13.0600004196167</v>
       </c>
       <c r="D2">
-        <v>12.68000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="E2">
-        <v>12.68000030517578</v>
+        <v>13.25</v>
       </c>
       <c r="F2">
-        <v>18242500</v>
+        <v>16502500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>12.80000019073486</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B3">
-        <v>13.03999996185303</v>
+        <v>13.64000034332275</v>
       </c>
       <c r="C3">
-        <v>12.55000019073486</v>
+        <v>13.11999988555908</v>
       </c>
       <c r="D3">
-        <v>12.82999992370605</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="E3">
-        <v>12.82999992370605</v>
+        <v>13.42000007629395</v>
       </c>
       <c r="F3">
-        <v>12787700</v>
+        <v>10619900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>12.93000030517578</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="B4">
-        <v>13.42000007629395</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="C4">
-        <v>12.80000019073486</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="D4">
-        <v>13.36999988555908</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="E4">
-        <v>13.36999988555908</v>
+        <v>13.13000011444092</v>
       </c>
       <c r="F4">
-        <v>12749700</v>
+        <v>12907800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>13.4399995803833</v>
+        <v>13.09000015258789</v>
       </c>
       <c r="B5">
-        <v>13.8100004196167</v>
+        <v>14.1899995803833</v>
       </c>
       <c r="C5">
-        <v>13.25</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="D5">
-        <v>13.8100004196167</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="E5">
-        <v>13.8100004196167</v>
+        <v>13.6899995803833</v>
       </c>
       <c r="F5">
-        <v>12649000</v>
+        <v>20161000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>13.67000007629395</v>
+        <v>13.73999977111816</v>
       </c>
       <c r="B6">
-        <v>13.81999969482422</v>
+        <v>14.19999980926514</v>
       </c>
       <c r="C6">
-        <v>13.36999988555908</v>
+        <v>13.51000022888184</v>
       </c>
       <c r="D6">
-        <v>13.53999996185303</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="E6">
-        <v>13.53999996185303</v>
+        <v>13.56999969482422</v>
       </c>
       <c r="F6">
-        <v>11390800</v>
+        <v>13943600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
+        <v>13.65999984741211</v>
+      </c>
+      <c r="B7">
+        <v>14.27000045776367</v>
+      </c>
+      <c r="C7">
         <v>13.44999980926514</v>
       </c>
-      <c r="B7">
-        <v>13.77000045776367</v>
-      </c>
-      <c r="C7">
-        <v>13.0600004196167</v>
-      </c>
       <c r="D7">
-        <v>13.25</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="E7">
-        <v>13.25</v>
+        <v>13.85000038146973</v>
       </c>
       <c r="F7">
-        <v>16502500</v>
+        <v>17892200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>13.22000026702881</v>
+        <v>13.75</v>
       </c>
       <c r="B8">
-        <v>13.64000034332275</v>
+        <v>14.15999984741211</v>
       </c>
       <c r="C8">
-        <v>13.11999988555908</v>
+        <v>13.4399995803833</v>
       </c>
       <c r="D8">
-        <v>13.42000007629395</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="E8">
-        <v>13.42000007629395</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="F8">
-        <v>10619900</v>
+        <v>13665700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>13.51000022888184</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B9">
-        <v>13.51000022888184</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="C9">
-        <v>12.89999961853027</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D9">
-        <v>13.13000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E9">
-        <v>13.13000011444092</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F9">
-        <v>12907800</v>
+        <v>12900500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>13.09000015258789</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="B10">
-        <v>14.1899995803833</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="C10">
-        <v>12.96000003814697</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="D10">
-        <v>13.6899995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="E10">
-        <v>13.6899995803833</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="F10">
-        <v>20161000</v>
+        <v>14441300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>13.73999977111816</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="B11">
-        <v>14.19999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C11">
-        <v>13.51000022888184</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D11">
-        <v>13.56999969482422</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="E11">
-        <v>13.56999969482422</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="F11">
-        <v>13943600</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>13.65999984741211</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B12">
-        <v>14.27000045776367</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="C12">
-        <v>13.44999980926514</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="D12">
-        <v>13.85000038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="E12">
-        <v>13.85000038146973</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F12">
-        <v>17892200</v>
+        <v>18407600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>13.75</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="B13">
-        <v>14.15999984741211</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="C13">
-        <v>13.4399995803833</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="D13">
-        <v>13.59000015258789</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E13">
-        <v>13.59000015258789</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F13">
-        <v>13665700</v>
+        <v>16030700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>13.60000038146973</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="B14">
-        <v>13.67000007629395</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="C14">
-        <v>13.17000007629395</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="D14">
-        <v>13.30000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="E14">
-        <v>13.30000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F14">
-        <v>12900500</v>
+        <v>16072900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>13.22000026702881</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B15">
-        <v>13.32999992370605</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C15">
-        <v>12.77000045776367</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D15">
-        <v>12.80000019073486</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="E15">
-        <v>12.80000019073486</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="F15">
-        <v>14441300</v>
+        <v>12982400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>12.9399995803833</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>13.14999961853027</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C16">
-        <v>12.76000022888184</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="D16">
-        <v>12.85999965667725</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E16">
-        <v>12.85999965667725</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F16">
-        <v>12649000</v>
+        <v>9316000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>12.96000003814697</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>12.96000003814697</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C17">
-        <v>12.39999961853027</v>
+        <v>11.75</v>
       </c>
       <c r="D17">
-        <v>12.40999984741211</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="E17">
-        <v>12.40999984741211</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="F17">
-        <v>18407600</v>
+        <v>13644900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>12.4399995803833</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B18">
-        <v>12.47000026702881</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C18">
-        <v>11.92000007629395</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D18">
-        <v>12.22999954223633</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E18">
-        <v>12.22999954223633</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F18">
-        <v>16030700</v>
+        <v>25536800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>12.26000022888184</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="B19">
-        <v>12.3100004196167</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C19">
-        <v>11.72000026702881</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="D19">
-        <v>11.73999977111816</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="E19">
-        <v>11.73999977111816</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F19">
-        <v>16072900</v>
+        <v>19702500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>11.76000022888184</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="B20">
-        <v>12.1899995803833</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C20">
-        <v>11.68000030517578</v>
+        <v>11.25</v>
       </c>
       <c r="D20">
-        <v>12.02999973297119</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E20">
-        <v>12.02999973297119</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F20">
-        <v>12982400</v>
+        <v>16297000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>12</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="B21">
-        <v>12.23999977111816</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C21">
-        <v>11.89999961853027</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="D21">
-        <v>12.01000022888184</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E21">
-        <v>12.01000022888184</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="F21">
-        <v>9316000</v>
+        <v>21476600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>12</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="B22">
-        <v>12.19999980926514</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="C22">
-        <v>11.75</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="D22">
-        <v>12.17000007629395</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E22">
-        <v>12.17000007629395</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F22">
-        <v>13644900</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>11.76000022888184</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B23">
-        <v>11.77000045776367</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="C23">
-        <v>11.02000045776367</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="D23">
-        <v>11.22999954223633</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="E23">
-        <v>11.22999954223633</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F23">
-        <v>25536800</v>
+        <v>14941700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>11.22999954223633</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="B24">
-        <v>11.53999996185303</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C24">
-        <v>11.02999973297119</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D24">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E24">
-        <v>11.22000026702881</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F24">
-        <v>19702500</v>
+        <v>17537500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>11.27999973297119</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="B25">
-        <v>11.88000011444092</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C25">
-        <v>11.25</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="D25">
-        <v>11.63000011444092</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E25">
-        <v>11.63000011444092</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F25">
-        <v>16297000</v>
+        <v>17441800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>12.19999980926514</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="B26">
-        <v>12.39999961853027</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C26">
-        <v>11.86999988555908</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="D26">
-        <v>12.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="E26">
-        <v>12.02000045776367</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="F26">
-        <v>21476600</v>
+        <v>20291000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>11.85000038146973</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="B27">
-        <v>11.97999954223633</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="C27">
-        <v>11.64000034332275</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="D27">
-        <v>11.67000007629395</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="E27">
-        <v>11.67000007629395</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F27">
-        <v>13173400</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>11.69999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="B28">
-        <v>12.27000045776367</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="C28">
-        <v>11.64999961853027</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D28">
-        <v>12.22000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E28">
-        <v>12.22000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="F28">
-        <v>14941700</v>
+        <v>14980700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>12.03999996185303</v>
+        <v>10.75</v>
       </c>
       <c r="B29">
-        <v>12.1899995803833</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="C29">
-        <v>11.60000038146973</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D29">
-        <v>11.63000011444092</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E29">
-        <v>11.63000011444092</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F29">
-        <v>17537500</v>
+        <v>18162500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>11.72999954223633</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="B30">
-        <v>11.77000045776367</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C30">
-        <v>11.09000015258789</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D30">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="E30">
-        <v>11.10999965667725</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="F30">
-        <v>17441800</v>
+        <v>18595400</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>11.17000007629395</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="B31">
-        <v>11.52999973297119</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="C31">
-        <v>10.94999980926514</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D31">
-        <v>11.28999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E31">
-        <v>11.28999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F31">
-        <v>20291000</v>
+        <v>34914000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>11.28999996185303</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="B32">
-        <v>11.36999988555908</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C32">
-        <v>10.84000015258789</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D32">
-        <v>11.14999961853027</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E32">
-        <v>11.14999961853027</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F32">
-        <v>18180300</v>
+        <v>20199900</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>11.02000045776367</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="B33">
-        <v>11.10999965667725</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="C33">
-        <v>10.68000030517578</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="D33">
-        <v>10.73999977111816</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="E33">
-        <v>10.73999977111816</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="F33">
-        <v>14980700</v>
+        <v>12642500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>10.75</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="B34">
-        <v>11.34000015258789</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="C34">
-        <v>10.68000030517578</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="D34">
-        <v>11.10000038146973</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="E34">
-        <v>11.10000038146973</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F34">
-        <v>18162500</v>
+        <v>13749900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>10.89999961853027</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="B35">
-        <v>10.9399995803833</v>
+        <v>10.53999996185303</v>
       </c>
       <c r="C35">
-        <v>10.68000030517578</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D35">
-        <v>10.78999996185303</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E35">
-        <v>10.78999996185303</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="F35">
-        <v>18595400</v>
+        <v>10136900</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>10.81999969482422</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B36">
-        <v>11.42000007629395</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="C36">
         <v>10.36999988555908</v>
       </c>
       <c r="D36">
-        <v>11.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E36">
-        <v>11.02000045776367</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="F36">
-        <v>34914000</v>
+        <v>14890300</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>10.85000038146973</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="B37">
-        <v>11.07999992370605</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="C37">
-        <v>10.46000003814697</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D37">
-        <v>10.48999977111816</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E37">
-        <v>10.48999977111816</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F37">
-        <v>20199900</v>
+        <v>13082200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>10.36999988555908</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="B38">
-        <v>10.60999965667725</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C38">
-        <v>10.14999961853027</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="D38">
-        <v>10.15999984741211</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="E38">
-        <v>10.15999984741211</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="F38">
-        <v>12642500</v>
+        <v>13975100</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>10.15999984741211</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B39">
-        <v>10.5600004196167</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="C39">
-        <v>10.11999988555908</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D39">
-        <v>10.27999973297119</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E39">
-        <v>10.27999973297119</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="F39">
-        <v>13749900</v>
+        <v>68798000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>10.34000015258789</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="B40">
-        <v>10.53999996185303</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C40">
-        <v>10.19999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D40">
-        <v>10.28999996185303</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="E40">
-        <v>10.28999996185303</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="F40">
-        <v>10136900</v>
+        <v>44082000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>10.42000007629395</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="B41">
-        <v>10.8100004196167</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="C41">
-        <v>10.36999988555908</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D41">
-        <v>10.39000034332275</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="E41">
-        <v>10.39000034332275</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F41">
-        <v>14890300</v>
+        <v>30666900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>10.46000003814697</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="B42">
-        <v>10.52999973297119</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C42">
-        <v>10.1899995803833</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="D42">
-        <v>10.23999977111816</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E42">
-        <v>10.23999977111816</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F42">
-        <v>13082200</v>
+        <v>18841500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>10.21000003814697</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="B43">
-        <v>10.23999977111816</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="C43">
-        <v>9.979999542236328</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="D43">
-        <v>10.06999969482422</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>10.06999969482422</v>
+        <v>11</v>
       </c>
       <c r="F43">
-        <v>13975100</v>
+        <v>13868500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>10.17000007629395</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="B44">
-        <v>11.82999992370605</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="C44">
-        <v>10.02999973297119</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="D44">
-        <v>11.65999984741211</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E44">
-        <v>11.65999984741211</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="F44">
-        <v>68798000</v>
+        <v>15137800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>11.55000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B45">
-        <v>11.80000019073486</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="C45">
-        <v>11.02000045776367</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="D45">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E45">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F45">
-        <v>44082000</v>
+        <v>15093900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>11.46000003814697</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B46">
-        <v>12.15999984741211</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="C46">
-        <v>11.42000007629395</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D46">
-        <v>11.5600004196167</v>
+        <v>10.5</v>
       </c>
       <c r="E46">
-        <v>11.5600004196167</v>
+        <v>10.5</v>
       </c>
       <c r="F46">
-        <v>30666900</v>
+        <v>11171600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>11.52999973297119</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B47">
-        <v>11.52999973297119</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C47">
-        <v>10.9399995803833</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D47">
-        <v>11.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E47">
-        <v>11.07999992370605</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F47">
-        <v>18841500</v>
+        <v>11177500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>11.05000019073486</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="B48">
-        <v>11.28999996185303</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="C48">
-        <v>10.88000011444092</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="F48">
-        <v>13868500</v>
+        <v>17396100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>11.06999969482422</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="B49">
-        <v>11.14000034332275</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C49">
-        <v>10.57999992370605</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D49">
-        <v>10.71000003814697</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E49">
-        <v>10.71000003814697</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F49">
-        <v>15137800</v>
+        <v>14972500</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>10.69999980926514</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="B50">
-        <v>10.82999992370605</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C50">
-        <v>10.28999996185303</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D50">
-        <v>10.30000019073486</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="E50">
-        <v>10.30000019073486</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="F50">
-        <v>15093900</v>
+        <v>17924500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>10.32999992370605</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="B51">
-        <v>10.56999969482422</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="C51">
-        <v>10.1899995803833</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D51">
-        <v>10.5</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E51">
-        <v>10.5</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F51">
-        <v>11171600</v>
+        <v>14915500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>10.43000030517578</v>
+        <v>10.75</v>
       </c>
       <c r="B52">
-        <v>10.64000034332275</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="C52">
-        <v>10.22000026702881</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="D52">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="E52">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F52">
-        <v>11177500</v>
+        <v>23511900</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>10.23999977111816</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="B53">
-        <v>10.88000011444092</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="C53">
-        <v>10.10000038146973</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="D53">
-        <v>10.75</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="E53">
-        <v>10.75</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="F53">
-        <v>17396100</v>
+        <v>48931600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>10.72000026702881</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="B54">
-        <v>10.72999954223633</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="C54">
-        <v>10.23999977111816</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D54">
-        <v>10.42000007629395</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="E54">
-        <v>10.42000007629395</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="F54">
-        <v>14972500</v>
+        <v>33221600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>10.38000011444092</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B55">
-        <v>11.09000015258789</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C55">
-        <v>10.31999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D55">
-        <v>10.85999965667725</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E55">
-        <v>10.85999965667725</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F55">
-        <v>17924500</v>
+        <v>21170700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>11.13000011444092</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="B56">
-        <v>11.27999973297119</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="C56">
-        <v>10.69999980926514</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="D56">
-        <v>10.8100004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E56">
-        <v>10.8100004196167</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F56">
-        <v>14915500</v>
+        <v>17104100</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>10.75</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="B57">
-        <v>10.77000045776367</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="C57">
-        <v>10.15999984741211</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="D57">
-        <v>10.69999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E57">
-        <v>10.69999980926514</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F57">
-        <v>23511900</v>
+        <v>56022300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>10.73999977111816</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="B58">
-        <v>12.56999969482422</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="C58">
-        <v>10.6899995803833</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D58">
-        <v>12.36999988555908</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="E58">
-        <v>12.36999988555908</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="F58">
-        <v>48931600</v>
+        <v>61294100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>12.14000034332275</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="B59">
-        <v>12.71000003814697</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="C59">
-        <v>11.51000022888184</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="D59">
-        <v>12.38000011444092</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="E59">
-        <v>12.38000011444092</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="F59">
-        <v>33221600</v>
+        <v>28670000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>11.98999977111816</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="B60">
-        <v>12.44999980926514</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C60">
-        <v>11.39999961853027</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="D60">
-        <v>11.52000045776367</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="E60">
-        <v>11.52000045776367</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F60">
-        <v>21170700</v>
+        <v>16254700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>11.67000007629395</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B61">
-        <v>12.13000011444092</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="C61">
-        <v>11.56999969482422</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D61">
-        <v>11.85999965667725</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E61">
-        <v>11.85999965667725</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F61">
-        <v>17104100</v>
+        <v>42792400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>12.56999969482422</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B62">
-        <v>13.06999969482422</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C62">
-        <v>12.10999965667725</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D62">
-        <v>12.9399995803833</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="E62">
-        <v>12.9399995803833</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="F62">
-        <v>56022300</v>
+        <v>24096900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>13.36999988555908</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B63">
-        <v>13.94999980926514</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="C63">
-        <v>12.97000026702881</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D63">
-        <v>13.02999973297119</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E63">
-        <v>13.02999973297119</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F63">
-        <v>61294100</v>
+        <v>23342600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>12.77999973297119</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="B64">
-        <v>13.30000019073486</v>
+        <v>10.90999984741211</v>
       </c>
       <c r="C64">
-        <v>12.26000022888184</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D64">
-        <v>12.97000026702881</v>
+        <v>10.5</v>
       </c>
       <c r="E64">
-        <v>12.97000026702881</v>
+        <v>10.5</v>
       </c>
       <c r="F64">
-        <v>28670000</v>
+        <v>18239100</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>12.72999954223633</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B65">
-        <v>13.14999961853027</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="C65">
-        <v>12.30000019073486</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D65">
-        <v>12.34000015258789</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E65">
-        <v>12.34000015258789</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F65">
-        <v>16254700</v>
+        <v>15538500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>11.92000007629395</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B66">
-        <v>12.14000034332275</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C66">
-        <v>10.69999980926514</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D66">
-        <v>10.89999961853027</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="E66">
-        <v>10.89999961853027</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="F66">
-        <v>42792400</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>11.19999980926514</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="B67">
-        <v>11.39999961853027</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="C67">
-        <v>10.69999980926514</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D67">
-        <v>10.93000030517578</v>
+        <v>10.25</v>
       </c>
       <c r="E67">
-        <v>10.93000030517578</v>
+        <v>10.25</v>
       </c>
       <c r="F67">
-        <v>24096900</v>
+        <v>20593400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>11.19999980926514</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="B68">
-        <v>11.19999980926514</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="C68">
-        <v>10.22000026702881</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="D68">
-        <v>10.48999977111816</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="E68">
-        <v>10.48999977111816</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="F68">
-        <v>23342600</v>
+        <v>21916200</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>10.47000026702881</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="B69">
-        <v>10.90999984741211</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C69">
-        <v>10.23999977111816</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="D69">
-        <v>10.5</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="E69">
-        <v>10.5</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="F69">
-        <v>18239100</v>
+        <v>29217800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>10.52999973297119</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="B70">
-        <v>11.05000019073486</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C70">
-        <v>10.31999969482422</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="D70">
-        <v>10.89999961853027</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="E70">
-        <v>10.89999961853027</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="F70">
-        <v>15538500</v>
+        <v>21379100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>10.43000030517578</v>
+        <v>9.510000228881836</v>
       </c>
       <c r="B71">
-        <v>10.72999954223633</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C71">
-        <v>10.30000019073486</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="D71">
-        <v>10.56999969482422</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E71">
-        <v>10.56999969482422</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F71">
-        <v>12165000</v>
+        <v>25914700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>10.60000038146973</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="B72">
-        <v>10.61999988555908</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="C72">
-        <v>10.02999973297119</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="D72">
-        <v>10.25</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="E72">
-        <v>10.25</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="F72">
-        <v>20593400</v>
+        <v>18864900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>10.1899995803833</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B73">
-        <v>10.51000022888184</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="C73">
-        <v>9.649999618530273</v>
+        <v>9.25</v>
       </c>
       <c r="D73">
-        <v>10.11999988555908</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="E73">
-        <v>10.11999988555908</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="F73">
-        <v>21916200</v>
+        <v>16530900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>10.19999980926514</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="B74">
-        <v>10.26000022888184</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="C74">
-        <v>9.130000114440918</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="D74">
-        <v>9.270000457763672</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="E74">
-        <v>9.270000457763672</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="F74">
-        <v>29217800</v>
+        <v>16712300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>9.260000228881836</v>
+        <v>9.5</v>
       </c>
       <c r="B75">
-        <v>9.600000381469727</v>
+        <v>9.75</v>
       </c>
       <c r="C75">
-        <v>9.100000381469727</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="D75">
-        <v>9.539999961853027</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E75">
-        <v>9.539999961853027</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F75">
-        <v>21379100</v>
+        <v>19085100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>9.510000228881836</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B76">
-        <v>9.550000190734863</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C76">
-        <v>8.689999580383301</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="D76">
-        <v>8.949999809265137</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E76">
-        <v>8.949999809265137</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="F76">
-        <v>25914700</v>
+        <v>20077900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>8.800000190734863</v>
+        <v>8.539999961853027</v>
       </c>
       <c r="B77">
-        <v>9.350000381469727</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C77">
-        <v>8.439999580383301</v>
+        <v>8.079999923706055</v>
       </c>
       <c r="D77">
-        <v>9.149999618530273</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="E77">
-        <v>9.149999618530273</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="F77">
-        <v>18864900</v>
+        <v>20232400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>9.319999694824219</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="B78">
-        <v>9.640000343322754</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="C78">
-        <v>9.25</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D78">
-        <v>9.439999580383301</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="E78">
-        <v>9.439999580383301</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="F78">
-        <v>16530900</v>
+        <v>16321800</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>9.539999961853027</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="B79">
-        <v>9.939999580383301</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="C79">
-        <v>9.229999542236328</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D79">
-        <v>9.609999656677246</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="E79">
-        <v>9.609999656677246</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="F79">
-        <v>16712300</v>
+        <v>22453700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>9.5</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="B80">
-        <v>9.75</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C80">
-        <v>8.920000076293945</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="D80">
-        <v>8.939999580383301</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="E80">
-        <v>8.939999580383301</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="F80">
-        <v>19085100</v>
+        <v>18551100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>8.989999771118164</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="B81">
-        <v>9.069999694824219</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="C81">
-        <v>8.510000228881836</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="D81">
-        <v>8.619999885559082</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="E81">
-        <v>8.619999885559082</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F81">
-        <v>20077900</v>
+        <v>27219600</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>8.539999961853027</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="B82">
-        <v>8.579999923706055</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C82">
-        <v>8.079999923706055</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="D82">
-        <v>8.289999961853027</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="E82">
-        <v>8.289999961853027</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="F82">
-        <v>20232400</v>
+        <v>22899900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>8.020000457763672</v>
+        <v>7.5</v>
       </c>
       <c r="B83">
-        <v>8.439999580383301</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="C83">
-        <v>7.940000057220459</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="D83">
-        <v>8.050000190734863</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="E83">
-        <v>8.050000190734863</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="F83">
-        <v>16321800</v>
+        <v>19972200</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>8.029999732971191</v>
+        <v>7.75</v>
       </c>
       <c r="B84">
-        <v>8.229999542236328</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="C84">
-        <v>7.670000076293945</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="D84">
-        <v>8.140000343322754</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="E84">
-        <v>8.140000343322754</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="F84">
-        <v>22453700</v>
+        <v>12366300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>8.189999580383301</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="B85">
-        <v>8.399999618530273</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="C85">
-        <v>7.760000228881836</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D85">
-        <v>7.880000114440918</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="E85">
-        <v>7.880000114440918</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="F85">
-        <v>18551100</v>
+        <v>16615900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>7.679999828338623</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="B86">
-        <v>8.109999656677246</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C86">
-        <v>7.400000095367432</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D86">
-        <v>7.980000019073486</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E86">
-        <v>7.980000019073486</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F86">
-        <v>27219600</v>
+        <v>16313100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>7.710000038146973</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B87">
-        <v>7.829999923706055</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="C87">
-        <v>7.309999942779541</v>
+        <v>7.25</v>
       </c>
       <c r="D87">
-        <v>7.460000038146973</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E87">
-        <v>7.460000038146973</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F87">
-        <v>22899900</v>
+        <v>18199300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>7.5</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="B88">
-        <v>7.929999828338623</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="C88">
-        <v>7.46999979019165</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D88">
-        <v>7.849999904632568</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="E88">
-        <v>7.849999904632568</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="F88">
-        <v>19972200</v>
+        <v>23466400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>7.75</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B89">
-        <v>7.889999866485596</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C89">
-        <v>7.579999923706055</v>
+        <v>7</v>
       </c>
       <c r="D89">
-        <v>7.739999771118164</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E89">
-        <v>7.739999771118164</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F89">
-        <v>12366300</v>
+        <v>28741300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>7.760000228881836</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B90">
-        <v>7.960000038146973</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="C90">
-        <v>7.53000020980835</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D90">
-        <v>7.840000152587891</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E90">
-        <v>7.840000152587891</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F90">
-        <v>16615900</v>
+        <v>20258500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>7.849999904632568</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="B91">
-        <v>7.849999904632568</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C91">
-        <v>7.53000020980835</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D91">
-        <v>7.610000133514404</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E91">
-        <v>7.610000133514404</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F91">
-        <v>16313100</v>
+        <v>21556900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>7.550000190734863</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B92">
-        <v>7.679999828338623</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C92">
-        <v>7.25</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D92">
-        <v>7.28000020980835</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E92">
-        <v>7.28000020980835</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F92">
-        <v>18199300</v>
+        <v>24622800</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>7.269999980926514</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B93">
-        <v>7.380000114440918</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C93">
-        <v>6.96999979019165</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D93">
-        <v>7.050000190734863</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E93">
-        <v>7.050000190734863</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F93">
-        <v>23466400</v>
+        <v>30015800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>7.019999980926514</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B94">
-        <v>7.559999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="D94">
-        <v>7.28000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E94">
-        <v>7.28000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F94">
-        <v>28741300</v>
+        <v>27322300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>7.210000038146973</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B95">
-        <v>7.489999771118164</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="C95">
-        <v>7.03000020980835</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D95">
-        <v>7.03000020980835</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E95">
-        <v>7.03000020980835</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F95">
-        <v>20258500</v>
+        <v>27156200</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>7.190000057220459</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="B96">
-        <v>7.699999809265137</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="C96">
-        <v>7.079999923706055</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D96">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E96">
-        <v>7.389999866485596</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F96">
-        <v>21556900</v>
+        <v>107145700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>7.460000038146973</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="B97">
-        <v>7.480000019073486</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C97">
-        <v>6.960000038146973</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D97">
-        <v>7.110000133514404</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E97">
-        <v>7.110000133514404</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F97">
-        <v>24622800</v>
+        <v>33490300</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>7.059999942779541</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B98">
-        <v>7.289999961853027</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C98">
-        <v>6.610000133514404</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="D98">
-        <v>6.630000114440918</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E98">
-        <v>6.630000114440918</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F98">
-        <v>30015800</v>
+        <v>23457700</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>6.670000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B99">
-        <v>6.840000152587891</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C99">
-        <v>6.360000133514404</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D99">
-        <v>6.440000057220459</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="E99">
-        <v>6.440000057220459</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="F99">
-        <v>27322300</v>
+        <v>16643300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>6.510000228881836</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="B100">
-        <v>6.769999980926514</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C100">
-        <v>6.289999961853027</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D100">
-        <v>6.420000076293945</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="E100">
-        <v>6.420000076293945</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F100">
-        <v>27156200</v>
+        <v>18008500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>7.159999847412109</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B101">
-        <v>7.840000152587891</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="C101">
-        <v>6.949999809265137</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="D101">
-        <v>7.289999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="E101">
-        <v>7.289999961853027</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="F101">
-        <v>107145700</v>
+        <v>21597000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>6.960000038146973</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B102">
-        <v>7.559999942779541</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C102">
-        <v>6.800000190734863</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D102">
-        <v>7.380000114440918</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E102">
-        <v>7.380000114440918</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F102">
-        <v>33490300</v>
+        <v>25170900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>7.489999771118164</v>
+        <v>6</v>
       </c>
       <c r="B103">
-        <v>7.699999809265137</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="C103">
-        <v>7.070000171661377</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D103">
-        <v>7.150000095367432</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E103">
-        <v>7.150000095367432</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F103">
-        <v>23457700</v>
+        <v>24224700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>7.199999809265137</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="B104">
-        <v>7.309999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="C104">
-        <v>6.849999904632568</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D104">
-        <v>6.869999885559082</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="E104">
-        <v>6.869999885559082</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="F104">
-        <v>16643300</v>
+        <v>25137900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>6.769999980926514</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B105">
-        <v>6.949999809265137</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C105">
-        <v>6.630000114440918</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="D105">
-        <v>6.860000133514404</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="E105">
-        <v>6.860000133514404</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="F105">
-        <v>18008500</v>
+        <v>28766400</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>6.670000076293945</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B106">
-        <v>6.789999961853027</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C106">
-        <v>6.269999980926514</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D106">
-        <v>6.289999961853027</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E106">
-        <v>6.289999961853027</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F106">
-        <v>21597000</v>
+        <v>15242400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>6.320000171661377</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B107">
-        <v>6.409999847412109</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C107">
-        <v>5.940000057220459</v>
+        <v>5.460000038146973</v>
       </c>
       <c r="D107">
-        <v>5.96999979019165</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="E107">
-        <v>5.96999979019165</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="F107">
-        <v>25170900</v>
+        <v>20766700</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>6</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="B108">
-        <v>6.340000152587891</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C108">
-        <v>5.900000095367432</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D108">
-        <v>5.920000076293945</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="E108">
-        <v>5.920000076293945</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="F108">
-        <v>24224700</v>
+        <v>24067200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>5.829999923706055</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="B109">
-        <v>6.079999923706055</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C109">
-        <v>5.699999809265137</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D109">
-        <v>5.789999961853027</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="E109">
-        <v>5.789999961853027</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="F109">
-        <v>25137900</v>
+        <v>19750600</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>5.510000228881836</v>
+        <v>5.5</v>
       </c>
       <c r="B110">
-        <v>5.849999904632568</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C110">
-        <v>5.199999809265137</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D110">
-        <v>5.840000152587891</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="E110">
-        <v>5.840000152587891</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="F110">
-        <v>28766400</v>
+        <v>18665900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>5.659999847412109</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="B111">
-        <v>5.869999885559082</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C111">
-        <v>5.550000190734863</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D111">
-        <v>5.71999979019165</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="E111">
-        <v>5.71999979019165</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="F111">
-        <v>15242400</v>
+        <v>20392700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>5.860000133514404</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B112">
-        <v>5.869999885559082</v>
+        <v>6.25</v>
       </c>
       <c r="C112">
-        <v>5.460000038146973</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D112">
-        <v>5.559999942779541</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="E112">
-        <v>5.559999942779541</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="F112">
-        <v>20766700</v>
+        <v>15233700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>5.570000171661377</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="B113">
+        <v>5.920000076293945</v>
+      </c>
+      <c r="C113">
         <v>5.630000114440918</v>
       </c>
-      <c r="C113">
-        <v>5.150000095367432</v>
-      </c>
       <c r="D113">
-        <v>5.21999979019165</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="E113">
-        <v>5.21999979019165</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="F113">
-        <v>24067200</v>
+        <v>11710900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>5.239999771118164</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="B114">
-        <v>5.519999980926514</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="C114">
-        <v>5.150000095367432</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D114">
-        <v>5.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E114">
-        <v>5.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F114">
-        <v>19750600</v>
+        <v>14268100</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>5.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="B115">
-        <v>6.010000228881836</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="C115">
-        <v>5.46999979019165</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D115">
-        <v>5.960000038146973</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E115">
-        <v>5.960000038146973</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F115">
-        <v>18665900</v>
+        <v>14856100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>6.050000190734863</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B116">
-        <v>6.360000133514404</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="C116">
-        <v>5.840000152587891</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D116">
-        <v>6.21999979019165</v>
+        <v>6.25</v>
       </c>
       <c r="E116">
-        <v>6.21999979019165</v>
+        <v>6.25</v>
       </c>
       <c r="F116">
-        <v>20392700</v>
+        <v>12634800</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>6.170000076293945</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B117">
-        <v>6.25</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C117">
-        <v>5.889999866485596</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D117">
-        <v>5.980000019073486</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E117">
-        <v>5.980000019073486</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F117">
-        <v>15233700</v>
+        <v>28831200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>5.820000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B118">
-        <v>5.920000076293945</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C118">
-        <v>5.630000114440918</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="D118">
-        <v>5.650000095367432</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>5.650000095367432</v>
+        <v>7</v>
       </c>
       <c r="F118">
-        <v>11710900</v>
+        <v>30866200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>5.670000076293945</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="B119">
-        <v>6.019999980926514</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="C119">
-        <v>5.630000114440918</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="D119">
-        <v>5.949999809265137</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="E119">
-        <v>5.949999809265137</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="F119">
-        <v>14268100</v>
+        <v>31495200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>6.03000020980835</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B120">
-        <v>6.230000019073486</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C120">
-        <v>5.909999847412109</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="D120">
-        <v>6.03000020980835</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="E120">
-        <v>6.03000020980835</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="F120">
-        <v>14856100</v>
+        <v>20311900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>6.010000228881836</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="B121">
-        <v>6.260000228881836</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="C121">
-        <v>5.920000076293945</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D121">
-        <v>6.25</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E121">
-        <v>6.25</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F121">
-        <v>12634800</v>
+        <v>14703300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>6.420000076293945</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B122">
-        <v>6.96999979019165</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C122">
-        <v>6.349999904632568</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D122">
-        <v>6.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E122">
-        <v>6.920000076293945</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F122">
-        <v>28831200</v>
+        <v>17451600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>6.699999809265137</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B123">
-        <v>7.389999866485596</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="C123">
-        <v>6.539999961853027</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F123">
-        <v>30866200</v>
+        <v>15178900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>6.920000076293945</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B124">
-        <v>7.360000133514404</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C124">
-        <v>6.840000152587891</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D124">
-        <v>7.119999885559082</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E124">
-        <v>7.119999885559082</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F124">
-        <v>31495200</v>
+        <v>14504700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>7.110000133514404</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B125">
-        <v>7.329999923706055</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C125">
-        <v>6.690000057220459</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D125">
-        <v>6.71999979019165</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="E125">
-        <v>6.71999979019165</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="F125">
-        <v>20311900</v>
+        <v>14213800</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>6.909999847412109</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B126">
-        <v>7.190000057220459</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C126">
-        <v>6.849999904632568</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D126">
-        <v>7.150000095367432</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="E126">
-        <v>7.150000095367432</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="F126">
-        <v>14703300</v>
+        <v>14026800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>7.070000171661377</v>
+        <v>5.5</v>
       </c>
       <c r="B127">
-        <v>7.480000019073486</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C127">
-        <v>6.920000076293945</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D127">
-        <v>7.199999809265137</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="E127">
-        <v>7.199999809265137</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="F127">
-        <v>17451600</v>
+        <v>22123900</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>7.059999942779541</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="B128">
-        <v>7.190000057220459</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="C128">
-        <v>6.659999847412109</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="D128">
-        <v>6.710000038146973</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="E128">
-        <v>6.710000038146973</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="F128">
-        <v>15178900</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>6.730000019073486</v>
-      </c>
-      <c r="B129">
-        <v>6.800000190734863</v>
-      </c>
-      <c r="C129">
-        <v>6.320000171661377</v>
-      </c>
-      <c r="D129">
-        <v>6.389999866485596</v>
-      </c>
-      <c r="E129">
-        <v>6.389999866485596</v>
-      </c>
-      <c r="F129">
-        <v>14504700</v>
+        <v>11023900</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>13.44999980926514</v>
+        <v>13.60000038146973</v>
       </c>
       <c r="B2">
-        <v>13.77000045776367</v>
+        <v>13.67000007629395</v>
       </c>
       <c r="C2">
-        <v>13.0600004196167</v>
+        <v>13.17000007629395</v>
       </c>
       <c r="D2">
-        <v>13.25</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="E2">
-        <v>13.25</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="F2">
-        <v>16502500</v>
+        <v>12900500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,1819 +440,1819 @@
         <v>13.22000026702881</v>
       </c>
       <c r="B3">
-        <v>13.64000034332275</v>
+        <v>13.32999992370605</v>
       </c>
       <c r="C3">
-        <v>13.11999988555908</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="D3">
-        <v>13.42000007629395</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="E3">
-        <v>13.42000007629395</v>
+        <v>12.80000019073486</v>
       </c>
       <c r="F3">
-        <v>10619900</v>
+        <v>14441300</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>13.51000022888184</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="B4">
-        <v>13.51000022888184</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C4">
-        <v>12.89999961853027</v>
+        <v>12.76000022888184</v>
       </c>
       <c r="D4">
-        <v>13.13000011444092</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="E4">
-        <v>13.13000011444092</v>
+        <v>12.85999965667725</v>
       </c>
       <c r="F4">
-        <v>12907800</v>
+        <v>12649000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>13.09000015258789</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="B5">
-        <v>14.1899995803833</v>
+        <v>12.96000003814697</v>
       </c>
       <c r="C5">
-        <v>12.96000003814697</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="D5">
-        <v>13.6899995803833</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="E5">
-        <v>13.6899995803833</v>
+        <v>12.40999984741211</v>
       </c>
       <c r="F5">
-        <v>20161000</v>
+        <v>18407600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>13.73999977111816</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="B6">
-        <v>14.19999980926514</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="C6">
-        <v>13.51000022888184</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="D6">
-        <v>13.56999969482422</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E6">
-        <v>13.56999969482422</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F6">
-        <v>13943600</v>
+        <v>16030700</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>13.65999984741211</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="B7">
-        <v>14.27000045776367</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="C7">
-        <v>13.44999980926514</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="D7">
-        <v>13.85000038146973</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="E7">
-        <v>13.85000038146973</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F7">
-        <v>17892200</v>
+        <v>16072900</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>13.75</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B8">
-        <v>14.15999984741211</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C8">
-        <v>13.4399995803833</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D8">
-        <v>13.59000015258789</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="E8">
-        <v>13.59000015258789</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="F8">
-        <v>13665700</v>
+        <v>12982400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>13.60000038146973</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>13.67000007629395</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C9">
-        <v>13.17000007629395</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="D9">
-        <v>13.30000019073486</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E9">
-        <v>13.30000019073486</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F9">
-        <v>12900500</v>
+        <v>9316000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>13.22000026702881</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>13.32999992370605</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C10">
-        <v>12.77000045776367</v>
+        <v>11.75</v>
       </c>
       <c r="D10">
-        <v>12.80000019073486</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="E10">
-        <v>12.80000019073486</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="F10">
-        <v>14441300</v>
+        <v>13644900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>12.9399995803833</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B11">
-        <v>13.14999961853027</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C11">
-        <v>12.76000022888184</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D11">
-        <v>12.85999965667725</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E11">
-        <v>12.85999965667725</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F11">
-        <v>12649000</v>
+        <v>25536800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>12.96000003814697</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="B12">
-        <v>12.96000003814697</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C12">
-        <v>12.39999961853027</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="D12">
-        <v>12.40999984741211</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="E12">
-        <v>12.40999984741211</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F12">
-        <v>18407600</v>
+        <v>19702500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>12.4399995803833</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="B13">
-        <v>12.47000026702881</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C13">
-        <v>11.92000007629395</v>
+        <v>11.25</v>
       </c>
       <c r="D13">
-        <v>12.22999954223633</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E13">
-        <v>12.22999954223633</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F13">
-        <v>16030700</v>
+        <v>16297000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>12.26000022888184</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="B14">
-        <v>12.3100004196167</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C14">
-        <v>11.72000026702881</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="D14">
-        <v>11.73999977111816</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E14">
-        <v>11.73999977111816</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="F14">
-        <v>16072900</v>
+        <v>21476600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>11.76000022888184</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="B15">
-        <v>12.1899995803833</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="C15">
-        <v>11.68000030517578</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="D15">
-        <v>12.02999973297119</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E15">
-        <v>12.02999973297119</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F15">
-        <v>12982400</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>12</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B16">
-        <v>12.23999977111816</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="C16">
-        <v>11.89999961853027</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="D16">
-        <v>12.01000022888184</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="E16">
-        <v>12.01000022888184</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F16">
-        <v>9316000</v>
+        <v>14941700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>12</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="B17">
-        <v>12.19999980926514</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C17">
-        <v>11.75</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D17">
-        <v>12.17000007629395</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E17">
-        <v>12.17000007629395</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F17">
-        <v>13644900</v>
+        <v>17537500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>11.76000022888184</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="B18">
         <v>11.77000045776367</v>
       </c>
       <c r="C18">
-        <v>11.02000045776367</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="D18">
-        <v>11.22999954223633</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E18">
-        <v>11.22999954223633</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F18">
-        <v>25536800</v>
+        <v>17441800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>11.22999954223633</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="B19">
-        <v>11.53999996185303</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C19">
-        <v>11.02999973297119</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="D19">
-        <v>11.22000026702881</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="E19">
-        <v>11.22000026702881</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="F19">
-        <v>19702500</v>
+        <v>20291000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>11.27999973297119</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="B20">
-        <v>11.88000011444092</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="C20">
-        <v>11.25</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="D20">
-        <v>11.63000011444092</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="E20">
-        <v>11.63000011444092</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F20">
-        <v>16297000</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>12.19999980926514</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="B21">
-        <v>12.39999961853027</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="C21">
-        <v>11.86999988555908</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D21">
-        <v>12.02000045776367</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E21">
-        <v>12.02000045776367</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="F21">
-        <v>21476600</v>
+        <v>14980700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>11.85000038146973</v>
+        <v>10.75</v>
       </c>
       <c r="B22">
-        <v>11.97999954223633</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="C22">
-        <v>11.64000034332275</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D22">
-        <v>11.67000007629395</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E22">
-        <v>11.67000007629395</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F22">
-        <v>13173400</v>
+        <v>18162500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>11.69999980926514</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="B23">
-        <v>12.27000045776367</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C23">
-        <v>11.64999961853027</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D23">
-        <v>12.22000026702881</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="E23">
-        <v>12.22000026702881</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="F23">
-        <v>14941700</v>
+        <v>18595400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>12.03999996185303</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="B24">
-        <v>12.1899995803833</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="C24">
-        <v>11.60000038146973</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D24">
-        <v>11.63000011444092</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E24">
-        <v>11.63000011444092</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F24">
-        <v>17537500</v>
+        <v>34914000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>11.72999954223633</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="B25">
-        <v>11.77000045776367</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C25">
-        <v>11.09000015258789</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D25">
-        <v>11.10999965667725</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E25">
-        <v>11.10999965667725</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F25">
-        <v>17441800</v>
+        <v>20199900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>11.17000007629395</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="B26">
-        <v>11.52999973297119</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="C26">
-        <v>10.94999980926514</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="D26">
-        <v>11.28999996185303</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="E26">
-        <v>11.28999996185303</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="F26">
-        <v>20291000</v>
+        <v>12642500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>11.28999996185303</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="B27">
-        <v>11.36999988555908</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="C27">
-        <v>10.84000015258789</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="D27">
-        <v>11.14999961853027</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="E27">
-        <v>11.14999961853027</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F27">
-        <v>18180300</v>
+        <v>13749900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>11.02000045776367</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="B28">
-        <v>11.10999965667725</v>
+        <v>10.53999996185303</v>
       </c>
       <c r="C28">
-        <v>10.68000030517578</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D28">
-        <v>10.73999977111816</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E28">
-        <v>10.73999977111816</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="F28">
-        <v>14980700</v>
+        <v>10136900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>10.75</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B29">
-        <v>11.34000015258789</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="C29">
-        <v>10.68000030517578</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D29">
-        <v>11.10000038146973</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E29">
-        <v>11.10000038146973</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="F29">
-        <v>18162500</v>
+        <v>14890300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>10.89999961853027</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="B30">
-        <v>10.9399995803833</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="C30">
-        <v>10.68000030517578</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D30">
-        <v>10.78999996185303</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E30">
-        <v>10.78999996185303</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F30">
-        <v>18595400</v>
+        <v>13082200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>10.81999969482422</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="B31">
-        <v>11.42000007629395</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C31">
-        <v>10.36999988555908</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="D31">
-        <v>11.02000045776367</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="E31">
-        <v>11.02000045776367</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="F31">
-        <v>34914000</v>
+        <v>13975100</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>10.85000038146973</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B32">
-        <v>11.07999992370605</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="C32">
-        <v>10.46000003814697</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D32">
-        <v>10.48999977111816</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E32">
-        <v>10.48999977111816</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="F32">
-        <v>20199900</v>
+        <v>68798000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>10.36999988555908</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="B33">
-        <v>10.60999965667725</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C33">
-        <v>10.14999961853027</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D33">
-        <v>10.15999984741211</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="E33">
-        <v>10.15999984741211</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="F33">
-        <v>12642500</v>
+        <v>44082000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>10.15999984741211</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="B34">
-        <v>10.5600004196167</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="C34">
-        <v>10.11999988555908</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D34">
-        <v>10.27999973297119</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="E34">
-        <v>10.27999973297119</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F34">
-        <v>13749900</v>
+        <v>30666900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>10.34000015258789</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="B35">
-        <v>10.53999996185303</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C35">
-        <v>10.19999980926514</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="D35">
-        <v>10.28999996185303</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E35">
-        <v>10.28999996185303</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F35">
-        <v>10136900</v>
+        <v>18841500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>10.42000007629395</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="B36">
-        <v>10.8100004196167</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="C36">
-        <v>10.36999988555908</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="D36">
-        <v>10.39000034332275</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>10.39000034332275</v>
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>14890300</v>
+        <v>13868500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>10.46000003814697</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="B37">
-        <v>10.52999973297119</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="C37">
-        <v>10.1899995803833</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="D37">
-        <v>10.23999977111816</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E37">
-        <v>10.23999977111816</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="F37">
-        <v>13082200</v>
+        <v>15137800</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>10.21000003814697</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B38">
-        <v>10.23999977111816</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="C38">
-        <v>9.979999542236328</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="D38">
-        <v>10.06999969482422</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E38">
-        <v>10.06999969482422</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F38">
-        <v>13975100</v>
+        <v>15093900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>10.17000007629395</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B39">
-        <v>11.82999992370605</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="C39">
-        <v>10.02999973297119</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D39">
-        <v>11.65999984741211</v>
+        <v>10.5</v>
       </c>
       <c r="E39">
-        <v>11.65999984741211</v>
+        <v>10.5</v>
       </c>
       <c r="F39">
-        <v>68798000</v>
+        <v>11171600</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>11.55000019073486</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B40">
-        <v>11.80000019073486</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C40">
-        <v>11.02000045776367</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D40">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E40">
-        <v>11.59000015258789</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F40">
-        <v>44082000</v>
+        <v>11177500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>11.46000003814697</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="B41">
-        <v>12.15999984741211</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="C41">
-        <v>11.42000007629395</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D41">
-        <v>11.5600004196167</v>
+        <v>10.75</v>
       </c>
       <c r="E41">
-        <v>11.5600004196167</v>
+        <v>10.75</v>
       </c>
       <c r="F41">
-        <v>30666900</v>
+        <v>17396100</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>11.52999973297119</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="B42">
-        <v>11.52999973297119</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C42">
-        <v>10.9399995803833</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D42">
-        <v>11.07999992370605</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E42">
-        <v>11.07999992370605</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F42">
-        <v>18841500</v>
+        <v>14972500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>11.05000019073486</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="B43">
-        <v>11.28999996185303</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C43">
-        <v>10.88000011444092</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D43">
-        <v>11</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="F43">
-        <v>13868500</v>
+        <v>17924500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>11.06999969482422</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="B44">
-        <v>11.14000034332275</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="C44">
-        <v>10.57999992370605</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D44">
-        <v>10.71000003814697</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E44">
-        <v>10.71000003814697</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F44">
-        <v>15137800</v>
+        <v>14915500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
+        <v>10.75</v>
+      </c>
+      <c r="B45">
+        <v>10.77000045776367</v>
+      </c>
+      <c r="C45">
+        <v>10.15999984741211</v>
+      </c>
+      <c r="D45">
         <v>10.69999980926514</v>
       </c>
-      <c r="B45">
-        <v>10.82999992370605</v>
-      </c>
-      <c r="C45">
-        <v>10.28999996185303</v>
-      </c>
-      <c r="D45">
-        <v>10.30000019073486</v>
-      </c>
       <c r="E45">
-        <v>10.30000019073486</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F45">
-        <v>15093900</v>
+        <v>23511900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>10.32999992370605</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="B46">
-        <v>10.56999969482422</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="C46">
-        <v>10.1899995803833</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="D46">
-        <v>10.5</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="E46">
-        <v>10.5</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="F46">
-        <v>11171600</v>
+        <v>48931600</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>10.43000030517578</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="B47">
-        <v>10.64000034332275</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="C47">
-        <v>10.22000026702881</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D47">
-        <v>10.30000019073486</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="E47">
-        <v>10.30000019073486</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="F47">
-        <v>11177500</v>
+        <v>33221600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>10.23999977111816</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B48">
-        <v>10.88000011444092</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C48">
-        <v>10.10000038146973</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D48">
-        <v>10.75</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E48">
-        <v>10.75</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F48">
-        <v>17396100</v>
+        <v>21170700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>10.72000026702881</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="B49">
-        <v>10.72999954223633</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="C49">
-        <v>10.23999977111816</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="D49">
-        <v>10.42000007629395</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E49">
-        <v>10.42000007629395</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F49">
-        <v>14972500</v>
+        <v>17104100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>10.38000011444092</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="B50">
-        <v>11.09000015258789</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="C50">
-        <v>10.31999969482422</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="D50">
-        <v>10.85999965667725</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E50">
-        <v>10.85999965667725</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F50">
-        <v>17924500</v>
+        <v>56022300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>11.13000011444092</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="B51">
-        <v>11.27999973297119</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="C51">
-        <v>10.69999980926514</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D51">
-        <v>10.8100004196167</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="E51">
-        <v>10.8100004196167</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="F51">
-        <v>14915500</v>
+        <v>61294100</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>10.75</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="B52">
-        <v>10.77000045776367</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="C52">
-        <v>10.15999984741211</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="D52">
-        <v>10.69999980926514</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="E52">
-        <v>10.69999980926514</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="F52">
-        <v>23511900</v>
+        <v>28670000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>10.73999977111816</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="B53">
-        <v>12.56999969482422</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C53">
-        <v>10.6899995803833</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="D53">
-        <v>12.36999988555908</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="E53">
-        <v>12.36999988555908</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F53">
-        <v>48931600</v>
+        <v>16254700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
+        <v>11.92000007629395</v>
+      </c>
+      <c r="B54">
         <v>12.14000034332275</v>
       </c>
-      <c r="B54">
-        <v>12.71000003814697</v>
-      </c>
       <c r="C54">
-        <v>11.51000022888184</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D54">
-        <v>12.38000011444092</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E54">
-        <v>12.38000011444092</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F54">
-        <v>33221600</v>
+        <v>42792400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>11.98999977111816</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B55">
-        <v>12.44999980926514</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C55">
-        <v>11.39999961853027</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D55">
-        <v>11.52000045776367</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="E55">
-        <v>11.52000045776367</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="F55">
-        <v>21170700</v>
+        <v>24096900</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>11.67000007629395</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B56">
-        <v>12.13000011444092</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="C56">
-        <v>11.56999969482422</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D56">
-        <v>11.85999965667725</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E56">
-        <v>11.85999965667725</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F56">
-        <v>17104100</v>
+        <v>23342600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>12.56999969482422</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="B57">
-        <v>13.06999969482422</v>
+        <v>10.90999984741211</v>
       </c>
       <c r="C57">
-        <v>12.10999965667725</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D57">
-        <v>12.9399995803833</v>
+        <v>10.5</v>
       </c>
       <c r="E57">
-        <v>12.9399995803833</v>
+        <v>10.5</v>
       </c>
       <c r="F57">
-        <v>56022300</v>
+        <v>18239100</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>13.36999988555908</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B58">
-        <v>13.94999980926514</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="C58">
-        <v>12.97000026702881</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D58">
-        <v>13.02999973297119</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E58">
-        <v>13.02999973297119</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F58">
-        <v>61294100</v>
+        <v>15538500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>12.77999973297119</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B59">
-        <v>13.30000019073486</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C59">
-        <v>12.26000022888184</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D59">
-        <v>12.97000026702881</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="E59">
-        <v>12.97000026702881</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="F59">
-        <v>28670000</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>12.72999954223633</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="B60">
-        <v>13.14999961853027</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="C60">
-        <v>12.30000019073486</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D60">
-        <v>12.34000015258789</v>
+        <v>10.25</v>
       </c>
       <c r="E60">
-        <v>12.34000015258789</v>
+        <v>10.25</v>
       </c>
       <c r="F60">
-        <v>16254700</v>
+        <v>20593400</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>11.92000007629395</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="B61">
-        <v>12.14000034332275</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="C61">
-        <v>10.69999980926514</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="D61">
-        <v>10.89999961853027</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="E61">
-        <v>10.89999961853027</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="F61">
-        <v>42792400</v>
+        <v>21916200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>11.19999980926514</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="B62">
-        <v>11.39999961853027</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C62">
-        <v>10.69999980926514</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="D62">
-        <v>10.93000030517578</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="E62">
-        <v>10.93000030517578</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="F62">
-        <v>24096900</v>
+        <v>29217800</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>11.19999980926514</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="B63">
-        <v>11.19999980926514</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C63">
-        <v>10.22000026702881</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="D63">
-        <v>10.48999977111816</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="E63">
-        <v>10.48999977111816</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="F63">
-        <v>23342600</v>
+        <v>21379100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>10.47000026702881</v>
+        <v>9.510000228881836</v>
       </c>
       <c r="B64">
-        <v>10.90999984741211</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C64">
-        <v>10.23999977111816</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="D64">
-        <v>10.5</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E64">
-        <v>10.5</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F64">
-        <v>18239100</v>
+        <v>25914700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>10.52999973297119</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="B65">
-        <v>11.05000019073486</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="C65">
-        <v>10.31999969482422</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="D65">
-        <v>10.89999961853027</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="E65">
-        <v>10.89999961853027</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="F65">
-        <v>15538500</v>
+        <v>18864900</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>10.43000030517578</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B66">
-        <v>10.72999954223633</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="C66">
-        <v>10.30000019073486</v>
+        <v>9.25</v>
       </c>
       <c r="D66">
-        <v>10.56999969482422</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="E66">
-        <v>10.56999969482422</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="F66">
-        <v>12165000</v>
+        <v>16530900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>10.60000038146973</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="B67">
-        <v>10.61999988555908</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="C67">
-        <v>10.02999973297119</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="D67">
-        <v>10.25</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="E67">
-        <v>10.25</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="F67">
-        <v>20593400</v>
+        <v>16712300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>10.1899995803833</v>
+        <v>9.5</v>
       </c>
       <c r="B68">
-        <v>10.51000022888184</v>
+        <v>9.75</v>
       </c>
       <c r="C68">
-        <v>9.649999618530273</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="D68">
-        <v>10.11999988555908</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E68">
-        <v>10.11999988555908</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F68">
-        <v>21916200</v>
+        <v>19085100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>10.19999980926514</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B69">
-        <v>10.26000022888184</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C69">
-        <v>9.130000114440918</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="D69">
-        <v>9.270000457763672</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E69">
-        <v>9.270000457763672</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="F69">
-        <v>29217800</v>
+        <v>20077900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>9.260000228881836</v>
+        <v>8.539999961853027</v>
       </c>
       <c r="B70">
-        <v>9.600000381469727</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C70">
-        <v>9.100000381469727</v>
+        <v>8.079999923706055</v>
       </c>
       <c r="D70">
-        <v>9.539999961853027</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="E70">
-        <v>9.539999961853027</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="F70">
-        <v>21379100</v>
+        <v>20232400</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>9.510000228881836</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="B71">
-        <v>9.550000190734863</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="C71">
-        <v>8.689999580383301</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D71">
-        <v>8.949999809265137</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="E71">
-        <v>8.949999809265137</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="F71">
-        <v>25914700</v>
+        <v>16321800</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>8.800000190734863</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="B72">
-        <v>9.350000381469727</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="C72">
-        <v>8.439999580383301</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D72">
-        <v>9.149999618530273</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="E72">
-        <v>9.149999618530273</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="F72">
-        <v>18864900</v>
+        <v>22453700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>9.319999694824219</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="B73">
-        <v>9.640000343322754</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C73">
-        <v>9.25</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="D73">
-        <v>9.439999580383301</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="E73">
-        <v>9.439999580383301</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="F73">
-        <v>16530900</v>
+        <v>18551100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>9.539999961853027</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="B74">
-        <v>9.939999580383301</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="C74">
-        <v>9.229999542236328</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="D74">
-        <v>9.609999656677246</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="E74">
-        <v>9.609999656677246</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F74">
-        <v>16712300</v>
+        <v>27219600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>9.5</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="B75">
-        <v>9.75</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C75">
-        <v>8.920000076293945</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="D75">
-        <v>8.939999580383301</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="E75">
-        <v>8.939999580383301</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="F75">
-        <v>19085100</v>
+        <v>22899900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>8.989999771118164</v>
+        <v>7.5</v>
       </c>
       <c r="B76">
-        <v>9.069999694824219</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="C76">
-        <v>8.510000228881836</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="D76">
-        <v>8.619999885559082</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="E76">
-        <v>8.619999885559082</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="F76">
-        <v>20077900</v>
+        <v>19972200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>8.539999961853027</v>
+        <v>7.75</v>
       </c>
       <c r="B77">
-        <v>8.579999923706055</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="C77">
-        <v>8.079999923706055</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="D77">
-        <v>8.289999961853027</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="E77">
-        <v>8.289999961853027</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="F77">
-        <v>20232400</v>
+        <v>12366300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>8.020000457763672</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="B78">
-        <v>8.439999580383301</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="C78">
-        <v>7.940000057220459</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D78">
-        <v>8.050000190734863</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="E78">
-        <v>8.050000190734863</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="F78">
-        <v>16321800</v>
+        <v>16615900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>8.029999732971191</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="B79">
-        <v>8.229999542236328</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C79">
-        <v>7.670000076293945</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D79">
-        <v>8.140000343322754</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E79">
-        <v>8.140000343322754</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F79">
-        <v>22453700</v>
+        <v>16313100</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>8.189999580383301</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B80">
-        <v>8.399999618530273</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="C80">
-        <v>7.760000228881836</v>
+        <v>7.25</v>
       </c>
       <c r="D80">
-        <v>7.880000114440918</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E80">
-        <v>7.880000114440918</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F80">
-        <v>18551100</v>
+        <v>18199300</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>7.679999828338623</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="B81">
-        <v>8.109999656677246</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="C81">
-        <v>7.400000095367432</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D81">
-        <v>7.980000019073486</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="E81">
-        <v>7.980000019073486</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="F81">
-        <v>27219600</v>
+        <v>23466400</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>7.710000038146973</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B82">
-        <v>7.829999923706055</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C82">
-        <v>7.309999942779541</v>
+        <v>7</v>
       </c>
       <c r="D82">
-        <v>7.460000038146973</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E82">
-        <v>7.460000038146973</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F82">
-        <v>22899900</v>
+        <v>28741300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>7.5</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B83">
-        <v>7.929999828338623</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="C83">
-        <v>7.46999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D83">
-        <v>7.849999904632568</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E83">
-        <v>7.849999904632568</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F83">
-        <v>19972200</v>
+        <v>20258500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>7.75</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="B84">
-        <v>7.889999866485596</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C84">
-        <v>7.579999923706055</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D84">
-        <v>7.739999771118164</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E84">
-        <v>7.739999771118164</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F84">
-        <v>12366300</v>
+        <v>21556900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>7.760000228881836</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B85">
-        <v>7.960000038146973</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C85">
-        <v>7.53000020980835</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D85">
-        <v>7.840000152587891</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E85">
-        <v>7.840000152587891</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F85">
-        <v>16615900</v>
+        <v>24622800</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>7.849999904632568</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B86">
-        <v>7.849999904632568</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C86">
-        <v>7.53000020980835</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D86">
-        <v>7.610000133514404</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E86">
-        <v>7.610000133514404</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F86">
-        <v>16313100</v>
+        <v>30015800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>7.550000190734863</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B87">
-        <v>7.679999828338623</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C87">
-        <v>7.25</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="D87">
-        <v>7.28000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E87">
-        <v>7.28000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F87">
-        <v>18199300</v>
+        <v>27322300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>7.269999980926514</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B88">
-        <v>7.380000114440918</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="C88">
-        <v>6.96999979019165</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D88">
-        <v>7.050000190734863</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E88">
-        <v>7.050000190734863</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F88">
-        <v>23466400</v>
+        <v>27156200</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>7.019999980926514</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="B89">
-        <v>7.559999942779541</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D89">
-        <v>7.28000020980835</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E89">
-        <v>7.28000020980835</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F89">
-        <v>28741300</v>
+        <v>107145700</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>7.210000038146973</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="B90">
-        <v>7.489999771118164</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C90">
-        <v>7.03000020980835</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D90">
-        <v>7.03000020980835</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E90">
-        <v>7.03000020980835</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F90">
-        <v>20258500</v>
+        <v>33490300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>7.190000057220459</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B91">
         <v>7.699999809265137</v>
       </c>
       <c r="C91">
-        <v>7.079999923706055</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="D91">
-        <v>7.389999866485596</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E91">
-        <v>7.389999866485596</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F91">
-        <v>21556900</v>
+        <v>23457700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>7.460000038146973</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B92">
-        <v>7.480000019073486</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C92">
-        <v>6.960000038146973</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D92">
-        <v>7.110000133514404</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="E92">
-        <v>7.110000133514404</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="F92">
-        <v>24622800</v>
+        <v>16643300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>7.059999942779541</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="B93">
-        <v>7.289999961853027</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C93">
-        <v>6.610000133514404</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D93">
-        <v>6.630000114440918</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="E93">
-        <v>6.630000114440918</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F93">
-        <v>30015800</v>
+        <v>18008500</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2260,699 +2260,659 @@
         <v>6.670000076293945</v>
       </c>
       <c r="B94">
-        <v>6.840000152587891</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="C94">
-        <v>6.360000133514404</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="D94">
-        <v>6.440000057220459</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="E94">
-        <v>6.440000057220459</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="F94">
-        <v>27322300</v>
+        <v>21597000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6.510000228881836</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B95">
-        <v>6.769999980926514</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C95">
-        <v>6.289999961853027</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D95">
-        <v>6.420000076293945</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E95">
-        <v>6.420000076293945</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F95">
-        <v>27156200</v>
+        <v>25170900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>7.159999847412109</v>
+        <v>6</v>
       </c>
       <c r="B96">
-        <v>7.840000152587891</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="C96">
-        <v>6.949999809265137</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D96">
-        <v>7.289999961853027</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E96">
-        <v>7.289999961853027</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F96">
-        <v>107145700</v>
+        <v>24224700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>6.960000038146973</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="B97">
-        <v>7.559999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="C97">
-        <v>6.800000190734863</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D97">
-        <v>7.380000114440918</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="E97">
-        <v>7.380000114440918</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="F97">
-        <v>33490300</v>
+        <v>25137900</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>7.489999771118164</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B98">
-        <v>7.699999809265137</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C98">
-        <v>7.070000171661377</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="D98">
-        <v>7.150000095367432</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="E98">
-        <v>7.150000095367432</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="F98">
-        <v>23457700</v>
+        <v>28766400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>7.199999809265137</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B99">
-        <v>7.309999942779541</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C99">
-        <v>6.849999904632568</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D99">
-        <v>6.869999885559082</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E99">
-        <v>6.869999885559082</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F99">
-        <v>16643300</v>
+        <v>15242400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>6.769999980926514</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B100">
-        <v>6.949999809265137</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C100">
-        <v>6.630000114440918</v>
+        <v>5.460000038146973</v>
       </c>
       <c r="D100">
-        <v>6.860000133514404</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="E100">
-        <v>6.860000133514404</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="F100">
-        <v>18008500</v>
+        <v>20766700</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>6.670000076293945</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="B101">
-        <v>6.789999961853027</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C101">
-        <v>6.269999980926514</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D101">
-        <v>6.289999961853027</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="E101">
-        <v>6.289999961853027</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="F101">
-        <v>21597000</v>
+        <v>24067200</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>6.320000171661377</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="B102">
-        <v>6.409999847412109</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C102">
-        <v>5.940000057220459</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D102">
-        <v>5.96999979019165</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="E102">
-        <v>5.96999979019165</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="F102">
-        <v>25170900</v>
+        <v>19750600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="B103">
-        <v>6.340000152587891</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C103">
-        <v>5.900000095367432</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D103">
-        <v>5.920000076293945</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="E103">
-        <v>5.920000076293945</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="F103">
-        <v>24224700</v>
+        <v>18665900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>5.829999923706055</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="B104">
-        <v>6.079999923706055</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C104">
-        <v>5.699999809265137</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D104">
-        <v>5.789999961853027</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="E104">
-        <v>5.789999961853027</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="F104">
-        <v>25137900</v>
+        <v>20392700</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>5.510000228881836</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B105">
-        <v>5.849999904632568</v>
+        <v>6.25</v>
       </c>
       <c r="C105">
-        <v>5.199999809265137</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D105">
-        <v>5.840000152587891</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="E105">
-        <v>5.840000152587891</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="F105">
-        <v>28766400</v>
+        <v>15233700</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>5.659999847412109</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="B106">
-        <v>5.869999885559082</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="C106">
-        <v>5.550000190734863</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D106">
-        <v>5.71999979019165</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="E106">
-        <v>5.71999979019165</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="F106">
-        <v>15242400</v>
+        <v>11710900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>5.860000133514404</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="B107">
-        <v>5.869999885559082</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="C107">
-        <v>5.460000038146973</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D107">
-        <v>5.559999942779541</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E107">
-        <v>5.559999942779541</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F107">
-        <v>20766700</v>
+        <v>14268100</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>5.570000171661377</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="B108">
-        <v>5.630000114440918</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="C108">
-        <v>5.150000095367432</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D108">
-        <v>5.21999979019165</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E108">
-        <v>5.21999979019165</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F108">
-        <v>24067200</v>
+        <v>14856100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>5.239999771118164</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B109">
-        <v>5.519999980926514</v>
+        <v>6.260000228881836</v>
       </c>
       <c r="C109">
-        <v>5.150000095367432</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D109">
-        <v>5.480000019073486</v>
+        <v>6.25</v>
       </c>
       <c r="E109">
-        <v>5.480000019073486</v>
+        <v>6.25</v>
       </c>
       <c r="F109">
-        <v>19750600</v>
+        <v>12634800</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>5.5</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B110">
-        <v>6.010000228881836</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C110">
-        <v>5.46999979019165</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D110">
-        <v>5.960000038146973</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E110">
-        <v>5.960000038146973</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F110">
-        <v>18665900</v>
+        <v>28831200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>6.050000190734863</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B111">
-        <v>6.360000133514404</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C111">
-        <v>5.840000152587891</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="D111">
-        <v>6.21999979019165</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>6.21999979019165</v>
+        <v>7</v>
       </c>
       <c r="F111">
-        <v>20392700</v>
+        <v>30866200</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>6.170000076293945</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="B112">
-        <v>6.25</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="C112">
-        <v>5.889999866485596</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="D112">
-        <v>5.980000019073486</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="E112">
-        <v>5.980000019073486</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="F112">
-        <v>15233700</v>
+        <v>31495200</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>5.820000171661377</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B113">
-        <v>5.920000076293945</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C113">
-        <v>5.630000114440918</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="D113">
-        <v>5.650000095367432</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="E113">
-        <v>5.650000095367432</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="F113">
-        <v>11710900</v>
+        <v>20311900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>5.670000076293945</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="B114">
-        <v>6.019999980926514</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="C114">
-        <v>5.630000114440918</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D114">
-        <v>5.949999809265137</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E114">
-        <v>5.949999809265137</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F114">
-        <v>14268100</v>
+        <v>14703300</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>6.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B115">
-        <v>6.230000019073486</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C115">
-        <v>5.909999847412109</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D115">
-        <v>6.03000020980835</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E115">
-        <v>6.03000020980835</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F115">
-        <v>14856100</v>
+        <v>17451600</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>6.010000228881836</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B116">
-        <v>6.260000228881836</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="C116">
-        <v>5.920000076293945</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="D116">
-        <v>6.25</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E116">
-        <v>6.25</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F116">
-        <v>12634800</v>
+        <v>15178900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>6.420000076293945</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B117">
-        <v>6.96999979019165</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C117">
-        <v>6.349999904632568</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D117">
-        <v>6.920000076293945</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E117">
-        <v>6.920000076293945</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F117">
-        <v>28831200</v>
+        <v>14587000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>6.699999809265137</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B118">
-        <v>7.389999866485596</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C118">
-        <v>6.539999961853027</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="F118">
-        <v>30866200</v>
+        <v>14213800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>6.920000076293945</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B119">
-        <v>7.360000133514404</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C119">
-        <v>6.840000152587891</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D119">
-        <v>7.119999885559082</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="E119">
-        <v>7.119999885559082</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="F119">
-        <v>31495200</v>
+        <v>14026800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>7.110000133514404</v>
+        <v>5.5</v>
       </c>
       <c r="B120">
-        <v>7.329999923706055</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C120">
-        <v>6.690000057220459</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D120">
-        <v>6.71999979019165</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="E120">
-        <v>6.71999979019165</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="F120">
-        <v>20311900</v>
+        <v>22123900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>6.909999847412109</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="B121">
-        <v>7.190000057220459</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="C121">
-        <v>6.849999904632568</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="D121">
-        <v>7.150000095367432</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="E121">
-        <v>7.150000095367432</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="F121">
-        <v>14703300</v>
+        <v>11057500</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>7.070000171661377</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="B122">
-        <v>7.480000019073486</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C122">
-        <v>6.920000076293945</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="D122">
-        <v>7.199999809265137</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="E122">
-        <v>7.199999809265137</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="F122">
-        <v>17451600</v>
+        <v>13842800</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>7.059999942779541</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="B123">
-        <v>7.190000057220459</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="C123">
-        <v>6.659999847412109</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="D123">
-        <v>6.710000038146973</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="E123">
-        <v>6.710000038146973</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F123">
-        <v>15178900</v>
+        <v>14021600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>6.730000019073486</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="B124">
-        <v>6.800000190734863</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="C124">
-        <v>6.320000171661377</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="D124">
-        <v>6.389999866485596</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="E124">
-        <v>6.389999866485596</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="F124">
-        <v>14504700</v>
+        <v>15712800</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>6.170000076293945</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="B125">
-        <v>6.360000133514404</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="C125">
-        <v>6.03000020980835</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="D125">
-        <v>6.090000152587891</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="E125">
-        <v>6.090000152587891</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="F125">
-        <v>14213800</v>
+        <v>23081100</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>6.210000038146973</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="B126">
-        <v>6.380000114440918</v>
+        <v>5.615600109100342</v>
       </c>
       <c r="C126">
-        <v>5.889999866485596</v>
+        <v>5.164999961853027</v>
       </c>
       <c r="D126">
-        <v>5.909999847412109</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="E126">
-        <v>5.909999847412109</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="F126">
-        <v>14026800</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>5.5</v>
-      </c>
-      <c r="B127">
-        <v>6.179999828338623</v>
-      </c>
-      <c r="C127">
-        <v>5.429999828338623</v>
-      </c>
-      <c r="D127">
-        <v>6.170000076293945</v>
-      </c>
-      <c r="E127">
-        <v>6.170000076293945</v>
-      </c>
-      <c r="F127">
-        <v>22123900</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>6.21999979019165</v>
-      </c>
-      <c r="B128">
-        <v>6.230000019073486</v>
-      </c>
-      <c r="C128">
-        <v>5.929999828338623</v>
-      </c>
-      <c r="D128">
-        <v>6.059999942779541</v>
-      </c>
-      <c r="E128">
-        <v>6.059999942779541</v>
-      </c>
-      <c r="F128">
-        <v>11023900</v>
+        <v>21251487</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TLRY/HighLow.xlsx
+++ b/Stocks/TLRY/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,233 +417,233 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>13.60000038146973</v>
+        <v>12.4399995803833</v>
       </c>
       <c r="B2">
-        <v>13.67000007629395</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="C2">
-        <v>13.17000007629395</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="D2">
-        <v>13.30000019073486</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="E2">
-        <v>13.30000019073486</v>
+        <v>12.22999954223633</v>
       </c>
       <c r="F2">
-        <v>12900500</v>
+        <v>16030700</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>13.22000026702881</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="B3">
-        <v>13.32999992370605</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="C3">
-        <v>12.77000045776367</v>
+        <v>11.72000026702881</v>
       </c>
       <c r="D3">
-        <v>12.80000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="E3">
-        <v>12.80000019073486</v>
+        <v>11.73999977111816</v>
       </c>
       <c r="F3">
-        <v>14441300</v>
+        <v>16072900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>12.9399995803833</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B4">
-        <v>13.14999961853027</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C4">
-        <v>12.76000022888184</v>
+        <v>11.68000030517578</v>
       </c>
       <c r="D4">
-        <v>12.85999965667725</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="E4">
-        <v>12.85999965667725</v>
+        <v>12.02999973297119</v>
       </c>
       <c r="F4">
-        <v>12649000</v>
+        <v>12982400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>12.96000003814697</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>12.96000003814697</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C5">
-        <v>12.39999961853027</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="D5">
-        <v>12.40999984741211</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="E5">
-        <v>12.40999984741211</v>
+        <v>12.01000022888184</v>
       </c>
       <c r="F5">
-        <v>18407600</v>
+        <v>9316000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>12.4399995803833</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>12.47000026702881</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C6">
-        <v>11.92000007629395</v>
+        <v>11.75</v>
       </c>
       <c r="D6">
-        <v>12.22999954223633</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="E6">
-        <v>12.22999954223633</v>
+        <v>12.17000007629395</v>
       </c>
       <c r="F6">
-        <v>16030700</v>
+        <v>13644900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>12.26000022888184</v>
+        <v>11.76000022888184</v>
       </c>
       <c r="B7">
-        <v>12.3100004196167</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C7">
-        <v>11.72000026702881</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D7">
-        <v>11.73999977111816</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="E7">
-        <v>11.73999977111816</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="F7">
-        <v>16072900</v>
+        <v>25536800</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>11.76000022888184</v>
+        <v>11.22999954223633</v>
       </c>
       <c r="B8">
-        <v>12.1899995803833</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="C8">
-        <v>11.68000030517578</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="D8">
-        <v>12.02999973297119</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="E8">
-        <v>12.02999973297119</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F8">
-        <v>12982400</v>
+        <v>19702500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>12</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="B9">
-        <v>12.23999977111816</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="C9">
-        <v>11.89999961853027</v>
+        <v>11.25</v>
       </c>
       <c r="D9">
-        <v>12.01000022888184</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="E9">
-        <v>12.01000022888184</v>
+        <v>11.63000011444092</v>
       </c>
       <c r="F9">
-        <v>9316000</v>
+        <v>16297000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>12</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="B10">
-        <v>12.19999980926514</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="C10">
-        <v>11.75</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="D10">
-        <v>12.17000007629395</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="E10">
-        <v>12.17000007629395</v>
+        <v>12.02000045776367</v>
       </c>
       <c r="F10">
-        <v>13644900</v>
+        <v>21476600</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>11.76000022888184</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="B11">
-        <v>11.77000045776367</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="C11">
-        <v>11.02000045776367</v>
+        <v>11.64000034332275</v>
       </c>
       <c r="D11">
-        <v>11.22999954223633</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="E11">
-        <v>11.22999954223633</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="F11">
-        <v>25536800</v>
+        <v>13173400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>11.22999954223633</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="B12">
-        <v>11.53999996185303</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="C12">
-        <v>11.02999973297119</v>
+        <v>11.64999961853027</v>
       </c>
       <c r="D12">
-        <v>11.22000026702881</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="E12">
-        <v>11.22000026702881</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="F12">
-        <v>19702500</v>
+        <v>14941700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>11.27999973297119</v>
+        <v>12.03999996185303</v>
       </c>
       <c r="B13">
-        <v>11.88000011444092</v>
+        <v>12.1899995803833</v>
       </c>
       <c r="C13">
-        <v>11.25</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D13">
         <v>11.63000011444092</v>
@@ -652,818 +652,818 @@
         <v>11.63000011444092</v>
       </c>
       <c r="F13">
-        <v>16297000</v>
+        <v>17537500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>12.19999980926514</v>
+        <v>11.72999954223633</v>
       </c>
       <c r="B14">
-        <v>12.39999961853027</v>
+        <v>11.77000045776367</v>
       </c>
       <c r="C14">
-        <v>11.86999988555908</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="D14">
-        <v>12.02000045776367</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E14">
-        <v>12.02000045776367</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F14">
-        <v>21476600</v>
+        <v>17441800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>11.85000038146973</v>
+        <v>11.17000007629395</v>
       </c>
       <c r="B15">
-        <v>11.97999954223633</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C15">
-        <v>11.64000034332275</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="D15">
-        <v>11.67000007629395</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="E15">
-        <v>11.67000007629395</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="F15">
-        <v>13173400</v>
+        <v>20291000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>11.69999980926514</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="B16">
-        <v>12.27000045776367</v>
+        <v>11.36999988555908</v>
       </c>
       <c r="C16">
-        <v>11.64999961853027</v>
+        <v>10.84000015258789</v>
       </c>
       <c r="D16">
-        <v>12.22000026702881</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="E16">
-        <v>12.22000026702881</v>
+        <v>11.14999961853027</v>
       </c>
       <c r="F16">
-        <v>14941700</v>
+        <v>18180300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>12.03999996185303</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="B17">
-        <v>12.1899995803833</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="C17">
-        <v>11.60000038146973</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D17">
-        <v>11.63000011444092</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="E17">
-        <v>11.63000011444092</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="F17">
-        <v>17537500</v>
+        <v>14980700</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>11.72999954223633</v>
+        <v>10.75</v>
       </c>
       <c r="B18">
-        <v>11.77000045776367</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="C18">
-        <v>11.09000015258789</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D18">
-        <v>11.10999965667725</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E18">
-        <v>11.10999965667725</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="F18">
-        <v>17441800</v>
+        <v>18162500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>11.17000007629395</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="B19">
-        <v>11.52999973297119</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="C19">
-        <v>10.94999980926514</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="D19">
-        <v>11.28999996185303</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="E19">
-        <v>11.28999996185303</v>
+        <v>10.78999996185303</v>
       </c>
       <c r="F19">
-        <v>20291000</v>
+        <v>18595400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>11.28999996185303</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="B20">
-        <v>11.36999988555908</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="C20">
-        <v>10.84000015258789</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D20">
-        <v>11.14999961853027</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="E20">
-        <v>11.14999961853027</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F20">
-        <v>18180300</v>
+        <v>34914000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>11.02000045776367</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="B21">
-        <v>11.10999965667725</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C21">
-        <v>10.68000030517578</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D21">
-        <v>10.73999977111816</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E21">
-        <v>10.73999977111816</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F21">
-        <v>14980700</v>
+        <v>20199900</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>10.75</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="B22">
-        <v>11.34000015258789</v>
+        <v>10.60999965667725</v>
       </c>
       <c r="C22">
-        <v>10.68000030517578</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="D22">
-        <v>11.10000038146973</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="E22">
-        <v>11.10000038146973</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="F22">
-        <v>18162500</v>
+        <v>12642500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>10.89999961853027</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="B23">
-        <v>10.9399995803833</v>
+        <v>10.5600004196167</v>
       </c>
       <c r="C23">
-        <v>10.68000030517578</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="D23">
-        <v>10.78999996185303</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="E23">
-        <v>10.78999996185303</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F23">
-        <v>18595400</v>
+        <v>13749900</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>10.81999969482422</v>
+        <v>10.34000015258789</v>
       </c>
       <c r="B24">
-        <v>11.42000007629395</v>
+        <v>10.53999996185303</v>
       </c>
       <c r="C24">
-        <v>10.36999988555908</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="D24">
-        <v>11.02000045776367</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="E24">
-        <v>11.02000045776367</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="F24">
-        <v>34914000</v>
+        <v>10136900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>10.85000038146973</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="B25">
-        <v>11.07999992370605</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="C25">
-        <v>10.46000003814697</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="D25">
-        <v>10.48999977111816</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="E25">
-        <v>10.48999977111816</v>
+        <v>10.39000034332275</v>
       </c>
       <c r="F25">
-        <v>20199900</v>
+        <v>14890300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>10.36999988555908</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="B26">
-        <v>10.60999965667725</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="C26">
-        <v>10.14999961853027</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D26">
-        <v>10.15999984741211</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="E26">
-        <v>10.15999984741211</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F26">
-        <v>12642500</v>
+        <v>13082200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>10.15999984741211</v>
+        <v>10.21000003814697</v>
       </c>
       <c r="B27">
-        <v>10.5600004196167</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="C27">
-        <v>10.11999988555908</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="D27">
-        <v>10.27999973297119</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="E27">
-        <v>10.27999973297119</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="F27">
-        <v>13749900</v>
+        <v>13975100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>10.34000015258789</v>
+        <v>10.17000007629395</v>
       </c>
       <c r="B28">
-        <v>10.53999996185303</v>
+        <v>11.82999992370605</v>
       </c>
       <c r="C28">
-        <v>10.19999980926514</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D28">
-        <v>10.28999996185303</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="E28">
-        <v>10.28999996185303</v>
+        <v>11.65999984741211</v>
       </c>
       <c r="F28">
-        <v>10136900</v>
+        <v>68798000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>10.42000007629395</v>
+        <v>11.55000019073486</v>
       </c>
       <c r="B29">
-        <v>10.8100004196167</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C29">
-        <v>10.36999988555908</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="D29">
-        <v>10.39000034332275</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="E29">
-        <v>10.39000034332275</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="F29">
-        <v>14890300</v>
+        <v>44082000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>10.46000003814697</v>
+        <v>11.46000003814697</v>
       </c>
       <c r="B30">
-        <v>10.52999973297119</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="C30">
-        <v>10.1899995803833</v>
+        <v>11.42000007629395</v>
       </c>
       <c r="D30">
-        <v>10.23999977111816</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="E30">
-        <v>10.23999977111816</v>
+        <v>11.5600004196167</v>
       </c>
       <c r="F30">
-        <v>13082200</v>
+        <v>30666900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>10.21000003814697</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="B31">
-        <v>10.23999977111816</v>
+        <v>11.52999973297119</v>
       </c>
       <c r="C31">
-        <v>9.979999542236328</v>
+        <v>10.9399995803833</v>
       </c>
       <c r="D31">
-        <v>10.06999969482422</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="E31">
-        <v>10.06999969482422</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="F31">
-        <v>13975100</v>
+        <v>18841500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>10.17000007629395</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="B32">
-        <v>11.82999992370605</v>
+        <v>11.28999996185303</v>
       </c>
       <c r="C32">
-        <v>10.02999973297119</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="D32">
-        <v>11.65999984741211</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>11.65999984741211</v>
+        <v>11</v>
       </c>
       <c r="F32">
-        <v>68798000</v>
+        <v>13868500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>11.55000019073486</v>
+        <v>11.06999969482422</v>
       </c>
       <c r="B33">
-        <v>11.80000019073486</v>
+        <v>11.14000034332275</v>
       </c>
       <c r="C33">
-        <v>11.02000045776367</v>
+        <v>10.57999992370605</v>
       </c>
       <c r="D33">
-        <v>11.59000015258789</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="E33">
-        <v>11.59000015258789</v>
+        <v>10.71000003814697</v>
       </c>
       <c r="F33">
-        <v>44082000</v>
+        <v>15137800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>11.46000003814697</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="B34">
-        <v>12.15999984741211</v>
+        <v>10.82999992370605</v>
       </c>
       <c r="C34">
-        <v>11.42000007629395</v>
+        <v>10.28999996185303</v>
       </c>
       <c r="D34">
-        <v>11.5600004196167</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E34">
-        <v>11.5600004196167</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F34">
-        <v>30666900</v>
+        <v>15093900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>11.52999973297119</v>
+        <v>10.32999992370605</v>
       </c>
       <c r="B35">
-        <v>11.52999973297119</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="C35">
-        <v>10.9399995803833</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="D35">
-        <v>11.07999992370605</v>
+        <v>10.5</v>
       </c>
       <c r="E35">
-        <v>11.07999992370605</v>
+        <v>10.5</v>
       </c>
       <c r="F35">
-        <v>18841500</v>
+        <v>11171600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>11.05000019073486</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B36">
-        <v>11.28999996185303</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C36">
-        <v>10.88000011444092</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="F36">
-        <v>13868500</v>
+        <v>11177500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>11.06999969482422</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="B37">
-        <v>11.14000034332275</v>
+        <v>10.88000011444092</v>
       </c>
       <c r="C37">
-        <v>10.57999992370605</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="D37">
-        <v>10.71000003814697</v>
+        <v>10.75</v>
       </c>
       <c r="E37">
-        <v>10.71000003814697</v>
+        <v>10.75</v>
       </c>
       <c r="F37">
-        <v>15137800</v>
+        <v>17396100</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>10.69999980926514</v>
+        <v>10.72000026702881</v>
       </c>
       <c r="B38">
-        <v>10.82999992370605</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C38">
-        <v>10.28999996185303</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D38">
-        <v>10.30000019073486</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="E38">
-        <v>10.30000019073486</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F38">
-        <v>15093900</v>
+        <v>14972500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>10.32999992370605</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="B39">
-        <v>10.56999969482422</v>
+        <v>11.09000015258789</v>
       </c>
       <c r="C39">
-        <v>10.1899995803833</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D39">
-        <v>10.5</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="E39">
-        <v>10.5</v>
+        <v>10.85999965667725</v>
       </c>
       <c r="F39">
-        <v>11171600</v>
+        <v>17924500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>10.43000030517578</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="B40">
-        <v>10.64000034332275</v>
+        <v>11.27999973297119</v>
       </c>
       <c r="C40">
-        <v>10.22000026702881</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D40">
-        <v>10.30000019073486</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="E40">
-        <v>10.30000019073486</v>
+        <v>10.8100004196167</v>
       </c>
       <c r="F40">
-        <v>11177500</v>
+        <v>14915500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>10.23999977111816</v>
+        <v>10.75</v>
       </c>
       <c r="B41">
-        <v>10.88000011444092</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="C41">
-        <v>10.10000038146973</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="D41">
-        <v>10.75</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="E41">
-        <v>10.75</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="F41">
-        <v>17396100</v>
+        <v>23511900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>10.72000026702881</v>
+        <v>10.73999977111816</v>
       </c>
       <c r="B42">
-        <v>10.72999954223633</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="C42">
-        <v>10.23999977111816</v>
+        <v>10.6899995803833</v>
       </c>
       <c r="D42">
-        <v>10.42000007629395</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="E42">
-        <v>10.42000007629395</v>
+        <v>12.36999988555908</v>
       </c>
       <c r="F42">
-        <v>14972500</v>
+        <v>48931600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>10.38000011444092</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="B43">
-        <v>11.09000015258789</v>
+        <v>12.71000003814697</v>
       </c>
       <c r="C43">
-        <v>10.31999969482422</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D43">
-        <v>10.85999965667725</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="E43">
-        <v>10.85999965667725</v>
+        <v>12.38000011444092</v>
       </c>
       <c r="F43">
-        <v>17924500</v>
+        <v>33221600</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>11.13000011444092</v>
+        <v>11.98999977111816</v>
       </c>
       <c r="B44">
-        <v>11.27999973297119</v>
+        <v>12.44999980926514</v>
       </c>
       <c r="C44">
-        <v>10.69999980926514</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="D44">
-        <v>10.8100004196167</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="E44">
-        <v>10.8100004196167</v>
+        <v>11.52000045776367</v>
       </c>
       <c r="F44">
-        <v>14915500</v>
+        <v>21170700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>10.75</v>
+        <v>11.67000007629395</v>
       </c>
       <c r="B45">
-        <v>10.77000045776367</v>
+        <v>12.13000011444092</v>
       </c>
       <c r="C45">
-        <v>10.15999984741211</v>
+        <v>11.56999969482422</v>
       </c>
       <c r="D45">
-        <v>10.69999980926514</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="E45">
-        <v>10.69999980926514</v>
+        <v>11.85999965667725</v>
       </c>
       <c r="F45">
-        <v>23511900</v>
+        <v>17104100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>10.73999977111816</v>
+        <v>12.56999969482422</v>
       </c>
       <c r="B46">
-        <v>12.56999969482422</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="C46">
-        <v>10.6899995803833</v>
+        <v>12.10999965667725</v>
       </c>
       <c r="D46">
-        <v>12.36999988555908</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="E46">
-        <v>12.36999988555908</v>
+        <v>12.9399995803833</v>
       </c>
       <c r="F46">
-        <v>48931600</v>
+        <v>56022300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>12.14000034332275</v>
+        <v>13.36999988555908</v>
       </c>
       <c r="B47">
-        <v>12.71000003814697</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="C47">
-        <v>11.51000022888184</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="D47">
-        <v>12.38000011444092</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="E47">
-        <v>12.38000011444092</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="F47">
-        <v>33221600</v>
+        <v>61294100</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>11.98999977111816</v>
+        <v>12.77999973297119</v>
       </c>
       <c r="B48">
-        <v>12.44999980926514</v>
+        <v>13.30000019073486</v>
       </c>
       <c r="C48">
-        <v>11.39999961853027</v>
+        <v>12.26000022888184</v>
       </c>
       <c r="D48">
-        <v>11.52000045776367</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="E48">
-        <v>11.52000045776367</v>
+        <v>12.97000026702881</v>
       </c>
       <c r="F48">
-        <v>21170700</v>
+        <v>28670000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>11.67000007629395</v>
+        <v>12.72999954223633</v>
       </c>
       <c r="B49">
-        <v>12.13000011444092</v>
+        <v>13.14999961853027</v>
       </c>
       <c r="C49">
-        <v>11.56999969482422</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="D49">
-        <v>11.85999965667725</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="E49">
-        <v>11.85999965667725</v>
+        <v>12.34000015258789</v>
       </c>
       <c r="F49">
-        <v>17104100</v>
+        <v>16254700</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>12.56999969482422</v>
+        <v>11.92000007629395</v>
       </c>
       <c r="B50">
-        <v>13.06999969482422</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="C50">
-        <v>12.10999965667725</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D50">
-        <v>12.9399995803833</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="E50">
-        <v>12.9399995803833</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="F50">
-        <v>56022300</v>
+        <v>42792400</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>13.36999988555908</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B51">
-        <v>13.94999980926514</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C51">
-        <v>12.97000026702881</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D51">
-        <v>13.02999973297119</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="E51">
-        <v>13.02999973297119</v>
+        <v>10.93000030517578</v>
       </c>
       <c r="F51">
-        <v>61294100</v>
+        <v>24096900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>12.77999973297119</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="B52">
-        <v>13.30000019073486</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="C52">
-        <v>12.26000022888184</v>
+        <v>10.22000026702881</v>
       </c>
       <c r="D52">
-        <v>12.97000026702881</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="E52">
-        <v>12.97000026702881</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="F52">
-        <v>28670000</v>
+        <v>23342600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>12.72999954223633</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="B53">
-        <v>13.14999961853027</v>
+        <v>10.90999984741211</v>
       </c>
       <c r="C53">
-        <v>12.30000019073486</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D53">
-        <v>12.34000015258789</v>
+        <v>10.5</v>
       </c>
       <c r="E53">
-        <v>12.34000015258789</v>
+        <v>10.5</v>
       </c>
       <c r="F53">
-        <v>16254700</v>
+        <v>18239100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>11.92000007629395</v>
+        <v>10.52999973297119</v>
       </c>
       <c r="B54">
-        <v>12.14000034332275</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="C54">
-        <v>10.69999980926514</v>
+        <v>10.31999969482422</v>
       </c>
       <c r="D54">
         <v>10.89999961853027</v>
@@ -1472,1447 +1472,1467 @@
         <v>10.89999961853027</v>
       </c>
       <c r="F54">
-        <v>42792400</v>
+        <v>15538500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>11.19999980926514</v>
+        <v>10.43000030517578</v>
       </c>
       <c r="B55">
-        <v>11.39999961853027</v>
+        <v>10.72999954223633</v>
       </c>
       <c r="C55">
-        <v>10.69999980926514</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="D55">
-        <v>10.93000030517578</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="E55">
-        <v>10.93000030517578</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="F55">
-        <v>24096900</v>
+        <v>12165000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>11.19999980926514</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="B56">
-        <v>11.19999980926514</v>
+        <v>10.61999988555908</v>
       </c>
       <c r="C56">
-        <v>10.22000026702881</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="D56">
-        <v>10.48999977111816</v>
+        <v>10.25</v>
       </c>
       <c r="E56">
-        <v>10.48999977111816</v>
+        <v>10.25</v>
       </c>
       <c r="F56">
-        <v>23342600</v>
+        <v>20593400</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>10.47000026702881</v>
+        <v>10.1899995803833</v>
       </c>
       <c r="B57">
-        <v>10.90999984741211</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="C57">
-        <v>10.23999977111816</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="D57">
-        <v>10.5</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="E57">
-        <v>10.5</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="F57">
-        <v>18239100</v>
+        <v>21916200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>10.52999973297119</v>
+        <v>10.19999980926514</v>
       </c>
       <c r="B58">
-        <v>11.05000019073486</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="C58">
-        <v>10.31999969482422</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="D58">
-        <v>10.89999961853027</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="E58">
-        <v>10.89999961853027</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="F58">
-        <v>15538500</v>
+        <v>29217800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>10.43000030517578</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="B59">
-        <v>10.72999954223633</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C59">
-        <v>10.30000019073486</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="D59">
-        <v>10.56999969482422</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="E59">
-        <v>10.56999969482422</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="F59">
-        <v>12165000</v>
+        <v>21379100</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>10.60000038146973</v>
+        <v>9.510000228881836</v>
       </c>
       <c r="B60">
-        <v>10.61999988555908</v>
+        <v>9.550000190734863</v>
       </c>
       <c r="C60">
-        <v>10.02999973297119</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="D60">
-        <v>10.25</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E60">
-        <v>10.25</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F60">
-        <v>20593400</v>
+        <v>25914700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>10.1899995803833</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="B61">
-        <v>10.51000022888184</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="C61">
-        <v>9.649999618530273</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="D61">
-        <v>10.11999988555908</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="E61">
-        <v>10.11999988555908</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="F61">
-        <v>21916200</v>
+        <v>18864900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>10.19999980926514</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B62">
-        <v>10.26000022888184</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="C62">
-        <v>9.130000114440918</v>
+        <v>9.25</v>
       </c>
       <c r="D62">
-        <v>9.270000457763672</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="E62">
-        <v>9.270000457763672</v>
+        <v>9.439999580383301</v>
       </c>
       <c r="F62">
-        <v>29217800</v>
+        <v>16530900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>9.260000228881836</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="B63">
-        <v>9.600000381469727</v>
+        <v>9.939999580383301</v>
       </c>
       <c r="C63">
-        <v>9.100000381469727</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="D63">
-        <v>9.539999961853027</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="E63">
-        <v>9.539999961853027</v>
+        <v>9.609999656677246</v>
       </c>
       <c r="F63">
-        <v>21379100</v>
+        <v>16712300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>9.510000228881836</v>
+        <v>9.5</v>
       </c>
       <c r="B64">
-        <v>9.550000190734863</v>
+        <v>9.75</v>
       </c>
       <c r="C64">
-        <v>8.689999580383301</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="D64">
-        <v>8.949999809265137</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="E64">
-        <v>8.949999809265137</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="F64">
-        <v>25914700</v>
+        <v>19085100</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>8.800000190734863</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="B65">
-        <v>9.350000381469727</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="C65">
-        <v>8.439999580383301</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="D65">
-        <v>9.149999618530273</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E65">
-        <v>9.149999618530273</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="F65">
-        <v>18864900</v>
+        <v>20077900</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>9.319999694824219</v>
+        <v>8.539999961853027</v>
       </c>
       <c r="B66">
-        <v>9.640000343322754</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C66">
-        <v>9.25</v>
+        <v>8.079999923706055</v>
       </c>
       <c r="D66">
-        <v>9.439999580383301</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="E66">
-        <v>9.439999580383301</v>
+        <v>8.289999961853027</v>
       </c>
       <c r="F66">
-        <v>16530900</v>
+        <v>20232400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>9.539999961853027</v>
+        <v>8.020000457763672</v>
       </c>
       <c r="B67">
-        <v>9.939999580383301</v>
+        <v>8.439999580383301</v>
       </c>
       <c r="C67">
-        <v>9.229999542236328</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="D67">
-        <v>9.609999656677246</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="E67">
-        <v>9.609999656677246</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="F67">
-        <v>16712300</v>
+        <v>16321800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>9.5</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="B68">
-        <v>9.75</v>
+        <v>8.229999542236328</v>
       </c>
       <c r="C68">
-        <v>8.920000076293945</v>
+        <v>7.670000076293945</v>
       </c>
       <c r="D68">
-        <v>8.939999580383301</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="E68">
-        <v>8.939999580383301</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="F68">
-        <v>19085100</v>
+        <v>22453700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>8.989999771118164</v>
+        <v>8.189999580383301</v>
       </c>
       <c r="B69">
-        <v>9.069999694824219</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C69">
-        <v>8.510000228881836</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="D69">
-        <v>8.619999885559082</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="E69">
-        <v>8.619999885559082</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="F69">
-        <v>20077900</v>
+        <v>18551100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>8.539999961853027</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="B70">
-        <v>8.579999923706055</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="C70">
-        <v>8.079999923706055</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="D70">
-        <v>8.289999961853027</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="E70">
-        <v>8.289999961853027</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F70">
-        <v>20232400</v>
+        <v>27219600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>8.020000457763672</v>
+        <v>7.710000038146973</v>
       </c>
       <c r="B71">
-        <v>8.439999580383301</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="C71">
-        <v>7.940000057220459</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="D71">
-        <v>8.050000190734863</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="E71">
-        <v>8.050000190734863</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="F71">
-        <v>16321800</v>
+        <v>22899900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>8.029999732971191</v>
+        <v>7.5</v>
       </c>
       <c r="B72">
-        <v>8.229999542236328</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="C72">
-        <v>7.670000076293945</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="D72">
-        <v>8.140000343322754</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="E72">
-        <v>8.140000343322754</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="F72">
-        <v>22453700</v>
+        <v>19972200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>8.189999580383301</v>
+        <v>7.75</v>
       </c>
       <c r="B73">
-        <v>8.399999618530273</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="C73">
-        <v>7.760000228881836</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="D73">
-        <v>7.880000114440918</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="E73">
-        <v>7.880000114440918</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="F73">
-        <v>18551100</v>
+        <v>12366300</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>7.679999828338623</v>
+        <v>7.760000228881836</v>
       </c>
       <c r="B74">
-        <v>8.109999656677246</v>
+        <v>7.960000038146973</v>
       </c>
       <c r="C74">
-        <v>7.400000095367432</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D74">
-        <v>7.980000019073486</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="E74">
-        <v>7.980000019073486</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="F74">
-        <v>27219600</v>
+        <v>16615900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>7.710000038146973</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="B75">
-        <v>7.829999923706055</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C75">
-        <v>7.309999942779541</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="D75">
-        <v>7.460000038146973</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E75">
-        <v>7.460000038146973</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F75">
-        <v>22899900</v>
+        <v>16313100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>7.5</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="B76">
-        <v>7.929999828338623</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="C76">
-        <v>7.46999979019165</v>
+        <v>7.25</v>
       </c>
       <c r="D76">
-        <v>7.849999904632568</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E76">
-        <v>7.849999904632568</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F76">
-        <v>19972200</v>
+        <v>18199300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>7.75</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="B77">
-        <v>7.889999866485596</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="C77">
-        <v>7.579999923706055</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D77">
-        <v>7.739999771118164</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="E77">
-        <v>7.739999771118164</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="F77">
-        <v>12366300</v>
+        <v>23466400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>7.760000228881836</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B78">
-        <v>7.960000038146973</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C78">
-        <v>7.53000020980835</v>
+        <v>7</v>
       </c>
       <c r="D78">
-        <v>7.840000152587891</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="E78">
-        <v>7.840000152587891</v>
+        <v>7.28000020980835</v>
       </c>
       <c r="F78">
-        <v>16615900</v>
+        <v>28741300</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>7.849999904632568</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B79">
-        <v>7.849999904632568</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="C79">
-        <v>7.53000020980835</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D79">
-        <v>7.610000133514404</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E79">
-        <v>7.610000133514404</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F79">
-        <v>16313100</v>
+        <v>20258500</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>7.550000190734863</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="B80">
-        <v>7.679999828338623</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C80">
-        <v>7.25</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D80">
-        <v>7.28000020980835</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E80">
-        <v>7.28000020980835</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F80">
-        <v>18199300</v>
+        <v>21556900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>7.269999980926514</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B81">
-        <v>7.380000114440918</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C81">
-        <v>6.96999979019165</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D81">
-        <v>7.050000190734863</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E81">
-        <v>7.050000190734863</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F81">
-        <v>23466400</v>
+        <v>24622800</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>7.019999980926514</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B82">
-        <v>7.559999942779541</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D82">
-        <v>7.28000020980835</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E82">
-        <v>7.28000020980835</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F82">
-        <v>28741300</v>
+        <v>30015800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>7.210000038146973</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B83">
-        <v>7.489999771118164</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C83">
-        <v>7.03000020980835</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="D83">
-        <v>7.03000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E83">
-        <v>7.03000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F83">
-        <v>20258500</v>
+        <v>27322300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>7.190000057220459</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B84">
-        <v>7.699999809265137</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="C84">
-        <v>7.079999923706055</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="D84">
-        <v>7.389999866485596</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E84">
-        <v>7.389999866485596</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F84">
-        <v>21556900</v>
+        <v>27156200</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>7.460000038146973</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="B85">
-        <v>7.480000019073486</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="C85">
-        <v>6.960000038146973</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D85">
-        <v>7.110000133514404</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E85">
-        <v>7.110000133514404</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F85">
-        <v>24622800</v>
+        <v>107145700</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>7.059999942779541</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="B86">
-        <v>7.289999961853027</v>
+        <v>7.559999942779541</v>
       </c>
       <c r="C86">
-        <v>6.610000133514404</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="D86">
-        <v>6.630000114440918</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E86">
-        <v>6.630000114440918</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F86">
-        <v>30015800</v>
+        <v>33490300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.670000076293945</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B87">
-        <v>6.840000152587891</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C87">
-        <v>6.360000133514404</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="D87">
-        <v>6.440000057220459</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E87">
-        <v>6.440000057220459</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F87">
-        <v>27322300</v>
+        <v>23457700</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.510000228881836</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="B88">
-        <v>6.769999980926514</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="C88">
-        <v>6.289999961853027</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D88">
-        <v>6.420000076293945</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="E88">
-        <v>6.420000076293945</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="F88">
-        <v>27156200</v>
+        <v>16643300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>7.159999847412109</v>
+        <v>6.769999980926514</v>
       </c>
       <c r="B89">
-        <v>7.840000152587891</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="C89">
-        <v>6.949999809265137</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D89">
-        <v>7.289999961853027</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="E89">
-        <v>7.289999961853027</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F89">
-        <v>107145700</v>
+        <v>18008500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>6.960000038146973</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B90">
-        <v>7.559999942779541</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="C90">
-        <v>6.800000190734863</v>
+        <v>6.269999980926514</v>
       </c>
       <c r="D90">
-        <v>7.380000114440918</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="E90">
-        <v>7.380000114440918</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="F90">
-        <v>33490300</v>
+        <v>21597000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>7.489999771118164</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="B91">
-        <v>7.699999809265137</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C91">
-        <v>7.070000171661377</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="D91">
-        <v>7.150000095367432</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E91">
-        <v>7.150000095367432</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F91">
-        <v>23457700</v>
+        <v>25170900</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>7.199999809265137</v>
+        <v>6</v>
       </c>
       <c r="B92">
-        <v>7.309999942779541</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="C92">
-        <v>6.849999904632568</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D92">
-        <v>6.869999885559082</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="E92">
-        <v>6.869999885559082</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="F92">
-        <v>16643300</v>
+        <v>24224700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>6.769999980926514</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="B93">
-        <v>6.949999809265137</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="C93">
-        <v>6.630000114440918</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="D93">
-        <v>6.860000133514404</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="E93">
-        <v>6.860000133514404</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="F93">
-        <v>18008500</v>
+        <v>25137900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>6.670000076293945</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B94">
-        <v>6.789999961853027</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C94">
-        <v>6.269999980926514</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="D94">
-        <v>6.289999961853027</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="E94">
-        <v>6.289999961853027</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="F94">
-        <v>21597000</v>
+        <v>28766400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6.320000171661377</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B95">
-        <v>6.409999847412109</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C95">
-        <v>5.940000057220459</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D95">
-        <v>5.96999979019165</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E95">
-        <v>5.96999979019165</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F95">
-        <v>25170900</v>
+        <v>15242400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>6</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B96">
-        <v>6.340000152587891</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C96">
-        <v>5.900000095367432</v>
+        <v>5.460000038146973</v>
       </c>
       <c r="D96">
-        <v>5.920000076293945</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="E96">
-        <v>5.920000076293945</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="F96">
-        <v>24224700</v>
+        <v>20766700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>5.829999923706055</v>
+        <v>5.570000171661377</v>
       </c>
       <c r="B97">
-        <v>6.079999923706055</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="C97">
-        <v>5.699999809265137</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D97">
-        <v>5.789999961853027</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="E97">
-        <v>5.789999961853027</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="F97">
-        <v>25137900</v>
+        <v>24067200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.510000228881836</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="B98">
-        <v>5.849999904632568</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="C98">
-        <v>5.199999809265137</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="D98">
-        <v>5.840000152587891</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="E98">
-        <v>5.840000152587891</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="F98">
-        <v>28766400</v>
+        <v>19750600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.659999847412109</v>
+        <v>5.5</v>
       </c>
       <c r="B99">
-        <v>5.869999885559082</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C99">
-        <v>5.550000190734863</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="D99">
-        <v>5.71999979019165</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="E99">
-        <v>5.71999979019165</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="F99">
-        <v>15242400</v>
+        <v>18665900</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5.860000133514404</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="B100">
-        <v>5.869999885559082</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C100">
-        <v>5.460000038146973</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="D100">
-        <v>5.559999942779541</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="E100">
-        <v>5.559999942779541</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="F100">
-        <v>20766700</v>
+        <v>20392700</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>5.570000171661377</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B101">
-        <v>5.630000114440918</v>
+        <v>6.25</v>
       </c>
       <c r="C101">
-        <v>5.150000095367432</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D101">
-        <v>5.21999979019165</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="E101">
-        <v>5.21999979019165</v>
+        <v>5.980000019073486</v>
       </c>
       <c r="F101">
-        <v>24067200</v>
+        <v>15233700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>5.239999771118164</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="B102">
-        <v>5.519999980926514</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="C102">
-        <v>5.150000095367432</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D102">
-        <v>5.480000019073486</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="E102">
-        <v>5.480000019073486</v>
+        <v>5.650000095367432</v>
       </c>
       <c r="F102">
-        <v>19750600</v>
+        <v>11710900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>5.5</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="B103">
-        <v>6.010000228881836</v>
+        <v>6.019999980926514</v>
       </c>
       <c r="C103">
-        <v>5.46999979019165</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D103">
-        <v>5.960000038146973</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E103">
-        <v>5.960000038146973</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F103">
-        <v>18665900</v>
+        <v>14268100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>6.050000190734863</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="B104">
-        <v>6.360000133514404</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="C104">
-        <v>5.840000152587891</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D104">
-        <v>6.21999979019165</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E104">
-        <v>6.21999979019165</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F104">
-        <v>20392700</v>
+        <v>14856100</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>6.170000076293945</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B105">
+        <v>6.260000228881836</v>
+      </c>
+      <c r="C105">
+        <v>5.920000076293945</v>
+      </c>
+      <c r="D105">
         <v>6.25</v>
       </c>
-      <c r="C105">
-        <v>5.889999866485596</v>
-      </c>
-      <c r="D105">
-        <v>5.980000019073486</v>
-      </c>
       <c r="E105">
-        <v>5.980000019073486</v>
+        <v>6.25</v>
       </c>
       <c r="F105">
-        <v>15233700</v>
+        <v>12634800</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>5.820000171661377</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="B106">
-        <v>5.920000076293945</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="C106">
-        <v>5.630000114440918</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="D106">
-        <v>5.650000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E106">
-        <v>5.650000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F106">
-        <v>11710900</v>
+        <v>28831200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>5.670000076293945</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B107">
-        <v>6.019999980926514</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C107">
-        <v>5.630000114440918</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="D107">
-        <v>5.949999809265137</v>
+        <v>7</v>
       </c>
       <c r="E107">
-        <v>5.949999809265137</v>
+        <v>7</v>
       </c>
       <c r="F107">
-        <v>14268100</v>
+        <v>30866200</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>6.03000020980835</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="B108">
-        <v>6.230000019073486</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="C108">
-        <v>5.909999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="D108">
-        <v>6.03000020980835</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="E108">
-        <v>6.03000020980835</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="F108">
-        <v>14856100</v>
+        <v>31495200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>6.010000228881836</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B109">
-        <v>6.260000228881836</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C109">
-        <v>5.920000076293945</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="D109">
-        <v>6.25</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="E109">
-        <v>6.25</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="F109">
-        <v>12634800</v>
+        <v>20311900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>6.420000076293945</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="B110">
-        <v>6.96999979019165</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="C110">
-        <v>6.349999904632568</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D110">
-        <v>6.920000076293945</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="E110">
-        <v>6.920000076293945</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="F110">
-        <v>28831200</v>
+        <v>14703300</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>6.699999809265137</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B111">
-        <v>7.389999866485596</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C111">
-        <v>6.539999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F111">
-        <v>30866200</v>
+        <v>17451600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>6.920000076293945</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="B112">
-        <v>7.360000133514404</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="C112">
-        <v>6.840000152587891</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="D112">
-        <v>7.119999885559082</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="E112">
-        <v>7.119999885559082</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="F112">
-        <v>31495200</v>
+        <v>15178900</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>7.110000133514404</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B113">
-        <v>7.329999923706055</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C113">
-        <v>6.690000057220459</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="D113">
-        <v>6.71999979019165</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="E113">
-        <v>6.71999979019165</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="F113">
-        <v>20311900</v>
+        <v>14587000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>6.909999847412109</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="B114">
-        <v>7.190000057220459</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="C114">
-        <v>6.849999904632568</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="D114">
-        <v>7.150000095367432</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="E114">
-        <v>7.150000095367432</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="F114">
-        <v>14703300</v>
+        <v>14213800</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>7.070000171661377</v>
+        <v>6.210000038146973</v>
       </c>
       <c r="B115">
-        <v>7.480000019073486</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="C115">
-        <v>6.920000076293945</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D115">
-        <v>7.199999809265137</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="E115">
-        <v>7.199999809265137</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="F115">
-        <v>17451600</v>
+        <v>14026800</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>7.059999942779541</v>
+        <v>5.5</v>
       </c>
       <c r="B116">
-        <v>7.190000057220459</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="C116">
-        <v>6.659999847412109</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D116">
-        <v>6.710000038146973</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="E116">
-        <v>6.710000038146973</v>
+        <v>6.170000076293945</v>
       </c>
       <c r="F116">
-        <v>15178900</v>
+        <v>22123900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>6.730000019073486</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="B117">
-        <v>6.800000190734863</v>
+        <v>6.230000019073486</v>
       </c>
       <c r="C117">
-        <v>6.320000171661377</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="D117">
-        <v>6.389999866485596</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="E117">
-        <v>6.389999866485596</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="F117">
-        <v>14587000</v>
+        <v>11057500</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>6.170000076293945</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="B118">
-        <v>6.360000133514404</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="C118">
-        <v>6.03000020980835</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="D118">
-        <v>6.090000152587891</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="E118">
-        <v>6.090000152587891</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="F118">
-        <v>14213800</v>
+        <v>13842800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>6.210000038146973</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="B119">
-        <v>6.380000114440918</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="C119">
-        <v>5.889999866485596</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="D119">
-        <v>5.909999847412109</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="E119">
-        <v>5.909999847412109</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F119">
-        <v>14026800</v>
+        <v>14021600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>5.5</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="B120">
-        <v>6.179999828338623</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="C120">
-        <v>5.429999828338623</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="D120">
-        <v>6.170000076293945</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="E120">
-        <v>6.170000076293945</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="F120">
-        <v>22123900</v>
+        <v>15712800</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>6.21999979019165</v>
+        <v>5.840000152587891</v>
       </c>
       <c r="B121">
-        <v>6.230000019073486</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="C121">
-        <v>5.929999828338623</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="D121">
-        <v>6.059999942779541</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="E121">
-        <v>6.059999942779541</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="F121">
-        <v>11057500</v>
+        <v>23185300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>5.929999828338623</v>
+        <v>5.480000019073486</v>
       </c>
       <c r="B122">
-        <v>6.199999809265137</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="C122">
-        <v>5.869999885559082</v>
+        <v>5.159999847412109</v>
       </c>
       <c r="D122">
-        <v>6.099999904632568</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="E122">
-        <v>6.099999904632568</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="F122">
-        <v>13842800</v>
+        <v>21543000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>6.110000133514404</v>
+        <v>5.289999961853027</v>
       </c>
       <c r="B123">
-        <v>6.119999885559082</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="C123">
-        <v>5.78000020980835</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="D123">
-        <v>5.849999904632568</v>
+        <v>5.119999885559082</v>
       </c>
       <c r="E123">
-        <v>5.849999904632568</v>
+        <v>5.119999885559082</v>
       </c>
       <c r="F123">
-        <v>14021600</v>
+        <v>18564900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>5.869999885559082</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="B124">
-        <v>5.880000114440918</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="C124">
-        <v>5.590000152587891</v>
+        <v>5</v>
       </c>
       <c r="D124">
-        <v>5.829999923706055</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="E124">
-        <v>5.829999923706055</v>
+        <v>5.300000190734863</v>
       </c>
       <c r="F124">
-        <v>15712800</v>
+        <v>24246700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>5.840000152587891</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="B125">
-        <v>5.860000133514404</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="C125">
-        <v>5.369999885559082</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D125">
-        <v>5.420000076293945</v>
+        <v>5.5</v>
       </c>
       <c r="E125">
-        <v>5.420000076293945</v>
+        <v>5.5</v>
       </c>
       <c r="F125">
-        <v>23081100</v>
+        <v>15836400</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>5.480000019073486</v>
+        <v>5.349999904632568</v>
       </c>
       <c r="B126">
-        <v>5.615600109100342</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="C126">
-        <v>5.164999961853027</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="D126">
-        <v>5.239999771118164</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="E126">
-        <v>5.239999771118164</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="F126">
-        <v>21251487</v>
+        <v>12281600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>5.460000038146973</v>
+      </c>
+      <c r="B127">
+        <v>5.446599960327148</v>
+      </c>
+      <c r="C127">
+        <v>5.179999828338623</v>
+      </c>
+      <c r="D127">
+        <v>5.190000057220459</v>
+      </c>
+      <c r="E127">
+        <v>5.190000057220459</v>
+      </c>
+      <c r="F127">
+        <v>10546191</v>
       </c>
     </row>
   </sheetData>
